--- a/Segunda_entrega_correccion/CHECK.xlsx
+++ b/Segunda_entrega_correccion/CHECK.xlsx
@@ -2067,7 +2067,76 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2103,15 +2172,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2119,6 +2179,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2130,9 +2208,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,25 +2217,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2172,18 +2229,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2193,113 +2238,20 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -2653,8 +2605,8 @@
   </sheetPr>
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217:D228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,7 +2642,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="66" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2715,7 +2667,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2731,7 +2683,7 @@
       <c r="C4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2747,7 +2699,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="66" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2765,7 +2717,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2781,7 +2733,7 @@
       <c r="C7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2797,7 +2749,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="73" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2815,7 +2767,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2831,7 +2783,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2847,7 +2799,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2863,7 +2815,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2879,7 +2831,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2895,7 +2847,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2911,7 +2863,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2927,7 +2879,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2943,7 +2895,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2959,7 +2911,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2975,7 +2927,7 @@
       <c r="C19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2991,7 +2943,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="68" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -3009,7 +2961,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3025,7 +2977,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3041,7 +2993,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3057,7 +3009,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3073,7 +3025,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3089,7 +3041,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3105,7 +3057,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3121,7 +3073,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3137,7 +3089,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3153,7 +3105,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3169,7 +3121,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3185,7 +3137,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3201,7 +3153,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3217,7 +3169,7 @@
       <c r="C34" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3233,7 +3185,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="73" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -3251,7 +3203,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="49"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3267,7 +3219,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="49"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3283,7 +3235,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3299,7 +3251,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3315,7 +3267,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3331,7 +3283,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3347,7 +3299,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="49"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3363,7 +3315,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="49"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3379,7 +3331,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3395,7 +3347,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3411,7 +3363,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="49"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3427,7 +3379,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="49"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3444,7 +3396,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="49"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3461,7 +3413,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3478,7 +3430,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="49"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3495,7 +3447,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="49"/>
+      <c r="D51" s="74"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3511,7 +3463,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="49"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3527,7 +3479,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="49"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3543,7 +3495,7 @@
       <c r="C54" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="49"/>
+      <c r="D54" s="74"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3559,7 +3511,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="49"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3575,7 +3527,7 @@
       <c r="C56" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="49"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3591,7 +3543,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="75" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3609,7 +3561,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3625,7 +3577,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3641,7 +3593,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="51"/>
+      <c r="D60" s="76"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3657,7 +3609,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="51"/>
+      <c r="D61" s="76"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3673,7 +3625,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="51"/>
+      <c r="D62" s="76"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3689,7 +3641,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="51"/>
+      <c r="D63" s="76"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3705,7 +3657,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="51"/>
+      <c r="D64" s="76"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3721,7 +3673,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="51"/>
+      <c r="D65" s="76"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3737,7 +3689,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="51"/>
+      <c r="D66" s="76"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3753,7 +3705,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="51"/>
+      <c r="D67" s="76"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3769,7 +3721,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="51"/>
+      <c r="D68" s="76"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3785,7 +3737,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="51"/>
+      <c r="D69" s="76"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3801,7 +3753,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="51"/>
+      <c r="D70" s="76"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3817,7 +3769,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="51"/>
+      <c r="D71" s="76"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3833,7 +3785,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="51"/>
+      <c r="D72" s="76"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3849,7 +3801,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="51"/>
+      <c r="D73" s="76"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3865,7 +3817,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="51"/>
+      <c r="D74" s="76"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3881,7 +3833,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="51"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3897,7 +3849,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="51"/>
+      <c r="D76" s="76"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3913,7 +3865,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="51"/>
+      <c r="D77" s="76"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3929,7 +3881,7 @@
       <c r="C78" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="51"/>
+      <c r="D78" s="76"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3945,7 +3897,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="67" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3963,7 +3915,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="42"/>
+      <c r="D80" s="67"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3979,7 +3931,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="42"/>
+      <c r="D81" s="67"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3995,7 +3947,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="D82" s="67"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4011,7 +3963,7 @@
       <c r="C83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="42"/>
+      <c r="D83" s="67"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4027,7 +3979,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="42"/>
+      <c r="D84" s="67"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4043,7 +3995,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="42"/>
+      <c r="D85" s="67"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4059,7 +4011,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="42"/>
+      <c r="D86" s="67"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4075,7 +4027,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="D87" s="67"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4091,7 +4043,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="42"/>
+      <c r="D88" s="67"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4107,7 +4059,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="42"/>
+      <c r="D89" s="67"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4123,7 +4075,7 @@
       <c r="C90" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="42"/>
+      <c r="D90" s="67"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4139,7 +4091,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="68" t="s">
         <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -4157,7 +4109,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="44"/>
+      <c r="D92" s="69"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4173,7 +4125,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="44"/>
+      <c r="D93" s="69"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4189,7 +4141,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="44"/>
+      <c r="D94" s="69"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4205,7 +4157,7 @@
       <c r="C95" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="44"/>
+      <c r="D95" s="69"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4221,7 +4173,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="44"/>
+      <c r="D96" s="69"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4237,7 +4189,7 @@
       <c r="C97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="44"/>
+      <c r="D97" s="69"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4253,7 +4205,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="44"/>
+      <c r="D98" s="69"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4269,7 +4221,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="44"/>
+      <c r="D99" s="69"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4285,7 +4237,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="44"/>
+      <c r="D100" s="69"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4301,7 +4253,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="44"/>
+      <c r="D101" s="69"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4317,7 +4269,7 @@
       <c r="C102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="44"/>
+      <c r="D102" s="69"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4333,7 +4285,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="44"/>
+      <c r="D103" s="69"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4349,7 +4301,7 @@
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="44"/>
+      <c r="D104" s="69"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4365,7 +4317,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="44"/>
+      <c r="D105" s="69"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4381,7 +4333,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="44"/>
+      <c r="D106" s="69"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4397,7 +4349,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="44"/>
+      <c r="D107" s="69"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4413,7 +4365,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="44"/>
+      <c r="D108" s="69"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4429,7 +4381,7 @@
       <c r="C109" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="45"/>
+      <c r="D109" s="70"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4445,7 +4397,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="46" t="s">
+      <c r="D110" s="71" t="s">
         <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -4463,7 +4415,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="46"/>
+      <c r="D111" s="71"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4479,7 +4431,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="46"/>
+      <c r="D112" s="71"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4495,7 +4447,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="46"/>
+      <c r="D113" s="71"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4511,7 +4463,7 @@
       <c r="C114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="46"/>
+      <c r="D114" s="71"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4527,7 +4479,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="46"/>
+      <c r="D115" s="71"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4543,7 +4495,7 @@
       <c r="C116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="46"/>
+      <c r="D116" s="71"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4559,7 +4511,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="46"/>
+      <c r="D117" s="71"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4575,7 +4527,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="46"/>
+      <c r="D118" s="71"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4591,7 +4543,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="46"/>
+      <c r="D119" s="71"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4607,7 +4559,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="46"/>
+      <c r="D120" s="71"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4623,7 +4575,7 @@
       <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="46"/>
+      <c r="D121" s="71"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4639,7 +4591,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="46"/>
+      <c r="D122" s="71"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4655,7 +4607,7 @@
       <c r="C123" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="46"/>
+      <c r="D123" s="71"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4671,7 +4623,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="46"/>
+      <c r="D124" s="71"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4687,7 +4639,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="46"/>
+      <c r="D125" s="71"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4703,7 +4655,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="46"/>
+      <c r="D126" s="71"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4719,7 +4671,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="46"/>
+      <c r="D127" s="71"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4735,7 +4687,7 @@
       <c r="C128" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="47"/>
+      <c r="D128" s="72"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4751,7 +4703,7 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="52" t="s">
+      <c r="D129" s="57" t="s">
         <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
@@ -4769,7 +4721,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="53"/>
+      <c r="D130" s="58"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4785,7 +4737,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="53"/>
+      <c r="D131" s="58"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E137" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -4801,7 +4753,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="53"/>
+      <c r="D132" s="58"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4817,7 +4769,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="53"/>
+      <c r="D133" s="58"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4833,7 +4785,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="53"/>
+      <c r="D134" s="58"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4849,7 +4801,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="53"/>
+      <c r="D135" s="58"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4865,7 +4817,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="53"/>
+      <c r="D136" s="58"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4881,7 +4833,7 @@
       <c r="C137" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="54"/>
+      <c r="D137" s="59"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4897,7 +4849,7 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="55" t="s">
+      <c r="D138" s="77" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -4915,7 +4867,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="56"/>
+      <c r="D139" s="78"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4931,7 +4883,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="56"/>
+      <c r="D140" s="78"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4947,7 +4899,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="56"/>
+      <c r="D141" s="78"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4963,7 +4915,7 @@
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="56"/>
+      <c r="D142" s="78"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4979,7 +4931,7 @@
       <c r="C143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="56"/>
+      <c r="D143" s="78"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4995,7 +4947,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="56"/>
+      <c r="D144" s="78"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5011,7 +4963,7 @@
       <c r="C145" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="56"/>
+      <c r="D145" s="78"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5027,7 +4979,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="56"/>
+      <c r="D146" s="78"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5043,7 +4995,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="56"/>
+      <c r="D147" s="78"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5059,7 +5011,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="56"/>
+      <c r="D148" s="78"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5075,7 +5027,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="56"/>
+      <c r="D149" s="78"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5091,7 +5043,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="56"/>
+      <c r="D150" s="78"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5107,7 +5059,7 @@
       <c r="C151" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="56"/>
+      <c r="D151" s="78"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5123,7 +5075,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="56"/>
+      <c r="D152" s="78"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5139,7 +5091,7 @@
       <c r="C153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="56"/>
+      <c r="D153" s="78"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5155,7 +5107,7 @@
       <c r="C154" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="56"/>
+      <c r="D154" s="78"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5171,7 +5123,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="56"/>
+      <c r="D155" s="78"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5187,7 +5139,7 @@
       <c r="C156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="56"/>
+      <c r="D156" s="78"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5203,7 +5155,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="56"/>
+      <c r="D157" s="78"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5219,7 +5171,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="56"/>
+      <c r="D158" s="78"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5235,7 +5187,7 @@
       <c r="C159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="56"/>
+      <c r="D159" s="78"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5251,7 +5203,7 @@
       <c r="C160" s="36">
         <v>0</v>
       </c>
-      <c r="D160" s="57"/>
+      <c r="D160" s="79"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5261,13 +5213,13 @@
       <c r="A161" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B161" s="85" t="s">
+      <c r="B161" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C161" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D161" s="86" t="s">
+      <c r="D161" s="54" t="s">
         <v>323</v>
       </c>
       <c r="E161" s="6" t="str">
@@ -5285,7 +5237,7 @@
       <c r="C162" s="7">
         <v>1</v>
       </c>
-      <c r="D162" s="87"/>
+      <c r="D162" s="55"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5301,7 +5253,7 @@
       <c r="C163" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="88"/>
+      <c r="D163" s="56"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5311,13 +5263,13 @@
       <c r="A164" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B164" s="85" t="s">
+      <c r="B164" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C164" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="52" t="s">
+      <c r="D164" s="57" t="s">
         <v>323</v>
       </c>
       <c r="E164" s="6" t="str">
@@ -5335,7 +5287,7 @@
       <c r="C165" s="7">
         <v>15</v>
       </c>
-      <c r="D165" s="53"/>
+      <c r="D165" s="58"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5351,7 +5303,7 @@
       <c r="C166" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D166" s="54"/>
+      <c r="D166" s="59"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5361,13 +5313,13 @@
       <c r="A167" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B167" s="85" t="s">
+      <c r="B167" s="46" t="s">
         <v>314</v>
       </c>
       <c r="C167" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="D167" s="86" t="s">
+      <c r="D167" s="54" t="s">
         <v>322</v>
       </c>
       <c r="E167" s="6" t="str">
@@ -5385,7 +5337,7 @@
       <c r="C168" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D168" s="87"/>
+      <c r="D168" s="55"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5401,7 +5353,7 @@
       <c r="C169" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="88"/>
+      <c r="D169" s="56"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5411,13 +5363,13 @@
       <c r="A170" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B170" s="85" t="s">
+      <c r="B170" s="46" t="s">
         <v>314</v>
       </c>
       <c r="C170" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="D170" s="52" t="s">
+      <c r="D170" s="57" t="s">
         <v>322</v>
       </c>
       <c r="E170" s="6" t="str">
@@ -5435,7 +5387,7 @@
       <c r="C171" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D171" s="53"/>
+      <c r="D171" s="58"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5451,7 +5403,7 @@
       <c r="C172" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="54"/>
+      <c r="D172" s="59"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5461,13 +5413,13 @@
       <c r="A173" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B173" s="85" t="s">
+      <c r="B173" s="46" t="s">
         <v>314</v>
       </c>
       <c r="C173" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="D173" s="86" t="s">
+      <c r="D173" s="54" t="s">
         <v>322</v>
       </c>
       <c r="E173" s="6" t="str">
@@ -5485,7 +5437,7 @@
       <c r="C174" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D174" s="87"/>
+      <c r="D174" s="55"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5501,7 +5453,7 @@
       <c r="C175" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="88"/>
+      <c r="D175" s="56"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5511,13 +5463,13 @@
       <c r="A176" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B176" s="85" t="s">
+      <c r="B176" s="46" t="s">
         <v>314</v>
       </c>
       <c r="C176" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="D176" s="52" t="s">
+      <c r="D176" s="57" t="s">
         <v>321</v>
       </c>
       <c r="E176" s="6" t="str">
@@ -5535,7 +5487,7 @@
       <c r="C177" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D177" s="53"/>
+      <c r="D177" s="58"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5551,7 +5503,7 @@
       <c r="C178" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="54"/>
+      <c r="D178" s="59"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5561,13 +5513,13 @@
       <c r="A179" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B179" s="85" t="s">
+      <c r="B179" s="46" t="s">
         <v>319</v>
       </c>
       <c r="C179" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="D179" s="86" t="s">
+      <c r="D179" s="54" t="s">
         <v>320</v>
       </c>
       <c r="E179" s="6" t="str">
@@ -5580,7 +5532,7 @@
         <v>192</v>
       </c>
       <c r="B180" s="9"/>
-      <c r="D180" s="87"/>
+      <c r="D180" s="55"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5596,7 +5548,7 @@
       <c r="C181" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="88"/>
+      <c r="D181" s="56"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5606,13 +5558,13 @@
       <c r="A182" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B182" s="85" t="s">
+      <c r="B182" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C182" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D182" s="89" t="s">
+      <c r="D182" s="60" t="s">
         <v>329</v>
       </c>
       <c r="E182" s="6" t="str">
@@ -5630,7 +5582,7 @@
       <c r="C183" s="7">
         <v>2</v>
       </c>
-      <c r="D183" s="90"/>
+      <c r="D183" s="61"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5646,7 +5598,7 @@
       <c r="C184" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D184" s="90"/>
+      <c r="D184" s="61"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5662,7 +5614,7 @@
       <c r="C185" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D185" s="90"/>
+      <c r="D185" s="61"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5678,7 +5630,7 @@
       <c r="C186" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D186" s="90"/>
+      <c r="D186" s="61"/>
       <c r="E186" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5694,7 +5646,7 @@
       <c r="C187" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D187" s="90"/>
+      <c r="D187" s="61"/>
       <c r="E187" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5710,7 +5662,7 @@
       <c r="C188" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D188" s="90"/>
+      <c r="D188" s="61"/>
       <c r="E188" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5726,7 +5678,7 @@
       <c r="C189" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D189" s="90"/>
+      <c r="D189" s="61"/>
       <c r="E189" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5742,7 +5694,7 @@
       <c r="C190" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D190" s="90"/>
+      <c r="D190" s="61"/>
       <c r="E190" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5758,7 +5710,7 @@
       <c r="C191" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D191" s="90"/>
+      <c r="D191" s="61"/>
       <c r="E191" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5774,7 +5726,7 @@
       <c r="C192" s="7">
         <v>4</v>
       </c>
-      <c r="D192" s="90"/>
+      <c r="D192" s="61"/>
       <c r="E192" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5790,7 +5742,7 @@
       <c r="C193" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D193" s="90"/>
+      <c r="D193" s="61"/>
       <c r="E193" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5806,7 +5758,7 @@
       <c r="C194" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D194" s="90"/>
+      <c r="D194" s="61"/>
       <c r="E194" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5822,7 +5774,7 @@
       <c r="C195" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D195" s="90"/>
+      <c r="D195" s="61"/>
       <c r="E195" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5838,7 +5790,7 @@
       <c r="C196" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D196" s="90"/>
+      <c r="D196" s="61"/>
       <c r="E196" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5854,7 +5806,7 @@
       <c r="C197" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D197" s="90"/>
+      <c r="D197" s="61"/>
       <c r="E197" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5870,7 +5822,7 @@
       <c r="C198" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D198" s="90"/>
+      <c r="D198" s="61"/>
       <c r="E198" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5886,7 +5838,7 @@
       <c r="C199" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D199" s="90"/>
+      <c r="D199" s="61"/>
       <c r="E199" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5902,7 +5854,7 @@
       <c r="C200" s="7">
         <v>1</v>
       </c>
-      <c r="D200" s="90"/>
+      <c r="D200" s="61"/>
       <c r="E200" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5918,7 +5870,7 @@
       <c r="C201" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D201" s="90"/>
+      <c r="D201" s="61"/>
       <c r="E201" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5934,7 +5886,7 @@
       <c r="C202" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D202" s="90"/>
+      <c r="D202" s="61"/>
       <c r="E202" s="6" t="str">
         <f t="shared" ref="E202:E265" si="4">IF(AND(B202=C202,B202&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -5950,7 +5902,7 @@
       <c r="C203" s="7">
         <v>0</v>
       </c>
-      <c r="D203" s="90"/>
+      <c r="D203" s="61"/>
       <c r="E203" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -5966,7 +5918,7 @@
       <c r="C204" s="7">
         <v>1</v>
       </c>
-      <c r="D204" s="90"/>
+      <c r="D204" s="61"/>
       <c r="E204" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -5982,7 +5934,7 @@
       <c r="C205" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D205" s="90"/>
+      <c r="D205" s="61"/>
       <c r="E205" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -5998,7 +5950,7 @@
       <c r="C206" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D206" s="90"/>
+      <c r="D206" s="61"/>
       <c r="E206" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6014,7 +5966,7 @@
       <c r="C207" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D207" s="90"/>
+      <c r="D207" s="61"/>
       <c r="E207" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6030,7 +5982,7 @@
       <c r="C208" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D208" s="90"/>
+      <c r="D208" s="61"/>
       <c r="E208" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6046,7 +5998,7 @@
       <c r="C209" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D209" s="90"/>
+      <c r="D209" s="61"/>
       <c r="E209" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6062,7 +6014,7 @@
       <c r="C210" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D210" s="90"/>
+      <c r="D210" s="61"/>
       <c r="E210" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6078,7 +6030,7 @@
       <c r="C211" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D211" s="90"/>
+      <c r="D211" s="61"/>
       <c r="E211" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6094,7 +6046,7 @@
       <c r="C212" s="7">
         <v>2</v>
       </c>
-      <c r="D212" s="90"/>
+      <c r="D212" s="61"/>
       <c r="E212" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6110,7 +6062,7 @@
       <c r="C213" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D213" s="90"/>
+      <c r="D213" s="61"/>
       <c r="E213" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6126,7 +6078,7 @@
       <c r="C214" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D214" s="90"/>
+      <c r="D214" s="61"/>
       <c r="E214" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6142,7 +6094,7 @@
       <c r="C215" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D215" s="90"/>
+      <c r="D215" s="61"/>
       <c r="E215" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6158,7 +6110,7 @@
       <c r="C216" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="D216" s="91"/>
+      <c r="D216" s="62"/>
       <c r="E216" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6168,13 +6120,13 @@
       <c r="A217" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B217" s="85" t="s">
+      <c r="B217" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C217" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D217" s="92" t="s">
+      <c r="D217" s="63" t="s">
         <v>330</v>
       </c>
       <c r="E217" s="6" t="str">
@@ -6192,7 +6144,7 @@
       <c r="C218" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D218" s="93"/>
+      <c r="D218" s="64"/>
       <c r="E218" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6208,7 +6160,7 @@
       <c r="C219" s="7">
         <v>2</v>
       </c>
-      <c r="D219" s="93"/>
+      <c r="D219" s="64"/>
       <c r="E219" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6224,7 +6176,7 @@
       <c r="C220" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D220" s="93"/>
+      <c r="D220" s="64"/>
       <c r="E220" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6240,7 +6192,7 @@
       <c r="C221" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D221" s="93"/>
+      <c r="D221" s="64"/>
       <c r="E221" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6256,7 +6208,7 @@
       <c r="C222" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D222" s="93"/>
+      <c r="D222" s="64"/>
       <c r="E222" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6272,7 +6224,7 @@
       <c r="C223" s="7">
         <v>10</v>
       </c>
-      <c r="D223" s="93"/>
+      <c r="D223" s="64"/>
       <c r="E223" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6288,7 +6240,7 @@
       <c r="C224" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="93"/>
+      <c r="D224" s="64"/>
       <c r="E224" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6304,7 +6256,7 @@
       <c r="C225" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D225" s="93"/>
+      <c r="D225" s="64"/>
       <c r="E225" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6320,7 +6272,7 @@
       <c r="C226" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D226" s="93"/>
+      <c r="D226" s="64"/>
       <c r="E226" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6336,7 +6288,7 @@
       <c r="C227" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D227" s="93"/>
+      <c r="D227" s="64"/>
       <c r="E227" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6352,49 +6304,49 @@
       <c r="C228" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="D228" s="95"/>
+      <c r="D228" s="65"/>
       <c r="E228" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="94" t="s">
+      <c r="A229" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="D229" s="97"/>
+      <c r="D229" s="49"/>
       <c r="E229" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="99" t="s">
+      <c r="A230" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D230" s="97"/>
+      <c r="D230" s="49"/>
       <c r="E230" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="101" t="s">
+      <c r="A231" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="B231" s="100"/>
+      <c r="B231" s="52"/>
       <c r="C231" s="27"/>
-      <c r="D231" s="97"/>
+      <c r="D231" s="49"/>
       <c r="E231" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="94" t="s">
+      <c r="A232" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="D232" s="97"/>
+      <c r="D232" s="49"/>
       <c r="E232" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6404,7 +6356,7 @@
       <c r="A233" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D233" s="97"/>
+      <c r="D233" s="49"/>
       <c r="E233" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6414,15 +6366,15 @@
       <c r="A234" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B234" s="96"/>
-      <c r="D234" s="98"/>
+      <c r="B234" s="48"/>
+      <c r="D234" s="50"/>
       <c r="E234" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="94" t="s">
+      <c r="A235" s="47" t="s">
         <v>247</v>
       </c>
       <c r="E235" s="6" t="str">
@@ -6720,13 +6672,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="D182:D216"/>
-    <mergeCell ref="D217:D228"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="D129:D137"/>
+    <mergeCell ref="D138:D160"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="D164:D166"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D79:D90"/>
@@ -6736,16 +6685,19 @@
     <mergeCell ref="D20:D34"/>
     <mergeCell ref="D35:D56"/>
     <mergeCell ref="D57:D78"/>
-    <mergeCell ref="D129:D137"/>
-    <mergeCell ref="D138:D160"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="D182:D216"/>
+    <mergeCell ref="D217:D228"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="D179:D181"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E267">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6782,25 +6734,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="82" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="16">
@@ -6946,7 +6898,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -7020,31 +6972,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="68" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="82" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="16">
@@ -7190,7 +7142,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -7270,41 +7222,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="65" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="58" t="s">
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="68" t="s">
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="82" t="s">
         <v>288</v>
       </c>
       <c r="B8" s="16">
@@ -7450,7 +7402,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -7544,41 +7496,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="65" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="58" t="s">
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="68" t="s">
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="82" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="16">
@@ -7724,7 +7676,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -7819,40 +7771,40 @@
     </row>
     <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65" t="s">
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="58" t="s">
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="V14" s="59"/>
-      <c r="W14" s="60"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="88"/>
       <c r="X14" s="31" t="s">
         <v>287</v>
       </c>
       <c r="Y14" s="33"/>
     </row>
     <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="82" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="16">
@@ -7929,7 +7881,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
@@ -8010,6 +7962,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B4:H4"/>
@@ -8021,16 +7983,6 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:T14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8064,27 +8016,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="82" t="s">
         <v>292</v>
       </c>
       <c r="B2" s="16">
@@ -8132,7 +8084,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -8178,34 +8130,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="65" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="60"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="88"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="82" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="16">
@@ -8267,7 +8219,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -8327,34 +8279,34 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="65" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="60"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="88"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="82" t="s">
         <v>294</v>
       </c>
       <c r="B8" s="16">
@@ -8416,145 +8368,145 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="42">
         <v>7</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="42">
         <v>8</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="77" t="s">
+      <c r="M9" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="N9" s="76" t="s">
+      <c r="N9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="77" t="s">
+      <c r="O9" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="76" t="s">
+      <c r="P9" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="42">
         <v>5</v>
       </c>
-      <c r="R9" s="76" t="s">
+      <c r="R9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="78" t="s">
+      <c r="S9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="76" t="s">
+      <c r="T9" s="42" t="s">
         <v>33</v>
       </c>
       <c r="U9" s="22"/>
     </row>
     <row r="10" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="79" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96" t="s">
         <v>325</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="83" t="s">
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
-      <c r="T10" s="75"/>
+      <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40">
         <v>216</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="40">
         <v>217</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="40">
         <v>218</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="40">
         <v>219</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="40">
         <v>220</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="40">
         <v>221</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="40">
         <v>222</v>
       </c>
-      <c r="L11" s="71">
+      <c r="L11" s="40">
         <v>223</v>
       </c>
-      <c r="M11" s="71">
+      <c r="M11" s="40">
         <v>224</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="40">
         <v>225</v>
       </c>
-      <c r="O11" s="71">
+      <c r="O11" s="40">
         <v>226</v>
       </c>
-      <c r="P11" s="71">
+      <c r="P11" s="40">
         <v>227</v>
       </c>
-      <c r="Q11" s="71">
+      <c r="Q11" s="40">
         <v>228</v>
       </c>
-      <c r="R11" s="71">
+      <c r="R11" s="40">
         <v>229</v>
       </c>
-      <c r="S11" s="71">
+      <c r="S11" s="40">
         <v>230</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="40">
         <v>231</v>
       </c>
     </row>
@@ -8649,15 +8601,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="82" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="16">
@@ -8687,7 +8639,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -8734,7 +8686,7 @@
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="82" t="s">
         <v>301</v>
       </c>
       <c r="B6" s="16">
@@ -8772,7 +8724,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -8823,7 +8775,7 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="82" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="16">
@@ -8861,7 +8813,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -8951,7 +8903,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="66" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -8976,7 +8928,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -8992,7 +8944,7 @@
       <c r="C4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9008,7 +8960,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="66" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -9026,7 +8978,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9042,7 +8994,7 @@
       <c r="C7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9058,7 +9010,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="73" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -9076,7 +9028,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9092,7 +9044,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9108,7 +9060,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9124,7 +9076,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9140,7 +9092,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9156,7 +9108,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9172,7 +9124,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9188,7 +9140,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9204,7 +9156,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9220,7 +9172,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9236,7 +9188,7 @@
       <c r="C19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9252,7 +9204,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="68" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -9270,7 +9222,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9286,7 +9238,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9302,7 +9254,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9318,7 +9270,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9334,7 +9286,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9350,7 +9302,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9366,7 +9318,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9382,7 +9334,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9398,7 +9350,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9414,7 +9366,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9430,7 +9382,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9446,7 +9398,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9462,7 +9414,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9478,7 +9430,7 @@
       <c r="C34" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9494,7 +9446,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="73" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -9512,7 +9464,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="49"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9528,7 +9480,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="49"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9544,7 +9496,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9560,7 +9512,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9576,7 +9528,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9592,7 +9544,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9608,7 +9560,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="49"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9624,7 +9576,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="49"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9640,7 +9592,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9656,7 +9608,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9672,7 +9624,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="49"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9688,7 +9640,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="49"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9705,7 +9657,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="49"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9722,7 +9674,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9739,7 +9691,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="49"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9756,7 +9708,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="49"/>
+      <c r="D51" s="74"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9772,7 +9724,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="49"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9788,7 +9740,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="49"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9804,7 +9756,7 @@
       <c r="C54" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="49"/>
+      <c r="D54" s="74"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9820,7 +9772,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="49"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9836,7 +9788,7 @@
       <c r="C56" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="49"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9852,7 +9804,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="75" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -9870,7 +9822,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9886,7 +9838,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9902,7 +9854,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="51"/>
+      <c r="D60" s="76"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9918,7 +9870,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="51"/>
+      <c r="D61" s="76"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9934,7 +9886,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="51"/>
+      <c r="D62" s="76"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9950,7 +9902,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="51"/>
+      <c r="D63" s="76"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9966,7 +9918,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="51"/>
+      <c r="D64" s="76"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9982,7 +9934,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="51"/>
+      <c r="D65" s="76"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9998,7 +9950,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="51"/>
+      <c r="D66" s="76"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10014,7 +9966,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="51"/>
+      <c r="D67" s="76"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -10030,7 +9982,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="51"/>
+      <c r="D68" s="76"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10046,7 +9998,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="51"/>
+      <c r="D69" s="76"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10062,7 +10014,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="51"/>
+      <c r="D70" s="76"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10078,7 +10030,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="51"/>
+      <c r="D71" s="76"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10094,7 +10046,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="51"/>
+      <c r="D72" s="76"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10110,7 +10062,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="51"/>
+      <c r="D73" s="76"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10126,7 +10078,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="51"/>
+      <c r="D74" s="76"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10142,7 +10094,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="51"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10158,7 +10110,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="51"/>
+      <c r="D76" s="76"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10174,7 +10126,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="51"/>
+      <c r="D77" s="76"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10190,7 +10142,7 @@
       <c r="C78" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="51"/>
+      <c r="D78" s="76"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10206,7 +10158,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="67" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -10224,7 +10176,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="42"/>
+      <c r="D80" s="67"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10240,7 +10192,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="42"/>
+      <c r="D81" s="67"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10256,7 +10208,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="D82" s="67"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10272,7 +10224,7 @@
       <c r="C83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="42"/>
+      <c r="D83" s="67"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10288,7 +10240,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="42"/>
+      <c r="D84" s="67"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10304,7 +10256,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="42"/>
+      <c r="D85" s="67"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10320,7 +10272,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="42"/>
+      <c r="D86" s="67"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10336,7 +10288,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="D87" s="67"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10352,7 +10304,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="42"/>
+      <c r="D88" s="67"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10368,7 +10320,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="42"/>
+      <c r="D89" s="67"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10384,7 +10336,7 @@
       <c r="C90" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="42"/>
+      <c r="D90" s="67"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10400,7 +10352,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="68" t="s">
         <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -10418,7 +10370,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="44"/>
+      <c r="D92" s="69"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10434,7 +10386,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="44"/>
+      <c r="D93" s="69"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10450,7 +10402,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="44"/>
+      <c r="D94" s="69"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10466,7 +10418,7 @@
       <c r="C95" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="44"/>
+      <c r="D95" s="69"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10482,7 +10434,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="44"/>
+      <c r="D96" s="69"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10498,7 +10450,7 @@
       <c r="C97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="44"/>
+      <c r="D97" s="69"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10514,7 +10466,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="44"/>
+      <c r="D98" s="69"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10530,7 +10482,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="44"/>
+      <c r="D99" s="69"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10546,7 +10498,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="44"/>
+      <c r="D100" s="69"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10562,7 +10514,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="44"/>
+      <c r="D101" s="69"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10578,7 +10530,7 @@
       <c r="C102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="44"/>
+      <c r="D102" s="69"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10594,7 +10546,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="44"/>
+      <c r="D103" s="69"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10610,7 +10562,7 @@
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="44"/>
+      <c r="D104" s="69"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10626,7 +10578,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="44"/>
+      <c r="D105" s="69"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10642,7 +10594,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="44"/>
+      <c r="D106" s="69"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10658,7 +10610,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="44"/>
+      <c r="D107" s="69"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10674,7 +10626,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="44"/>
+      <c r="D108" s="69"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10690,7 +10642,7 @@
       <c r="C109" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="45"/>
+      <c r="D109" s="70"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10706,7 +10658,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="46" t="s">
+      <c r="D110" s="71" t="s">
         <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -10724,7 +10676,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="46"/>
+      <c r="D111" s="71"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10740,7 +10692,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="46"/>
+      <c r="D112" s="71"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10756,7 +10708,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="46"/>
+      <c r="D113" s="71"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10772,7 +10724,7 @@
       <c r="C114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="46"/>
+      <c r="D114" s="71"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10788,7 +10740,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="46"/>
+      <c r="D115" s="71"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10804,7 +10756,7 @@
       <c r="C116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="46"/>
+      <c r="D116" s="71"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10820,7 +10772,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="46"/>
+      <c r="D117" s="71"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10836,7 +10788,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="46"/>
+      <c r="D118" s="71"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10852,7 +10804,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="46"/>
+      <c r="D119" s="71"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10868,7 +10820,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="46"/>
+      <c r="D120" s="71"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10884,7 +10836,7 @@
       <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="46"/>
+      <c r="D121" s="71"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10900,7 +10852,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="46"/>
+      <c r="D122" s="71"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10916,7 +10868,7 @@
       <c r="C123" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="46"/>
+      <c r="D123" s="71"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10932,7 +10884,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="46"/>
+      <c r="D124" s="71"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10948,7 +10900,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="46"/>
+      <c r="D125" s="71"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10964,7 +10916,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="46"/>
+      <c r="D126" s="71"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10980,7 +10932,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="46"/>
+      <c r="D127" s="71"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10996,7 +10948,7 @@
       <c r="C128" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="47"/>
+      <c r="D128" s="72"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11012,7 +10964,7 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="52" t="s">
+      <c r="D129" s="57" t="s">
         <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
@@ -11030,7 +10982,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="53"/>
+      <c r="D130" s="58"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11046,7 +10998,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="53"/>
+      <c r="D131" s="58"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -11062,7 +11014,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="53"/>
+      <c r="D132" s="58"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11078,7 +11030,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="53"/>
+      <c r="D133" s="58"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11094,7 +11046,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="53"/>
+      <c r="D134" s="58"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11110,7 +11062,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="53"/>
+      <c r="D135" s="58"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11126,7 +11078,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="53"/>
+      <c r="D136" s="58"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11142,7 +11094,7 @@
       <c r="C137" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="54"/>
+      <c r="D137" s="59"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11158,7 +11110,7 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="55" t="s">
+      <c r="D138" s="77" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -11176,7 +11128,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="56"/>
+      <c r="D139" s="78"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11192,7 +11144,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="56"/>
+      <c r="D140" s="78"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11208,7 +11160,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="56"/>
+      <c r="D141" s="78"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11224,7 +11176,7 @@
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="56"/>
+      <c r="D142" s="78"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11240,7 +11192,7 @@
       <c r="C143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="56"/>
+      <c r="D143" s="78"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11256,7 +11208,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="56"/>
+      <c r="D144" s="78"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11272,7 +11224,7 @@
       <c r="C145" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="56"/>
+      <c r="D145" s="78"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11288,7 +11240,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="56"/>
+      <c r="D146" s="78"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11304,7 +11256,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="56"/>
+      <c r="D147" s="78"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11320,7 +11272,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="56"/>
+      <c r="D148" s="78"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11336,7 +11288,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="56"/>
+      <c r="D149" s="78"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11352,7 +11304,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="56"/>
+      <c r="D150" s="78"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11368,7 +11320,7 @@
       <c r="C151" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="56"/>
+      <c r="D151" s="78"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11384,7 +11336,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="56"/>
+      <c r="D152" s="78"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11400,7 +11352,7 @@
       <c r="C153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="56"/>
+      <c r="D153" s="78"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11416,7 +11368,7 @@
       <c r="C154" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="56"/>
+      <c r="D154" s="78"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11432,7 +11384,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="56"/>
+      <c r="D155" s="78"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11448,7 +11400,7 @@
       <c r="C156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="56"/>
+      <c r="D156" s="78"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11464,7 +11416,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="56"/>
+      <c r="D157" s="78"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11480,7 +11432,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="56"/>
+      <c r="D158" s="78"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11496,7 +11448,7 @@
       <c r="C159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="56"/>
+      <c r="D159" s="78"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11512,7 +11464,7 @@
       <c r="C160" s="36">
         <v>0</v>
       </c>
-      <c r="D160" s="57"/>
+      <c r="D160" s="79"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11528,7 +11480,7 @@
       <c r="C161" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="40" t="s">
+      <c r="D161" s="101" t="s">
         <v>310</v>
       </c>
       <c r="E161" s="6" t="str">
@@ -11546,7 +11498,7 @@
       <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D162" s="40"/>
+      <c r="D162" s="101"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11562,7 +11514,7 @@
       <c r="C163" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="40"/>
+      <c r="D163" s="101"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11578,7 +11530,7 @@
       <c r="C164" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="40"/>
+      <c r="D164" s="101"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11594,7 +11546,7 @@
       <c r="C165" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="40"/>
+      <c r="D165" s="101"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11610,7 +11562,7 @@
       <c r="C166" s="7">
         <v>2</v>
       </c>
-      <c r="D166" s="40"/>
+      <c r="D166" s="101"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11626,7 +11578,7 @@
       <c r="C167" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="40"/>
+      <c r="D167" s="101"/>
       <c r="E167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11642,7 +11594,7 @@
       <c r="C168" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="40"/>
+      <c r="D168" s="101"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11658,7 +11610,7 @@
       <c r="C169" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D169" s="40"/>
+      <c r="D169" s="101"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11674,7 +11626,7 @@
       <c r="C170" s="7">
         <v>10</v>
       </c>
-      <c r="D170" s="40"/>
+      <c r="D170" s="101"/>
       <c r="E170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11690,7 +11642,7 @@
       <c r="C171" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="40"/>
+      <c r="D171" s="101"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11706,7 +11658,7 @@
       <c r="C172" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D172" s="40"/>
+      <c r="D172" s="101"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11722,7 +11674,7 @@
       <c r="C173" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D173" s="40"/>
+      <c r="D173" s="101"/>
       <c r="E173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11738,7 +11690,7 @@
       <c r="C174" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="40"/>
+      <c r="D174" s="101"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11754,7 +11706,7 @@
       <c r="C175" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D175" s="40"/>
+      <c r="D175" s="101"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11770,7 +11722,7 @@
       <c r="C176" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="40"/>
+      <c r="D176" s="101"/>
       <c r="E176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11786,7 +11738,7 @@
       <c r="C177" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="40"/>
+      <c r="D177" s="101"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11802,7 +11754,7 @@
       <c r="C178" s="7">
         <v>163</v>
       </c>
-      <c r="D178" s="40"/>
+      <c r="D178" s="101"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11815,7 +11767,7 @@
       <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="40"/>
+      <c r="D179" s="101"/>
       <c r="E179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11828,7 +11780,7 @@
       <c r="B180" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D180" s="40"/>
+      <c r="D180" s="101"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11841,7 +11793,7 @@
       <c r="B181" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="40"/>
+      <c r="D181" s="101"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11854,7 +11806,7 @@
       <c r="B182" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="40"/>
+      <c r="D182" s="101"/>
       <c r="E182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11867,7 +11819,7 @@
       <c r="B183" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D183" s="40"/>
+      <c r="D183" s="101"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11880,7 +11832,7 @@
       <c r="B184" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="40"/>
+      <c r="D184" s="101"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11893,7 +11845,7 @@
       <c r="B185" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D185" s="40"/>
+      <c r="D185" s="101"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12329,10 +12281,10 @@
     <mergeCell ref="D138:D160"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E185">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$E2="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Segunda_entrega_correccion/CHECK.xlsx
+++ b/Segunda_entrega_correccion/CHECK.xlsx
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="333">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1608,9 +1608,6 @@
     <t>REPEAT</t>
   </si>
   <si>
-    <t>REPEAT a:=a+2 UNTIL a &lt;= 10</t>
-  </si>
-  <si>
     <t>RESULTADO OBTENIDO</t>
   </si>
   <si>
@@ -1650,22 +1647,31 @@
     <t>if(BETWEEN(a,[2;a*(b+4)])) then { a:= 15 } endif</t>
   </si>
   <si>
-    <t>cuerpo</t>
-  </si>
-  <si>
     <t>inicuerpo = posactual</t>
   </si>
   <si>
     <t>desapilar() = posactual</t>
   </si>
   <si>
-    <t>CONDICION</t>
-  </si>
-  <si>
     <t>BETWEEN IF</t>
   </si>
   <si>
-    <t>REPEAT UNTIL</t>
+    <t>CELDA 267</t>
+  </si>
+  <si>
+    <t>CELDA 268</t>
+  </si>
+  <si>
+    <t>CELDA 269</t>
+  </si>
+  <si>
+    <t>CELDA 270</t>
+  </si>
+  <si>
+    <t>CELDA 271</t>
+  </si>
+  <si>
+    <t>CELDA 272</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1730,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1821,14 +1827,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1954,11 +1954,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2015,9 +2024,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2067,12 +2073,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2082,13 +2082,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2098,19 +2094,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2121,22 +2106,22 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2172,31 +2157,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2208,6 +2184,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2217,41 +2196,74 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2603,10 +2615,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H267"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2638,7 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>39</v>
@@ -2642,7 +2654,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="56" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2667,7 +2679,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2677,13 +2689,13 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2699,7 +2711,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="56" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2717,7 +2729,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2727,13 +2739,13 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2749,7 +2761,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="63" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2767,7 +2779,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2783,7 +2795,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2799,7 +2811,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2815,7 +2827,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2831,7 +2843,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="73"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2847,7 +2859,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2863,7 +2875,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2879,7 +2891,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2895,7 +2907,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2911,7 +2923,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2921,13 +2933,13 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2943,7 +2955,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="58" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -2961,7 +2973,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2977,7 +2989,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="69"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2993,7 +3005,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3009,7 +3021,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3025,7 +3037,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3041,7 +3053,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="69"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3057,7 +3069,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="69"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3073,7 +3085,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="69"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3089,7 +3101,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3105,7 +3117,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3121,7 +3133,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="69"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3137,7 +3149,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="69"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3153,7 +3165,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="69"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3163,13 +3175,13 @@
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="69"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3185,7 +3197,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="63" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -3203,7 +3215,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="74"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3219,7 +3231,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3235,7 +3247,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="74"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3251,7 +3263,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="74"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3267,7 +3279,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="74"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3283,7 +3295,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3299,7 +3311,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="74"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3315,7 +3327,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="74"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3331,7 +3343,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="74"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3347,7 +3359,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="74"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3363,7 +3375,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="74"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3379,7 +3391,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="74"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3396,7 +3408,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="74"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3413,7 +3425,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="74"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3430,7 +3442,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="74"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3447,7 +3459,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="74"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3463,7 +3475,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="74"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3473,13 +3485,13 @@
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="74"/>
+      <c r="D53" s="64"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3492,10 +3504,10 @@
       <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="74"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3511,7 +3523,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="74"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3521,13 +3533,13 @@
       <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="74"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3543,7 +3555,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="65" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3561,7 +3573,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="76"/>
+      <c r="D58" s="66"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3577,7 +3589,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="76"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3593,7 +3605,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="76"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3609,7 +3621,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="76"/>
+      <c r="D61" s="66"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3625,7 +3637,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="76"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3641,7 +3653,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="76"/>
+      <c r="D63" s="66"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3657,7 +3669,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="76"/>
+      <c r="D64" s="66"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3673,7 +3685,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="76"/>
+      <c r="D65" s="66"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3689,7 +3701,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="76"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3705,9 +3717,9 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="76"/>
+      <c r="D67" s="66"/>
       <c r="E67" s="6" t="str">
-        <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" ref="E67:E136" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -3721,7 +3733,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="76"/>
+      <c r="D68" s="66"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3737,7 +3749,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="76"/>
+      <c r="D69" s="66"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3753,7 +3765,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="76"/>
+      <c r="D70" s="66"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3769,7 +3781,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="76"/>
+      <c r="D71" s="66"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3785,7 +3797,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="76"/>
+      <c r="D72" s="66"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3801,7 +3813,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="76"/>
+      <c r="D73" s="66"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3817,7 +3829,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="76"/>
+      <c r="D74" s="66"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3833,7 +3845,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="76"/>
+      <c r="D75" s="66"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3849,7 +3861,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="76"/>
+      <c r="D76" s="66"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3865,7 +3877,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="76"/>
+      <c r="D77" s="66"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3875,13 +3887,13 @@
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="76"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3897,7 +3909,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="67" t="s">
+      <c r="D79" s="70" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3915,7 +3927,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="67"/>
+      <c r="D80" s="71"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3931,7 +3943,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="67"/>
+      <c r="D81" s="71"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3947,7 +3959,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="67"/>
+      <c r="D82" s="71"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3958,12 +3970,12 @@
         <v>95</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83" s="67"/>
+        <v>105</v>
+      </c>
+      <c r="D83" s="71"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3979,7 +3991,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="67"/>
+      <c r="D84" s="71"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3995,7 +4007,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="67"/>
+      <c r="D85" s="71"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4011,7 +4023,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="67"/>
+      <c r="D86" s="71"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4027,7 +4039,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="67"/>
+      <c r="D87" s="71"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4043,7 +4055,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="67"/>
+      <c r="D88" s="71"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4059,23 +4071,23 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="67"/>
+      <c r="D89" s="71"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="67"/>
+      <c r="D90" s="87"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4086,14 +4098,12 @@
         <v>103</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="68" t="s">
-        <v>296</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D91" s="71"/>
       <c r="E91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4103,13 +4113,13 @@
       <c r="A92" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="8">
-        <v>7</v>
-      </c>
-      <c r="C92" s="7">
-        <v>7</v>
-      </c>
-      <c r="D92" s="69"/>
+      <c r="B92" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="72"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4120,12 +4130,14 @@
         <v>105</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="69"/>
+        <v>28</v>
+      </c>
+      <c r="D93" s="58" t="s">
+        <v>296</v>
+      </c>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4135,13 +4147,13 @@
       <c r="A94" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="69"/>
+      <c r="B94" s="8">
+        <v>7</v>
+      </c>
+      <c r="C94" s="7">
+        <v>7</v>
+      </c>
+      <c r="D94" s="59"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4152,12 +4164,12 @@
         <v>107</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="69"/>
+        <v>29</v>
+      </c>
+      <c r="D95" s="59"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4167,13 +4179,13 @@
       <c r="A96" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>36</v>
+      <c r="B96" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="69"/>
+        <v>30</v>
+      </c>
+      <c r="D96" s="59"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4184,12 +4196,12 @@
         <v>109</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D97" s="69"/>
+        <v>126</v>
+      </c>
+      <c r="D97" s="59"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4199,13 +4211,13 @@
       <c r="A98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>34</v>
+      <c r="B98" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="69"/>
+        <v>36</v>
+      </c>
+      <c r="D98" s="59"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4215,13 +4227,13 @@
       <c r="A99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="8">
-        <v>8</v>
-      </c>
-      <c r="C99" s="7">
-        <v>8</v>
-      </c>
-      <c r="D99" s="69"/>
+      <c r="B99" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="59"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4232,12 +4244,12 @@
         <v>112</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="69"/>
+        <v>34</v>
+      </c>
+      <c r="D100" s="59"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4247,13 +4259,13 @@
       <c r="A101" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D101" s="69"/>
+      <c r="B101" s="8">
+        <v>8</v>
+      </c>
+      <c r="C101" s="7">
+        <v>8</v>
+      </c>
+      <c r="D101" s="59"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4264,12 +4276,12 @@
         <v>114</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D102" s="69"/>
+        <v>29</v>
+      </c>
+      <c r="D102" s="59"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4280,12 +4292,12 @@
         <v>115</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="69"/>
+        <v>37</v>
+      </c>
+      <c r="D103" s="59"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4296,12 +4308,12 @@
         <v>116</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D104" s="69"/>
+        <v>126</v>
+      </c>
+      <c r="D104" s="59"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4312,12 +4324,12 @@
         <v>117</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D105" s="69"/>
+        <v>36</v>
+      </c>
+      <c r="D105" s="59"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4327,13 +4339,13 @@
       <c r="A106" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B106" s="8">
-        <v>5</v>
-      </c>
-      <c r="C106" s="7">
-        <v>5</v>
-      </c>
-      <c r="D106" s="69"/>
+      <c r="B106" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="59"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4343,13 +4355,13 @@
       <c r="A107" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>34</v>
+      <c r="B107" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="69"/>
+        <v>32</v>
+      </c>
+      <c r="D107" s="59"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4359,13 +4371,13 @@
       <c r="A108" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="69"/>
+      <c r="B108" s="8">
+        <v>5</v>
+      </c>
+      <c r="C108" s="7">
+        <v>5</v>
+      </c>
+      <c r="D108" s="59"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4375,13 +4387,13 @@
       <c r="A109" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B109" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="70"/>
+      <c r="B109" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="59"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4392,14 +4404,12 @@
         <v>122</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110" s="71" t="s">
-        <v>297</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D110" s="59"/>
       <c r="E110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4409,29 +4419,29 @@
       <c r="A111" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="8">
-        <v>7</v>
-      </c>
-      <c r="C111" s="7">
-        <v>7</v>
-      </c>
-      <c r="D111" s="71"/>
+      <c r="B111" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="59"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="38" t="s">
         <v>124</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D112" s="71"/>
+        <v>36</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="89"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4442,12 +4452,12 @@
         <v>125</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" s="71"/>
+        <v>105</v>
+      </c>
+      <c r="D113" s="59"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4457,29 +4467,31 @@
       <c r="A114" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D114" s="71"/>
+      <c r="B114" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="92" t="s">
+        <v>297</v>
+      </c>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="71"/>
+      <c r="B115" s="8">
+        <v>7</v>
+      </c>
+      <c r="C115" s="7">
+        <v>7</v>
+      </c>
+      <c r="D115" s="61"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4490,12 +4502,12 @@
         <v>128</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D116" s="71"/>
+        <v>29</v>
+      </c>
+      <c r="D116" s="61"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4506,12 +4518,12 @@
         <v>129</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" s="71"/>
+        <v>30</v>
+      </c>
+      <c r="D117" s="61"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4521,13 +4533,13 @@
       <c r="A118" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B118" s="8">
-        <v>8</v>
-      </c>
-      <c r="C118" s="7">
-        <v>8</v>
-      </c>
-      <c r="D118" s="71"/>
+      <c r="B118" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118" s="61"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4538,12 +4550,12 @@
         <v>131</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D119" s="71"/>
+        <v>36</v>
+      </c>
+      <c r="D119" s="61"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4554,12 +4566,12 @@
         <v>132</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="71"/>
+        <v>140</v>
+      </c>
+      <c r="D120" s="61"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4570,12 +4582,12 @@
         <v>133</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D121" s="71"/>
+        <v>34</v>
+      </c>
+      <c r="D121" s="61"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4585,13 +4597,13 @@
       <c r="A122" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D122" s="71"/>
+      <c r="B122" s="8">
+        <v>8</v>
+      </c>
+      <c r="C122" s="7">
+        <v>8</v>
+      </c>
+      <c r="D122" s="61"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4602,12 +4614,12 @@
         <v>135</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D123" s="71"/>
+        <v>29</v>
+      </c>
+      <c r="D123" s="61"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4618,12 +4630,12 @@
         <v>136</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" s="71"/>
+        <v>37</v>
+      </c>
+      <c r="D124" s="61"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4633,13 +4645,13 @@
       <c r="A125" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B125" s="8">
-        <v>5</v>
-      </c>
-      <c r="C125" s="7">
-        <v>5</v>
-      </c>
-      <c r="D125" s="71"/>
+      <c r="B125" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" s="61"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4650,12 +4662,12 @@
         <v>138</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" s="71"/>
+        <v>36</v>
+      </c>
+      <c r="D126" s="61"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4666,12 +4678,12 @@
         <v>139</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D127" s="71"/>
+        <v>140</v>
+      </c>
+      <c r="D127" s="61"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4681,13 +4693,13 @@
       <c r="A128" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C128" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D128" s="72"/>
+      <c r="B128" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="61"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4697,15 +4709,13 @@
       <c r="A129" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" s="57" t="s">
-        <v>302</v>
-      </c>
+      <c r="B129" s="8">
+        <v>5</v>
+      </c>
+      <c r="C129" s="7">
+        <v>5</v>
+      </c>
+      <c r="D129" s="61"/>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4715,13 +4725,13 @@
       <c r="A130" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="8">
-        <v>8</v>
-      </c>
-      <c r="C130" s="7">
-        <v>8</v>
-      </c>
-      <c r="D130" s="58"/>
+      <c r="B130" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="61"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4732,14 +4742,14 @@
         <v>143</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D131" s="58"/>
+        <v>35</v>
+      </c>
+      <c r="D131" s="61"/>
       <c r="E131" s="6" t="str">
-        <f t="shared" ref="E131:E137" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -4748,30 +4758,30 @@
         <v>144</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D132" s="58"/>
+        <v>33</v>
+      </c>
+      <c r="D132" s="61"/>
       <c r="E132" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="8">
-        <v>8</v>
-      </c>
-      <c r="C133" s="7">
-        <v>8</v>
-      </c>
-      <c r="D133" s="58"/>
+      <c r="B133" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="90"/>
       <c r="E133" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -4779,15 +4789,15 @@
       <c r="A134" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D134" s="58"/>
+      <c r="B134" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D134" s="62"/>
       <c r="E134" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -4796,14 +4806,16 @@
         <v>147</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="58"/>
+        <v>28</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>302</v>
+      </c>
       <c r="E135" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -4817,9 +4829,9 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="58"/>
+      <c r="D136" s="48"/>
       <c r="E136" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -4827,15 +4839,15 @@
       <c r="A137" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="37" t="s">
+      <c r="B137" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="59"/>
+      <c r="D137" s="48"/>
       <c r="E137" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E137:E143" si="2">IF(AND(B137=C137,B137&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -4843,17 +4855,15 @@
       <c r="A138" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>32</v>
+      <c r="B138" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D138" s="77" t="s">
-        <v>307</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D138" s="48"/>
       <c r="E138" s="6" t="str">
-        <f t="shared" ref="E138:E201" si="3">IF(AND(B138=C138,B138&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4861,15 +4871,15 @@
       <c r="A139" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D139" s="78"/>
+      <c r="B139" s="8">
+        <v>8</v>
+      </c>
+      <c r="C139" s="7">
+        <v>8</v>
+      </c>
+      <c r="D139" s="48"/>
       <c r="E139" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4877,15 +4887,15 @@
       <c r="A140" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="9">
-        <v>2</v>
-      </c>
-      <c r="C140" s="7">
-        <v>2</v>
-      </c>
-      <c r="D140" s="78"/>
+      <c r="B140" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="48"/>
       <c r="E140" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4893,15 +4903,15 @@
       <c r="A141" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>29</v>
+      <c r="B141" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D141" s="78"/>
+        <v>32</v>
+      </c>
+      <c r="D141" s="48"/>
       <c r="E141" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4909,15 +4919,15 @@
       <c r="A142" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D142" s="78"/>
+      <c r="B142" s="8">
+        <v>8</v>
+      </c>
+      <c r="C142" s="7">
+        <v>8</v>
+      </c>
+      <c r="D142" s="48"/>
       <c r="E142" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4925,15 +4935,15 @@
       <c r="A143" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D143" s="78"/>
+      <c r="B143" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" s="49"/>
       <c r="E143" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4942,14 +4952,16 @@
         <v>156</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D144" s="78"/>
+        <v>32</v>
+      </c>
+      <c r="D144" s="50" t="s">
+        <v>307</v>
+      </c>
       <c r="E144" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E144:E207" si="3">IF(AND(B144=C144,B144&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -4958,12 +4970,12 @@
         <v>157</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D145" s="78"/>
+        <v>28</v>
+      </c>
+      <c r="D145" s="51"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4973,13 +4985,13 @@
       <c r="A146" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D146" s="78"/>
+      <c r="B146" s="9">
+        <v>2</v>
+      </c>
+      <c r="C146" s="7">
+        <v>2</v>
+      </c>
+      <c r="D146" s="51"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4990,12 +5002,12 @@
         <v>159</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" s="78"/>
+        <v>29</v>
+      </c>
+      <c r="D147" s="51"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5006,12 +5018,12 @@
         <v>160</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D148" s="78"/>
+        <v>304</v>
+      </c>
+      <c r="D148" s="51"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5021,13 +5033,13 @@
       <c r="A149" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="9">
-        <v>4</v>
-      </c>
-      <c r="C149" s="7">
-        <v>4</v>
-      </c>
-      <c r="D149" s="78"/>
+      <c r="B149" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" s="51"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5038,12 +5050,12 @@
         <v>162</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D150" s="78"/>
+        <v>36</v>
+      </c>
+      <c r="D150" s="51"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5054,12 +5066,12 @@
         <v>163</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D151" s="78"/>
+        <v>164</v>
+      </c>
+      <c r="D151" s="51"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5070,12 +5082,12 @@
         <v>164</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D152" s="78"/>
+        <v>28</v>
+      </c>
+      <c r="D152" s="51"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5086,12 +5098,12 @@
         <v>165</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D153" s="78"/>
+        <v>28</v>
+      </c>
+      <c r="D153" s="51"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5102,12 +5114,12 @@
         <v>166</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D154" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="D154" s="51"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5117,13 +5129,13 @@
       <c r="A155" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D155" s="78"/>
+      <c r="B155" s="9">
+        <v>4</v>
+      </c>
+      <c r="C155" s="7">
+        <v>4</v>
+      </c>
+      <c r="D155" s="51"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5134,12 +5146,12 @@
         <v>168</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D156" s="78"/>
+        <v>35</v>
+      </c>
+      <c r="D156" s="51"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5149,13 +5161,13 @@
       <c r="A157" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B157" s="9">
-        <v>1</v>
-      </c>
-      <c r="C157" s="7">
-        <v>1</v>
-      </c>
-      <c r="D157" s="78"/>
+      <c r="B157" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D157" s="51"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5166,12 +5178,12 @@
         <v>170</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D158" s="78"/>
+        <v>29</v>
+      </c>
+      <c r="D158" s="51"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5182,12 +5194,12 @@
         <v>171</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D159" s="78"/>
+        <v>305</v>
+      </c>
+      <c r="D159" s="51"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5197,13 +5209,13 @@
       <c r="A160" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B160" s="35">
-        <v>0</v>
-      </c>
-      <c r="C160" s="36">
-        <v>0</v>
-      </c>
-      <c r="D160" s="79"/>
+      <c r="B160" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D160" s="51"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5213,15 +5225,13 @@
       <c r="A161" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B161" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C161" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D161" s="54" t="s">
-        <v>323</v>
-      </c>
+      <c r="B161" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" s="51"/>
       <c r="E161" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5231,13 +5241,13 @@
       <c r="A162" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B162" s="9">
-        <v>1</v>
-      </c>
-      <c r="C162" s="7">
-        <v>1</v>
-      </c>
-      <c r="D162" s="55"/>
+      <c r="B162" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" s="51"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5247,13 +5257,13 @@
       <c r="A163" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B163" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="56"/>
+      <c r="B163" s="9">
+        <v>1</v>
+      </c>
+      <c r="C163" s="7">
+        <v>1</v>
+      </c>
+      <c r="D163" s="51"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5263,15 +5273,13 @@
       <c r="A164" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B164" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C164" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D164" s="57" t="s">
-        <v>323</v>
-      </c>
+      <c r="B164" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D164" s="51"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5281,13 +5289,13 @@
       <c r="A165" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B165" s="9">
-        <v>15</v>
-      </c>
-      <c r="C165" s="7">
-        <v>15</v>
-      </c>
-      <c r="D165" s="58"/>
+      <c r="B165" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165" s="51"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5297,13 +5305,13 @@
       <c r="A166" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B166" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D166" s="59"/>
+      <c r="B166" s="34">
+        <v>0</v>
+      </c>
+      <c r="C166" s="35">
+        <v>0</v>
+      </c>
+      <c r="D166" s="52"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5313,13 +5321,13 @@
       <c r="A167" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B167" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C167" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="D167" s="54" t="s">
+      <c r="B167" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" s="53" t="s">
         <v>322</v>
       </c>
       <c r="E167" s="6" t="str">
@@ -5331,13 +5339,13 @@
       <c r="A168" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D168" s="55"/>
+      <c r="B168" s="9">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7">
+        <v>1</v>
+      </c>
+      <c r="D168" s="54"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5347,13 +5355,13 @@
       <c r="A169" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B169" s="35" t="s">
+      <c r="B169" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C169" s="36" t="s">
+      <c r="C169" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="56"/>
+      <c r="D169" s="55"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5363,13 +5371,13 @@
       <c r="A170" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B170" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C170" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="D170" s="57" t="s">
+      <c r="B170" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="47" t="s">
         <v>322</v>
       </c>
       <c r="E170" s="6" t="str">
@@ -5381,13 +5389,13 @@
       <c r="A171" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D171" s="58"/>
+      <c r="B171" s="9">
+        <v>15</v>
+      </c>
+      <c r="C171" s="7">
+        <v>15</v>
+      </c>
+      <c r="D171" s="48"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5397,13 +5405,13 @@
       <c r="A172" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B172" s="35" t="s">
+      <c r="B172" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C172" s="36" t="s">
+      <c r="C172" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="59"/>
+      <c r="D172" s="49"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5413,14 +5421,14 @@
       <c r="A173" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B173" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C173" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="D173" s="54" t="s">
-        <v>322</v>
+      <c r="B173" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D173" s="53" t="s">
+        <v>321</v>
       </c>
       <c r="E173" s="6" t="str">
         <f t="shared" si="3"/>
@@ -5432,12 +5440,12 @@
         <v>186</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D174" s="55"/>
+        <v>314</v>
+      </c>
+      <c r="D174" s="54"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5447,13 +5455,13 @@
       <c r="A175" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B175" s="35" t="s">
+      <c r="B175" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C175" s="36" t="s">
+      <c r="C175" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="56"/>
+      <c r="D175" s="55"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5463,13 +5471,13 @@
       <c r="A176" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B176" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C176" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="D176" s="57" t="s">
+      <c r="B176" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D176" s="47" t="s">
         <v>321</v>
       </c>
       <c r="E176" s="6" t="str">
@@ -5482,12 +5490,12 @@
         <v>189</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D177" s="58"/>
+        <v>315</v>
+      </c>
+      <c r="D177" s="48"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5497,13 +5505,13 @@
       <c r="A178" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B178" s="35" t="s">
+      <c r="B178" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C178" s="36" t="s">
+      <c r="C178" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="59"/>
+      <c r="D178" s="49"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5513,14 +5521,14 @@
       <c r="A179" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B179" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="C179" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="D179" s="54" t="s">
-        <v>320</v>
+      <c r="B179" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C179" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D179" s="53" t="s">
+        <v>321</v>
       </c>
       <c r="E179" s="6" t="str">
         <f t="shared" si="3"/>
@@ -5531,8 +5539,13 @@
       <c r="A180" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B180" s="9"/>
-      <c r="D180" s="55"/>
+      <c r="B180" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D180" s="54"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5542,30 +5555,30 @@
       <c r="A181" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B181" s="35" t="s">
+      <c r="B181" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C181" s="36" t="s">
+      <c r="C181" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="56"/>
+      <c r="D181" s="55"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="39" t="s">
+      <c r="A182" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B182" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C182" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D182" s="60" t="s">
-        <v>329</v>
+      <c r="B182" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C182" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D182" s="47" t="s">
+        <v>320</v>
       </c>
       <c r="E182" s="6" t="str">
         <f t="shared" si="3"/>
@@ -5573,32 +5586,32 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="39" t="s">
+      <c r="A183" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="9">
-        <v>2</v>
-      </c>
-      <c r="C183" s="7">
-        <v>2</v>
-      </c>
-      <c r="D183" s="61"/>
+      <c r="B183" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D183" s="48"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="39" t="s">
+      <c r="A184" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B184" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D184" s="61"/>
+      <c r="B184" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" s="49"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5608,13 +5621,15 @@
       <c r="A185" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D185" s="61"/>
+      <c r="B185" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D185" s="53" t="s">
+        <v>319</v>
+      </c>
       <c r="E185" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5624,13 +5639,8 @@
       <c r="A186" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D186" s="61"/>
+      <c r="B186" s="9"/>
+      <c r="D186" s="54"/>
       <c r="E186" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5640,13 +5650,13 @@
       <c r="A187" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B187" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D187" s="61"/>
+      <c r="B187" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" s="55"/>
       <c r="E187" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5656,13 +5666,15 @@
       <c r="A188" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B188" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D188" s="61"/>
+      <c r="B188" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" s="67" t="s">
+        <v>326</v>
+      </c>
       <c r="E188" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5672,13 +5684,13 @@
       <c r="A189" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B189" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" s="61"/>
+      <c r="B189" s="9">
+        <v>2</v>
+      </c>
+      <c r="C189" s="7">
+        <v>2</v>
+      </c>
+      <c r="D189" s="68"/>
       <c r="E189" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5689,12 +5701,12 @@
         <v>202</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D190" s="61"/>
+        <v>29</v>
+      </c>
+      <c r="D190" s="68"/>
       <c r="E190" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5705,12 +5717,12 @@
         <v>203</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D191" s="61"/>
+        <v>304</v>
+      </c>
+      <c r="D191" s="68"/>
       <c r="E191" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5720,13 +5732,13 @@
       <c r="A192" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B192" s="9">
-        <v>4</v>
-      </c>
-      <c r="C192" s="7">
-        <v>4</v>
-      </c>
-      <c r="D192" s="61"/>
+      <c r="B192" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D192" s="68"/>
       <c r="E192" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5737,12 +5749,12 @@
         <v>205</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D193" s="61"/>
+        <v>36</v>
+      </c>
+      <c r="D193" s="68"/>
       <c r="E193" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5753,12 +5765,12 @@
         <v>206</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D194" s="61"/>
+        <v>207</v>
+      </c>
+      <c r="D194" s="68"/>
       <c r="E194" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5769,12 +5781,12 @@
         <v>207</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D195" s="61"/>
+        <v>28</v>
+      </c>
+      <c r="D195" s="68"/>
       <c r="E195" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5785,12 +5797,12 @@
         <v>208</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D196" s="61"/>
+        <v>28</v>
+      </c>
+      <c r="D196" s="68"/>
       <c r="E196" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5801,12 +5813,12 @@
         <v>209</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D197" s="61"/>
+        <v>34</v>
+      </c>
+      <c r="D197" s="68"/>
       <c r="E197" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5816,13 +5828,13 @@
       <c r="A198" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D198" s="61"/>
+      <c r="B198" s="9">
+        <v>4</v>
+      </c>
+      <c r="C198" s="7">
+        <v>4</v>
+      </c>
+      <c r="D198" s="68"/>
       <c r="E198" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5833,12 +5845,12 @@
         <v>211</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D199" s="61"/>
+        <v>35</v>
+      </c>
+      <c r="D199" s="68"/>
       <c r="E199" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5848,13 +5860,13 @@
       <c r="A200" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B200" s="9">
-        <v>1</v>
-      </c>
-      <c r="C200" s="7">
-        <v>1</v>
-      </c>
-      <c r="D200" s="61"/>
+      <c r="B200" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D200" s="68"/>
       <c r="E200" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5865,12 +5877,12 @@
         <v>213</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D201" s="61"/>
+        <v>29</v>
+      </c>
+      <c r="D201" s="68"/>
       <c r="E201" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5881,14 +5893,14 @@
         <v>214</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D202" s="61"/>
+        <v>305</v>
+      </c>
+      <c r="D202" s="68"/>
       <c r="E202" s="6" t="str">
-        <f t="shared" ref="E202:E265" si="4">IF(AND(B202=C202,B202&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5896,15 +5908,15 @@
       <c r="A203" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B203" s="9">
-        <v>0</v>
-      </c>
-      <c r="C203" s="7">
-        <v>0</v>
-      </c>
-      <c r="D203" s="61"/>
+      <c r="B203" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D203" s="68"/>
       <c r="E203" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5912,15 +5924,15 @@
       <c r="A204" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B204" s="9">
-        <v>1</v>
-      </c>
-      <c r="C204" s="7">
-        <v>1</v>
-      </c>
-      <c r="D204" s="61"/>
+      <c r="B204" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D204" s="68"/>
       <c r="E204" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5929,14 +5941,14 @@
         <v>217</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D205" s="61"/>
+        <v>218</v>
+      </c>
+      <c r="D205" s="68"/>
       <c r="E205" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5944,15 +5956,15 @@
       <c r="A206" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B206" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D206" s="61"/>
+      <c r="B206" s="9">
+        <v>1</v>
+      </c>
+      <c r="C206" s="7">
+        <v>1</v>
+      </c>
+      <c r="D206" s="68"/>
       <c r="E206" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5961,14 +5973,14 @@
         <v>219</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D207" s="61"/>
+        <v>36</v>
+      </c>
+      <c r="D207" s="68"/>
       <c r="E207" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -5977,14 +5989,14 @@
         <v>220</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D208" s="61"/>
+        <v>222</v>
+      </c>
+      <c r="D208" s="68"/>
       <c r="E208" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E208:E259" si="4">IF(AND(B208=C208,B208&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -5992,13 +6004,13 @@
       <c r="A209" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B209" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D209" s="61"/>
+      <c r="B209" s="9">
+        <v>0</v>
+      </c>
+      <c r="C209" s="7">
+        <v>0</v>
+      </c>
+      <c r="D209" s="68"/>
       <c r="E209" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6008,13 +6020,13 @@
       <c r="A210" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B210" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D210" s="61"/>
+      <c r="B210" s="9">
+        <v>1</v>
+      </c>
+      <c r="C210" s="7">
+        <v>1</v>
+      </c>
+      <c r="D210" s="68"/>
       <c r="E210" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6025,12 +6037,12 @@
         <v>223</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D211" s="61"/>
+        <v>29</v>
+      </c>
+      <c r="D211" s="68"/>
       <c r="E211" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6040,13 +6052,13 @@
       <c r="A212" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B212" s="9">
-        <v>2</v>
-      </c>
-      <c r="C212" s="7">
-        <v>2</v>
-      </c>
-      <c r="D212" s="61"/>
+      <c r="B212" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D212" s="68"/>
       <c r="E212" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6057,12 +6069,12 @@
         <v>225</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D213" s="61"/>
+        <v>235</v>
+      </c>
+      <c r="D213" s="68"/>
       <c r="E213" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6073,12 +6085,12 @@
         <v>226</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D214" s="61"/>
+        <v>36</v>
+      </c>
+      <c r="D214" s="68"/>
       <c r="E214" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6089,12 +6101,12 @@
         <v>227</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D215" s="61"/>
+        <v>228</v>
+      </c>
+      <c r="D215" s="68"/>
       <c r="E215" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6104,13 +6116,13 @@
       <c r="A216" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B216" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C216" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D216" s="62"/>
+      <c r="B216" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="68"/>
       <c r="E216" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6120,15 +6132,13 @@
       <c r="A217" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B217" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C217" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D217" s="63" t="s">
-        <v>330</v>
-      </c>
+      <c r="B217" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D217" s="68"/>
       <c r="E217" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6138,13 +6148,13 @@
       <c r="A218" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" s="64"/>
+      <c r="B218" s="9">
+        <v>2</v>
+      </c>
+      <c r="C218" s="7">
+        <v>2</v>
+      </c>
+      <c r="D218" s="68"/>
       <c r="E218" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6154,13 +6164,13 @@
       <c r="A219" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B219" s="9">
-        <v>2</v>
-      </c>
-      <c r="C219" s="7">
-        <v>2</v>
-      </c>
-      <c r="D219" s="64"/>
+      <c r="B219" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D219" s="68"/>
       <c r="E219" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6171,12 +6181,12 @@
         <v>232</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D220" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="D220" s="68"/>
       <c r="E220" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6187,12 +6197,12 @@
         <v>233</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D221" s="64"/>
+        <v>36</v>
+      </c>
+      <c r="D221" s="68"/>
       <c r="E221" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6202,13 +6212,13 @@
       <c r="A222" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B222" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" s="64"/>
+      <c r="B222" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C222" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D222" s="69"/>
       <c r="E222" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6216,15 +6226,9 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B223" s="8">
-        <v>10</v>
-      </c>
-      <c r="C223" s="7">
-        <v>10</v>
-      </c>
-      <c r="D223" s="64"/>
+        <v>247</v>
+      </c>
+      <c r="D223" s="44"/>
       <c r="E223" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6232,15 +6236,9 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D224" s="64"/>
+        <v>248</v>
+      </c>
+      <c r="D224" s="44"/>
       <c r="E224" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6248,15 +6246,11 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D225" s="64"/>
+        <v>249</v>
+      </c>
+      <c r="B225" s="46"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="44"/>
       <c r="E225" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6264,15 +6258,9 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D226" s="64"/>
+        <v>250</v>
+      </c>
+      <c r="D226" s="44"/>
       <c r="E226" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6280,15 +6268,9 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D227" s="64"/>
+        <v>251</v>
+      </c>
+      <c r="D227" s="44"/>
       <c r="E227" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6296,57 +6278,46 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B228" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C228" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D228" s="65"/>
+        <v>252</v>
+      </c>
+      <c r="B228" s="43"/>
+      <c r="D228" s="45"/>
       <c r="E228" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="D229" s="49"/>
+      <c r="A229" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="E229" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D230" s="49"/>
+      <c r="A230" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="E230" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="B231" s="52"/>
-      <c r="C231" s="27"/>
-      <c r="D231" s="49"/>
+      <c r="A231" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="E231" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="D232" s="49"/>
+      <c r="A232" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="E232" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6354,9 +6325,8 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D233" s="49"/>
+        <v>257</v>
+      </c>
       <c r="E233" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6364,18 +6334,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B234" s="48"/>
-      <c r="D234" s="50"/>
+        <v>258</v>
+      </c>
       <c r="E234" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="47" t="s">
-        <v>247</v>
+      <c r="A235" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="E235" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6384,7 +6352,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E236" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6393,7 +6361,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E237" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6402,7 +6370,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E238" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6411,7 +6379,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E239" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6420,7 +6388,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E240" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6429,7 +6397,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E241" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6438,7 +6406,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E242" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6447,7 +6415,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E243" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6456,7 +6424,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E244" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6465,7 +6433,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E245" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6474,7 +6442,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E246" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6483,7 +6451,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="E247" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6492,7 +6460,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E248" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6501,7 +6469,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E249" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6510,7 +6478,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E250" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6519,7 +6487,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E251" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6528,7 +6496,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E252" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6537,7 +6505,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E253" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6546,7 +6514,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E254" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6555,7 +6523,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E255" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6564,7 +6532,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="E256" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6573,7 +6541,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="E257" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6582,7 +6550,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>270</v>
+        <v>329</v>
       </c>
       <c r="E258" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6591,7 +6559,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="E259" s="6" t="str">
         <f t="shared" si="4"/>
@@ -6600,100 +6568,45 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="E260" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E260:E261" si="5">IF(AND(B260=C260,B260&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>273</v>
+        <v>332</v>
       </c>
       <c r="E261" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E262" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E263" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E264" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E265" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E266" s="6" t="str">
-        <f t="shared" ref="E266:E267" si="5">IF(AND(B266=C266,B266&lt;&gt;" "),"OK","ERROR")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E267" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D129:D137"/>
-    <mergeCell ref="D138:D160"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="D164:D166"/>
+  <mergeCells count="19">
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="D188:D222"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="D182:D184"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D144:D166"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="D170:D172"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D79:D90"/>
-    <mergeCell ref="D91:D109"/>
-    <mergeCell ref="D110:D128"/>
     <mergeCell ref="D8:D19"/>
     <mergeCell ref="D20:D34"/>
     <mergeCell ref="D35:D56"/>
     <mergeCell ref="D57:D78"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="D182:D216"/>
-    <mergeCell ref="D217:D228"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="D79:D92"/>
+    <mergeCell ref="D93:D113"/>
+    <mergeCell ref="D114:D134"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E267">
+  <conditionalFormatting sqref="E2:E261">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
@@ -6711,7 +6624,7 @@
   <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6734,25 +6647,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="76" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="16">
@@ -6898,7 +6811,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -6972,31 +6885,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="92" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="76" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="16">
@@ -7142,7 +7055,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -7222,41 +7135,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="83" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="86" t="s">
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="92" t="s">
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="76" t="s">
         <v>288</v>
       </c>
       <c r="B8" s="16">
@@ -7402,7 +7315,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -7496,41 +7409,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="83" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="86" t="s">
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="92" t="s">
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
+      <c r="V10" s="83"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="76" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="16">
@@ -7676,7 +7589,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -7770,118 +7683,118 @@
       <c r="AV12" s="17"/>
     </row>
     <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="83" t="s">
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="86" t="s">
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="V14" s="87"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="31" t="s">
+      <c r="V14" s="74"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="Y14" s="33"/>
+      <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="76" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="16">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C15" s="16">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D15" s="16">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E15" s="16">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F15" s="16">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G15" s="16">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H15" s="16">
         <v>143</v>
       </c>
       <c r="I15" s="16">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J15" s="16">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K15" s="16">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L15" s="16">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M15" s="16">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N15" s="16">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O15" s="16">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P15" s="16">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q15" s="16">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="R15" s="16">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="S15" s="16">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="T15" s="16">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="U15" s="16">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="V15" s="16">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="W15" s="16">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="X15" s="16">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="Y15" s="16">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
@@ -7898,13 +7811,13 @@
         <v>304</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>28</v>
@@ -7931,13 +7844,13 @@
         <v>305</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="S16" s="17" t="s">
         <v>36</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U16" s="21">
         <v>1</v>
@@ -7945,8 +7858,8 @@
       <c r="V16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W16" s="34" t="s">
-        <v>173</v>
+      <c r="W16" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="X16" s="17">
         <v>0</v>
@@ -7957,21 +7870,11 @@
     </row>
     <row r="17" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:T14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B4:H4"/>
@@ -7983,6 +7886,16 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="B10:H10"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7992,10 +7905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8012,31 +7925,33 @@
     <col min="16" max="16" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="4.7109375" style="14" customWidth="1"/>
     <col min="20" max="20" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="3.7109375" style="14"/>
+    <col min="21" max="21" width="3.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="3.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
+    <row r="1" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-    </row>
-    <row r="2" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>292</v>
       </c>
       <c r="B2" s="16">
@@ -8075,16 +7990,20 @@
       <c r="M2" s="16">
         <v>89</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="N2" s="16">
+        <v>90</v>
+      </c>
+      <c r="O2" s="16">
+        <v>91</v>
+      </c>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+    <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -8097,13 +8016,13 @@
       <c r="E3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>103</v>
+      <c r="F3" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>98</v>
       </c>
       <c r="I3" s="21" t="s">
@@ -8115,111 +8034,121 @@
       <c r="K3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>35</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
+    <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="83" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="88"/>
-    </row>
-    <row r="5" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
+    </row>
+    <row r="5" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="16">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="16">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="16">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" s="16">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" s="16">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="16">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" s="16">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I5" s="16">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J5" s="16">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" s="16">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" s="16">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" s="16">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N5" s="16">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" s="16">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P5" s="16">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="16">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R5" s="16">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S5" s="16">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T5" s="16">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
+        <v>110</v>
+      </c>
+      <c r="U5" s="16">
+        <v>111</v>
+      </c>
+      <c r="V5" s="16">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -8232,14 +8161,14 @@
       <c r="E6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>122</v>
+      <c r="F6" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>110</v>
+      <c r="H6" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>34</v>
@@ -8253,14 +8182,14 @@
       <c r="L6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>122</v>
+      <c r="M6" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="23" t="s">
-        <v>117</v>
+      <c r="O6" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="P6" s="21" t="s">
         <v>32</v>
@@ -8271,305 +8200,192 @@
       <c r="R6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="23" t="s">
         <v>35</v>
       </c>
       <c r="T6" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="U6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="83" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="86" t="s">
+      <c r="P7" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="88"/>
-    </row>
-    <row r="8" spans="1:21" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="75"/>
+    </row>
+    <row r="8" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>294</v>
       </c>
       <c r="B8" s="16">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C8" s="16">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D8" s="16">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E8" s="16">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="16">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G8" s="16">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H8" s="16">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I8" s="16">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J8" s="16">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K8" s="16">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L8" s="16">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M8" s="16">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N8" s="16">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O8" s="16">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P8" s="16">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="16">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="R8" s="16">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S8" s="16">
+        <v>130</v>
+      </c>
+      <c r="T8" s="16">
+        <v>131</v>
+      </c>
+      <c r="U8" s="16">
+        <v>132</v>
+      </c>
+      <c r="V8" s="16">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="39">
+        <v>7</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="39">
+        <v>8</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>5</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="T8" s="16">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="42">
-        <v>7</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="42">
-        <v>8</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="42">
-        <v>5</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" s="22"/>
-    </row>
-    <row r="10" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="41"/>
-    </row>
-    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40">
-        <v>216</v>
-      </c>
-      <c r="F11" s="40">
-        <v>217</v>
-      </c>
-      <c r="G11" s="40">
-        <v>218</v>
-      </c>
-      <c r="H11" s="40">
-        <v>219</v>
-      </c>
-      <c r="I11" s="40">
-        <v>220</v>
-      </c>
-      <c r="J11" s="40">
-        <v>221</v>
-      </c>
-      <c r="K11" s="40">
-        <v>222</v>
-      </c>
-      <c r="L11" s="40">
-        <v>223</v>
-      </c>
-      <c r="M11" s="40">
-        <v>224</v>
-      </c>
-      <c r="N11" s="40">
-        <v>225</v>
-      </c>
-      <c r="O11" s="40">
-        <v>226</v>
-      </c>
-      <c r="P11" s="40">
-        <v>227</v>
-      </c>
-      <c r="Q11" s="40">
-        <v>228</v>
-      </c>
-      <c r="R11" s="40">
-        <v>229</v>
-      </c>
-      <c r="S11" s="40">
-        <v>230</v>
-      </c>
-      <c r="T11" s="40">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="24">
-        <v>2</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="21">
-        <v>10</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q14" s="14" t="s">
-        <v>327</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:P10"/>
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
@@ -8592,7 +8408,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G17" sqref="F16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8601,15 +8417,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="76" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="16">
@@ -8639,11 +8455,11 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -8652,7 +8468,7 @@
       <c r="E3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>10</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -8673,20 +8489,20 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="76" t="s">
         <v>301</v>
       </c>
       <c r="B6" s="16">
@@ -8724,11 +8540,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>8</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -8737,7 +8553,7 @@
       <c r="E7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>8</v>
       </c>
       <c r="G7" s="21" t="s">
@@ -8746,7 +8562,7 @@
       <c r="H7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>8</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -8762,58 +8578,58 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="76" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="16">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C12" s="16">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D12" s="16">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E12" s="16">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F12" s="16">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G12" s="16">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H12" s="16">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I12" s="16">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J12" s="16">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K12" s="16">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L12" s="16">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -8826,7 +8642,7 @@
       <c r="E13" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -8884,10 +8700,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>39</v>
@@ -8903,7 +8719,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="56" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -8928,7 +8744,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -8938,13 +8754,13 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8960,7 +8776,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="56" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -8978,7 +8794,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8988,13 +8804,13 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9010,7 +8826,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="63" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -9028,7 +8844,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9044,7 +8860,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9060,7 +8876,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9076,7 +8892,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9092,7 +8908,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="73"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9108,7 +8924,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9124,7 +8940,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9140,7 +8956,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9156,7 +8972,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9172,7 +8988,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9182,13 +8998,13 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9204,7 +9020,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="58" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -9222,7 +9038,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9238,7 +9054,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="69"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9254,7 +9070,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9270,7 +9086,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9286,7 +9102,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9302,7 +9118,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="69"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9318,7 +9134,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="69"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9334,7 +9150,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="69"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9350,7 +9166,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9366,7 +9182,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9382,7 +9198,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="69"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9398,7 +9214,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="69"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9414,7 +9230,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="69"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9424,13 +9240,13 @@
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="69"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9446,7 +9262,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="63" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -9464,7 +9280,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="74"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9480,7 +9296,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9496,7 +9312,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="74"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9512,7 +9328,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="74"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9528,7 +9344,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="74"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9544,7 +9360,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9560,7 +9376,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="74"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9576,7 +9392,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="74"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9592,7 +9408,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="74"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9608,7 +9424,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="74"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9624,7 +9440,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="74"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9640,7 +9456,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="74"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9657,7 +9473,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="74"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9674,7 +9490,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="74"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9691,7 +9507,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="74"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9708,7 +9524,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="74"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9724,7 +9540,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="74"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9734,13 +9550,13 @@
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="74"/>
+      <c r="D53" s="64"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9753,10 +9569,10 @@
       <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="74"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9772,7 +9588,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="74"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9782,13 +9598,13 @@
       <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="74"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9804,7 +9620,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="65" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -9822,7 +9638,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="76"/>
+      <c r="D58" s="66"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9838,7 +9654,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="76"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9854,7 +9670,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="76"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9870,7 +9686,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="76"/>
+      <c r="D61" s="66"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9886,7 +9702,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="76"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9902,7 +9718,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="76"/>
+      <c r="D63" s="66"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9918,7 +9734,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="76"/>
+      <c r="D64" s="66"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9934,7 +9750,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="76"/>
+      <c r="D65" s="66"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9950,7 +9766,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="76"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9966,7 +9782,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="76"/>
+      <c r="D67" s="66"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -9982,7 +9798,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="76"/>
+      <c r="D68" s="66"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9998,7 +9814,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="76"/>
+      <c r="D69" s="66"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10014,7 +9830,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="76"/>
+      <c r="D70" s="66"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10030,7 +9846,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="76"/>
+      <c r="D71" s="66"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10046,7 +9862,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="76"/>
+      <c r="D72" s="66"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10062,7 +9878,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="76"/>
+      <c r="D73" s="66"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10078,7 +9894,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="76"/>
+      <c r="D74" s="66"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10094,7 +9910,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="76"/>
+      <c r="D75" s="66"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10110,7 +9926,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="76"/>
+      <c r="D76" s="66"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10126,7 +9942,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="76"/>
+      <c r="D77" s="66"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10136,13 +9952,13 @@
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="76"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10158,7 +9974,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="67" t="s">
+      <c r="D79" s="57" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -10176,7 +9992,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="67"/>
+      <c r="D80" s="57"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10192,7 +10008,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="67"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10208,7 +10024,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="67"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10224,7 +10040,7 @@
       <c r="C83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="67"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10240,7 +10056,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="67"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10256,7 +10072,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="67"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10272,7 +10088,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="67"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10288,7 +10104,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="67"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10304,7 +10120,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="67"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10320,7 +10136,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="67"/>
+      <c r="D89" s="57"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10330,13 +10146,13 @@
       <c r="A90" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="67"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10352,7 +10168,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="68" t="s">
+      <c r="D91" s="58" t="s">
         <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -10370,7 +10186,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="69"/>
+      <c r="D92" s="59"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10386,7 +10202,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="69"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10402,7 +10218,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="69"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10418,7 +10234,7 @@
       <c r="C95" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="69"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10434,7 +10250,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="69"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10450,7 +10266,7 @@
       <c r="C97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="69"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10466,7 +10282,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="69"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10482,7 +10298,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="69"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10498,7 +10314,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="69"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10514,7 +10330,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="69"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10530,7 +10346,7 @@
       <c r="C102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="69"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10546,7 +10362,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="69"/>
+      <c r="D103" s="59"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10562,7 +10378,7 @@
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="69"/>
+      <c r="D104" s="59"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10578,7 +10394,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="69"/>
+      <c r="D105" s="59"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10594,7 +10410,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="69"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10610,7 +10426,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="69"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10626,7 +10442,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="69"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10636,13 +10452,13 @@
       <c r="A109" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="70"/>
+      <c r="D109" s="60"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10658,7 +10474,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="71" t="s">
+      <c r="D110" s="61" t="s">
         <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -10676,7 +10492,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="71"/>
+      <c r="D111" s="61"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10692,7 +10508,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="71"/>
+      <c r="D112" s="61"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10708,7 +10524,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="71"/>
+      <c r="D113" s="61"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10724,7 +10540,7 @@
       <c r="C114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="71"/>
+      <c r="D114" s="61"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10740,7 +10556,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="71"/>
+      <c r="D115" s="61"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10756,7 +10572,7 @@
       <c r="C116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="71"/>
+      <c r="D116" s="61"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10772,7 +10588,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="71"/>
+      <c r="D117" s="61"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10788,7 +10604,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="71"/>
+      <c r="D118" s="61"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10804,7 +10620,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="71"/>
+      <c r="D119" s="61"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10820,7 +10636,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="71"/>
+      <c r="D120" s="61"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10836,7 +10652,7 @@
       <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="71"/>
+      <c r="D121" s="61"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10852,7 +10668,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="71"/>
+      <c r="D122" s="61"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10868,7 +10684,7 @@
       <c r="C123" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="71"/>
+      <c r="D123" s="61"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10884,7 +10700,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="71"/>
+      <c r="D124" s="61"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10900,7 +10716,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="71"/>
+      <c r="D125" s="61"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10916,7 +10732,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="71"/>
+      <c r="D126" s="61"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10932,7 +10748,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="71"/>
+      <c r="D127" s="61"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10942,13 +10758,13 @@
       <c r="A128" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="72"/>
+      <c r="D128" s="62"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10964,7 +10780,7 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="57" t="s">
+      <c r="D129" s="47" t="s">
         <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
@@ -10982,7 +10798,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="58"/>
+      <c r="D130" s="48"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10998,7 +10814,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="58"/>
+      <c r="D131" s="48"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -11014,7 +10830,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="58"/>
+      <c r="D132" s="48"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11030,7 +10846,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="58"/>
+      <c r="D133" s="48"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11046,7 +10862,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="58"/>
+      <c r="D134" s="48"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11062,7 +10878,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="58"/>
+      <c r="D135" s="48"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11078,7 +10894,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="58"/>
+      <c r="D136" s="48"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11088,13 +10904,13 @@
       <c r="A137" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="37" t="s">
+      <c r="B137" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C137" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="59"/>
+      <c r="D137" s="49"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11110,7 +10926,7 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="77" t="s">
+      <c r="D138" s="50" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -11128,7 +10944,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="78"/>
+      <c r="D139" s="51"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11144,7 +10960,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="78"/>
+      <c r="D140" s="51"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11160,7 +10976,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="78"/>
+      <c r="D141" s="51"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11176,7 +10992,7 @@
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="78"/>
+      <c r="D142" s="51"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11192,7 +11008,7 @@
       <c r="C143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="78"/>
+      <c r="D143" s="51"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11208,7 +11024,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="78"/>
+      <c r="D144" s="51"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11224,7 +11040,7 @@
       <c r="C145" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="78"/>
+      <c r="D145" s="51"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11240,7 +11056,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="78"/>
+      <c r="D146" s="51"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11256,7 +11072,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="78"/>
+      <c r="D147" s="51"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11272,7 +11088,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="78"/>
+      <c r="D148" s="51"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11288,7 +11104,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="78"/>
+      <c r="D149" s="51"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11304,7 +11120,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="78"/>
+      <c r="D150" s="51"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11320,7 +11136,7 @@
       <c r="C151" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="78"/>
+      <c r="D151" s="51"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11336,7 +11152,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="78"/>
+      <c r="D152" s="51"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11352,7 +11168,7 @@
       <c r="C153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="78"/>
+      <c r="D153" s="51"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11368,7 +11184,7 @@
       <c r="C154" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="78"/>
+      <c r="D154" s="51"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11384,7 +11200,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="78"/>
+      <c r="D155" s="51"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11400,7 +11216,7 @@
       <c r="C156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="78"/>
+      <c r="D156" s="51"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11416,7 +11232,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="78"/>
+      <c r="D157" s="51"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11432,7 +11248,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="78"/>
+      <c r="D158" s="51"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11448,7 +11264,7 @@
       <c r="C159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="78"/>
+      <c r="D159" s="51"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11458,13 +11274,13 @@
       <c r="A160" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B160" s="35">
+      <c r="B160" s="34">
         <v>0</v>
       </c>
-      <c r="C160" s="36">
+      <c r="C160" s="35">
         <v>0</v>
       </c>
-      <c r="D160" s="79"/>
+      <c r="D160" s="52"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11480,7 +11296,7 @@
       <c r="C161" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="101" t="s">
+      <c r="D161" s="86" t="s">
         <v>310</v>
       </c>
       <c r="E161" s="6" t="str">
@@ -11498,7 +11314,7 @@
       <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D162" s="101"/>
+      <c r="D162" s="86"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11514,7 +11330,7 @@
       <c r="C163" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="101"/>
+      <c r="D163" s="86"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11530,7 +11346,7 @@
       <c r="C164" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="101"/>
+      <c r="D164" s="86"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11546,7 +11362,7 @@
       <c r="C165" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="101"/>
+      <c r="D165" s="86"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11562,7 +11378,7 @@
       <c r="C166" s="7">
         <v>2</v>
       </c>
-      <c r="D166" s="101"/>
+      <c r="D166" s="86"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11578,7 +11394,7 @@
       <c r="C167" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="101"/>
+      <c r="D167" s="86"/>
       <c r="E167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11594,7 +11410,7 @@
       <c r="C168" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="101"/>
+      <c r="D168" s="86"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11610,7 +11426,7 @@
       <c r="C169" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D169" s="101"/>
+      <c r="D169" s="86"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11626,7 +11442,7 @@
       <c r="C170" s="7">
         <v>10</v>
       </c>
-      <c r="D170" s="101"/>
+      <c r="D170" s="86"/>
       <c r="E170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11642,7 +11458,7 @@
       <c r="C171" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="101"/>
+      <c r="D171" s="86"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11658,7 +11474,7 @@
       <c r="C172" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D172" s="101"/>
+      <c r="D172" s="86"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11674,7 +11490,7 @@
       <c r="C173" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D173" s="101"/>
+      <c r="D173" s="86"/>
       <c r="E173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11690,7 +11506,7 @@
       <c r="C174" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="101"/>
+      <c r="D174" s="86"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11706,7 +11522,7 @@
       <c r="C175" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D175" s="101"/>
+      <c r="D175" s="86"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11722,7 +11538,7 @@
       <c r="C176" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="101"/>
+      <c r="D176" s="86"/>
       <c r="E176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11738,7 +11554,7 @@
       <c r="C177" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="101"/>
+      <c r="D177" s="86"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11754,7 +11570,7 @@
       <c r="C178" s="7">
         <v>163</v>
       </c>
-      <c r="D178" s="101"/>
+      <c r="D178" s="86"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11767,7 +11583,7 @@
       <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="101"/>
+      <c r="D179" s="86"/>
       <c r="E179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11780,7 +11596,7 @@
       <c r="B180" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D180" s="101"/>
+      <c r="D180" s="86"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11793,7 +11609,7 @@
       <c r="B181" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="101"/>
+      <c r="D181" s="86"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11806,7 +11622,7 @@
       <c r="B182" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="101"/>
+      <c r="D182" s="86"/>
       <c r="E182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11819,7 +11635,7 @@
       <c r="B183" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D183" s="101"/>
+      <c r="D183" s="86"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11832,7 +11648,7 @@
       <c r="B184" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="101"/>
+      <c r="D184" s="86"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11845,7 +11661,7 @@
       <c r="B185" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D185" s="101"/>
+      <c r="D185" s="86"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>

--- a/Segunda_entrega_correccion/CHECK.xlsx
+++ b/Segunda_entrega_correccion/CHECK.xlsx
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="335">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1672,6 +1672,12 @@
   </si>
   <si>
     <t>CELDA 272</t>
+  </si>
+  <si>
+    <t>a:=b:=i:=8+5</t>
+  </si>
+  <si>
+    <t>ASIGNACION MULTIPLE CON EXPRESION</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2088,14 +2094,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2106,6 +2121,15 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2115,37 +2139,16 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2157,22 +2160,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2184,9 +2214,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2196,74 +2223,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -2618,7 +2603,7 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+      <selection activeCell="I225" sqref="I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2639,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2666,7 +2651,7 @@
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,7 +2664,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2695,7 +2680,7 @@
       <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2711,7 +2696,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2729,7 +2714,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2745,7 +2730,7 @@
       <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2761,7 +2746,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="60" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2779,7 +2764,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2795,7 +2780,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2811,7 +2796,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2827,7 +2812,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2843,7 +2828,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2859,7 +2844,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2875,7 +2860,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2891,7 +2876,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2907,7 +2892,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2923,7 +2908,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2939,7 +2924,7 @@
       <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2955,7 +2940,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="61" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -2973,7 +2958,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2989,7 +2974,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3005,7 +2990,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3021,7 +3006,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3037,7 +3022,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3053,7 +3038,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3069,7 +3054,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3085,7 +3070,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3101,7 +3086,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3117,7 +3102,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3133,7 +3118,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3149,7 +3134,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3165,7 +3150,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3181,7 +3166,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3197,7 +3182,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="60" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -3215,7 +3200,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3231,7 +3216,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3247,7 +3232,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="64"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3263,7 +3248,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3279,7 +3264,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3295,7 +3280,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3311,7 +3296,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="64"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3327,7 +3312,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="64"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3343,7 +3328,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="64"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3359,7 +3344,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="64"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3375,7 +3360,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3391,7 +3376,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3408,7 +3393,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="64"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3425,7 +3410,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="64"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3442,7 +3427,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3459,7 +3444,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3475,7 +3460,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3491,7 +3476,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="64"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3507,7 +3492,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="64"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3523,7 +3508,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="64"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3539,7 +3524,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="64"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3555,7 +3540,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="65" t="s">
+      <c r="D57" s="64" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3573,7 +3558,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="66"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3589,7 +3574,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="66"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3605,7 +3590,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="66"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3621,7 +3606,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="66"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3637,7 +3622,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="66"/>
+      <c r="D62" s="65"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3653,7 +3638,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="66"/>
+      <c r="D63" s="65"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3669,7 +3654,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="66"/>
+      <c r="D64" s="65"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3685,7 +3670,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="66"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3701,7 +3686,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="66"/>
+      <c r="D66" s="65"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3717,7 +3702,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="66"/>
+      <c r="D67" s="65"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E136" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3733,7 +3718,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="66"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3749,7 +3734,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="66"/>
+      <c r="D69" s="65"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3765,7 +3750,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="66"/>
+      <c r="D70" s="65"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3781,7 +3766,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="66"/>
+      <c r="D71" s="65"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3797,7 +3782,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="66"/>
+      <c r="D72" s="65"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3813,7 +3798,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="66"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3829,7 +3814,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="66"/>
+      <c r="D74" s="65"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3845,7 +3830,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="66"/>
+      <c r="D75" s="65"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3861,7 +3846,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="66"/>
+      <c r="D76" s="65"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3877,7 +3862,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="66"/>
+      <c r="D77" s="65"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3893,7 +3878,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="66"/>
+      <c r="D78" s="65"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3909,7 +3894,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="70" t="s">
+      <c r="D79" s="66" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3927,7 +3912,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="71"/>
+      <c r="D80" s="67"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3943,7 +3928,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="71"/>
+      <c r="D81" s="67"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3959,7 +3944,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="71"/>
+      <c r="D82" s="67"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3975,7 +3960,7 @@
       <c r="C83" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="71"/>
+      <c r="D83" s="67"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3991,7 +3976,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="71"/>
+      <c r="D84" s="67"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4007,7 +3992,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="71"/>
+      <c r="D85" s="67"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4023,7 +4008,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="71"/>
+      <c r="D86" s="67"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4039,7 +4024,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="71"/>
+      <c r="D87" s="67"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4055,7 +4040,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="71"/>
+      <c r="D88" s="67"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4071,7 +4056,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="71"/>
+      <c r="D89" s="67"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4081,13 +4066,13 @@
       <c r="A90" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="88" t="s">
+      <c r="B90" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="87"/>
+      <c r="D90" s="68"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4103,7 +4088,7 @@
       <c r="C91" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="71"/>
+      <c r="D91" s="67"/>
       <c r="E91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4119,7 +4104,7 @@
       <c r="C92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="72"/>
+      <c r="D92" s="69"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4135,7 +4120,7 @@
       <c r="C93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="58" t="s">
+      <c r="D93" s="61" t="s">
         <v>296</v>
       </c>
       <c r="E93" s="6" t="str">
@@ -4153,7 +4138,7 @@
       <c r="C94" s="7">
         <v>7</v>
       </c>
-      <c r="D94" s="59"/>
+      <c r="D94" s="62"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4169,7 +4154,7 @@
       <c r="C95" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="59"/>
+      <c r="D95" s="62"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4185,7 +4170,7 @@
       <c r="C96" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="59"/>
+      <c r="D96" s="62"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4201,7 +4186,7 @@
       <c r="C97" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="59"/>
+      <c r="D97" s="62"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4217,7 +4202,7 @@
       <c r="C98" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="59"/>
+      <c r="D98" s="62"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4233,7 +4218,7 @@
       <c r="C99" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D99" s="59"/>
+      <c r="D99" s="62"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4249,7 +4234,7 @@
       <c r="C100" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="59"/>
+      <c r="D100" s="62"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4265,7 +4250,7 @@
       <c r="C101" s="7">
         <v>8</v>
       </c>
-      <c r="D101" s="59"/>
+      <c r="D101" s="62"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4281,7 +4266,7 @@
       <c r="C102" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="59"/>
+      <c r="D102" s="62"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4297,7 +4282,7 @@
       <c r="C103" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="59"/>
+      <c r="D103" s="62"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4313,7 +4298,7 @@
       <c r="C104" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="59"/>
+      <c r="D104" s="62"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4329,7 +4314,7 @@
       <c r="C105" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="59"/>
+      <c r="D105" s="62"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4345,7 +4330,7 @@
       <c r="C106" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="59"/>
+      <c r="D106" s="62"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4361,7 +4346,7 @@
       <c r="C107" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="59"/>
+      <c r="D107" s="62"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4377,7 +4362,7 @@
       <c r="C108" s="7">
         <v>5</v>
       </c>
-      <c r="D108" s="59"/>
+      <c r="D108" s="62"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4393,7 +4378,7 @@
       <c r="C109" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="59"/>
+      <c r="D109" s="62"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4409,7 +4394,7 @@
       <c r="C110" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="59"/>
+      <c r="D110" s="62"/>
       <c r="E110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4425,7 +4410,7 @@
       <c r="C111" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="59"/>
+      <c r="D111" s="62"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4441,7 +4426,7 @@
       <c r="C112" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="89"/>
+      <c r="D112" s="70"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4457,7 +4442,7 @@
       <c r="C113" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="59"/>
+      <c r="D113" s="62"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4467,13 +4452,13 @@
       <c r="A114" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="91" t="s">
+      <c r="B114" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C114" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="92" t="s">
+      <c r="D114" s="71" t="s">
         <v>297</v>
       </c>
       <c r="E114" s="6" t="str">
@@ -4491,7 +4476,7 @@
       <c r="C115" s="7">
         <v>7</v>
       </c>
-      <c r="D115" s="61"/>
+      <c r="D115" s="72"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4507,7 +4492,7 @@
       <c r="C116" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="61"/>
+      <c r="D116" s="72"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4523,7 +4508,7 @@
       <c r="C117" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="61"/>
+      <c r="D117" s="72"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4539,7 +4524,7 @@
       <c r="C118" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="61"/>
+      <c r="D118" s="72"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4555,7 +4540,7 @@
       <c r="C119" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="61"/>
+      <c r="D119" s="72"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4571,7 +4556,7 @@
       <c r="C120" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="61"/>
+      <c r="D120" s="72"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4587,7 +4572,7 @@
       <c r="C121" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="61"/>
+      <c r="D121" s="72"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4603,7 +4588,7 @@
       <c r="C122" s="7">
         <v>8</v>
       </c>
-      <c r="D122" s="61"/>
+      <c r="D122" s="72"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4619,7 +4604,7 @@
       <c r="C123" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="61"/>
+      <c r="D123" s="72"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4635,7 +4620,7 @@
       <c r="C124" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="61"/>
+      <c r="D124" s="72"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4651,7 +4636,7 @@
       <c r="C125" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D125" s="61"/>
+      <c r="D125" s="72"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4667,7 +4652,7 @@
       <c r="C126" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="61"/>
+      <c r="D126" s="72"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4683,7 +4668,7 @@
       <c r="C127" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D127" s="61"/>
+      <c r="D127" s="72"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4699,7 +4684,7 @@
       <c r="C128" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="61"/>
+      <c r="D128" s="72"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4715,7 +4700,7 @@
       <c r="C129" s="7">
         <v>5</v>
       </c>
-      <c r="D129" s="61"/>
+      <c r="D129" s="72"/>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4731,7 +4716,7 @@
       <c r="C130" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="61"/>
+      <c r="D130" s="72"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4747,7 +4732,7 @@
       <c r="C131" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="61"/>
+      <c r="D131" s="72"/>
       <c r="E131" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4763,7 +4748,7 @@
       <c r="C132" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="61"/>
+      <c r="D132" s="72"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4773,13 +4758,13 @@
       <c r="A133" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="88" t="s">
+      <c r="B133" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D133" s="90"/>
+      <c r="D133" s="73"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4795,7 +4780,7 @@
       <c r="C134" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="62"/>
+      <c r="D134" s="74"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4811,7 +4796,7 @@
       <c r="C135" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="47" t="s">
+      <c r="D135" s="50" t="s">
         <v>302</v>
       </c>
       <c r="E135" s="6" t="str">
@@ -4829,7 +4814,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="48"/>
+      <c r="D136" s="51"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4845,7 +4830,7 @@
       <c r="C137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="48"/>
+      <c r="D137" s="51"/>
       <c r="E137" s="6" t="str">
         <f t="shared" ref="E137:E143" si="2">IF(AND(B137=C137,B137&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -4861,7 +4846,7 @@
       <c r="C138" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="48"/>
+      <c r="D138" s="51"/>
       <c r="E138" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4877,7 +4862,7 @@
       <c r="C139" s="7">
         <v>8</v>
       </c>
-      <c r="D139" s="48"/>
+      <c r="D139" s="51"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4893,7 +4878,7 @@
       <c r="C140" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="48"/>
+      <c r="D140" s="51"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4909,7 +4894,7 @@
       <c r="C141" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="48"/>
+      <c r="D141" s="51"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4925,7 +4910,7 @@
       <c r="C142" s="7">
         <v>8</v>
       </c>
-      <c r="D142" s="48"/>
+      <c r="D142" s="51"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4941,7 +4926,7 @@
       <c r="C143" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="49"/>
+      <c r="D143" s="52"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4957,7 +4942,7 @@
       <c r="C144" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="50" t="s">
+      <c r="D144" s="56" t="s">
         <v>307</v>
       </c>
       <c r="E144" s="6" t="str">
@@ -4975,7 +4960,7 @@
       <c r="C145" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="51"/>
+      <c r="D145" s="57"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4991,7 +4976,7 @@
       <c r="C146" s="7">
         <v>2</v>
       </c>
-      <c r="D146" s="51"/>
+      <c r="D146" s="57"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5007,7 +4992,7 @@
       <c r="C147" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="51"/>
+      <c r="D147" s="57"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5023,7 +5008,7 @@
       <c r="C148" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D148" s="51"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5039,7 +5024,7 @@
       <c r="C149" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="51"/>
+      <c r="D149" s="57"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5055,7 +5040,7 @@
       <c r="C150" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D150" s="51"/>
+      <c r="D150" s="57"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5071,7 +5056,7 @@
       <c r="C151" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D151" s="51"/>
+      <c r="D151" s="57"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5087,7 +5072,7 @@
       <c r="C152" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="51"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5103,7 +5088,7 @@
       <c r="C153" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D153" s="51"/>
+      <c r="D153" s="57"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5119,7 +5104,7 @@
       <c r="C154" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D154" s="51"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5135,7 +5120,7 @@
       <c r="C155" s="7">
         <v>4</v>
       </c>
-      <c r="D155" s="51"/>
+      <c r="D155" s="57"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5151,7 +5136,7 @@
       <c r="C156" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D156" s="51"/>
+      <c r="D156" s="57"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5167,7 +5152,7 @@
       <c r="C157" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D157" s="51"/>
+      <c r="D157" s="57"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5183,7 +5168,7 @@
       <c r="C158" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="51"/>
+      <c r="D158" s="57"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5199,7 +5184,7 @@
       <c r="C159" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D159" s="51"/>
+      <c r="D159" s="57"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5215,7 +5200,7 @@
       <c r="C160" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D160" s="51"/>
+      <c r="D160" s="57"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5231,7 +5216,7 @@
       <c r="C161" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D161" s="51"/>
+      <c r="D161" s="57"/>
       <c r="E161" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5247,7 +5232,7 @@
       <c r="C162" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="51"/>
+      <c r="D162" s="57"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5263,7 +5248,7 @@
       <c r="C163" s="7">
         <v>1</v>
       </c>
-      <c r="D163" s="51"/>
+      <c r="D163" s="57"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5279,7 +5264,7 @@
       <c r="C164" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D164" s="51"/>
+      <c r="D164" s="57"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5295,7 +5280,7 @@
       <c r="C165" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D165" s="51"/>
+      <c r="D165" s="57"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5311,7 +5296,7 @@
       <c r="C166" s="35">
         <v>0</v>
       </c>
-      <c r="D166" s="52"/>
+      <c r="D166" s="58"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5327,7 +5312,7 @@
       <c r="C167" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="53" t="s">
+      <c r="D167" s="47" t="s">
         <v>322</v>
       </c>
       <c r="E167" s="6" t="str">
@@ -5345,7 +5330,7 @@
       <c r="C168" s="7">
         <v>1</v>
       </c>
-      <c r="D168" s="54"/>
+      <c r="D168" s="48"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5361,7 +5346,7 @@
       <c r="C169" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="55"/>
+      <c r="D169" s="49"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5377,7 +5362,7 @@
       <c r="C170" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="47" t="s">
+      <c r="D170" s="50" t="s">
         <v>322</v>
       </c>
       <c r="E170" s="6" t="str">
@@ -5395,7 +5380,7 @@
       <c r="C171" s="7">
         <v>15</v>
       </c>
-      <c r="D171" s="48"/>
+      <c r="D171" s="51"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5411,7 +5396,7 @@
       <c r="C172" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="49"/>
+      <c r="D172" s="52"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5427,7 +5412,7 @@
       <c r="C173" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D173" s="53" t="s">
+      <c r="D173" s="47" t="s">
         <v>321</v>
       </c>
       <c r="E173" s="6" t="str">
@@ -5445,7 +5430,7 @@
       <c r="C174" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="54"/>
+      <c r="D174" s="48"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5461,7 +5446,7 @@
       <c r="C175" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="55"/>
+      <c r="D175" s="49"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5477,7 +5462,7 @@
       <c r="C176" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D176" s="47" t="s">
+      <c r="D176" s="50" t="s">
         <v>321</v>
       </c>
       <c r="E176" s="6" t="str">
@@ -5495,7 +5480,7 @@
       <c r="C177" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="48"/>
+      <c r="D177" s="51"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5511,7 +5496,7 @@
       <c r="C178" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="49"/>
+      <c r="D178" s="52"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5527,7 +5512,7 @@
       <c r="C179" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="53" t="s">
+      <c r="D179" s="47" t="s">
         <v>321</v>
       </c>
       <c r="E179" s="6" t="str">
@@ -5545,7 +5530,7 @@
       <c r="C180" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D180" s="54"/>
+      <c r="D180" s="48"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5561,7 +5546,7 @@
       <c r="C181" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="55"/>
+      <c r="D181" s="49"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5577,7 +5562,7 @@
       <c r="C182" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D182" s="47" t="s">
+      <c r="D182" s="50" t="s">
         <v>320</v>
       </c>
       <c r="E182" s="6" t="str">
@@ -5595,7 +5580,7 @@
       <c r="C183" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D183" s="48"/>
+      <c r="D183" s="51"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5611,7 +5596,7 @@
       <c r="C184" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D184" s="49"/>
+      <c r="D184" s="52"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5627,7 +5612,7 @@
       <c r="C185" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="D185" s="53" t="s">
+      <c r="D185" s="47" t="s">
         <v>319</v>
       </c>
       <c r="E185" s="6" t="str">
@@ -5640,7 +5625,7 @@
         <v>198</v>
       </c>
       <c r="B186" s="9"/>
-      <c r="D186" s="54"/>
+      <c r="D186" s="48"/>
       <c r="E186" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5656,7 +5641,7 @@
       <c r="C187" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D187" s="55"/>
+      <c r="D187" s="49"/>
       <c r="E187" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5672,7 +5657,7 @@
       <c r="C188" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="67" t="s">
+      <c r="D188" s="53" t="s">
         <v>326</v>
       </c>
       <c r="E188" s="6" t="str">
@@ -5690,7 +5675,7 @@
       <c r="C189" s="7">
         <v>2</v>
       </c>
-      <c r="D189" s="68"/>
+      <c r="D189" s="54"/>
       <c r="E189" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5706,7 +5691,7 @@
       <c r="C190" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D190" s="68"/>
+      <c r="D190" s="54"/>
       <c r="E190" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5722,7 +5707,7 @@
       <c r="C191" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D191" s="68"/>
+      <c r="D191" s="54"/>
       <c r="E191" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5738,7 +5723,7 @@
       <c r="C192" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D192" s="68"/>
+      <c r="D192" s="54"/>
       <c r="E192" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5754,7 +5739,7 @@
       <c r="C193" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="68"/>
+      <c r="D193" s="54"/>
       <c r="E193" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5770,7 +5755,7 @@
       <c r="C194" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D194" s="68"/>
+      <c r="D194" s="54"/>
       <c r="E194" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5786,7 +5771,7 @@
       <c r="C195" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="68"/>
+      <c r="D195" s="54"/>
       <c r="E195" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5802,7 +5787,7 @@
       <c r="C196" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D196" s="68"/>
+      <c r="D196" s="54"/>
       <c r="E196" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5818,7 +5803,7 @@
       <c r="C197" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D197" s="68"/>
+      <c r="D197" s="54"/>
       <c r="E197" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5834,7 +5819,7 @@
       <c r="C198" s="7">
         <v>4</v>
       </c>
-      <c r="D198" s="68"/>
+      <c r="D198" s="54"/>
       <c r="E198" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5850,7 +5835,7 @@
       <c r="C199" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D199" s="68"/>
+      <c r="D199" s="54"/>
       <c r="E199" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5866,7 +5851,7 @@
       <c r="C200" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D200" s="68"/>
+      <c r="D200" s="54"/>
       <c r="E200" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5882,7 +5867,7 @@
       <c r="C201" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D201" s="68"/>
+      <c r="D201" s="54"/>
       <c r="E201" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5898,7 +5883,7 @@
       <c r="C202" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D202" s="68"/>
+      <c r="D202" s="54"/>
       <c r="E202" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5914,7 +5899,7 @@
       <c r="C203" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D203" s="68"/>
+      <c r="D203" s="54"/>
       <c r="E203" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5930,7 +5915,7 @@
       <c r="C204" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D204" s="68"/>
+      <c r="D204" s="54"/>
       <c r="E204" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5946,7 +5931,7 @@
       <c r="C205" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D205" s="68"/>
+      <c r="D205" s="54"/>
       <c r="E205" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5962,7 +5947,7 @@
       <c r="C206" s="7">
         <v>1</v>
       </c>
-      <c r="D206" s="68"/>
+      <c r="D206" s="54"/>
       <c r="E206" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5978,7 +5963,7 @@
       <c r="C207" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D207" s="68"/>
+      <c r="D207" s="54"/>
       <c r="E207" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5994,7 +5979,7 @@
       <c r="C208" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D208" s="68"/>
+      <c r="D208" s="54"/>
       <c r="E208" s="6" t="str">
         <f t="shared" ref="E208:E259" si="4">IF(AND(B208=C208,B208&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -6010,7 +5995,7 @@
       <c r="C209" s="7">
         <v>0</v>
       </c>
-      <c r="D209" s="68"/>
+      <c r="D209" s="54"/>
       <c r="E209" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6026,7 +6011,7 @@
       <c r="C210" s="7">
         <v>1</v>
       </c>
-      <c r="D210" s="68"/>
+      <c r="D210" s="54"/>
       <c r="E210" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6042,7 +6027,7 @@
       <c r="C211" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D211" s="68"/>
+      <c r="D211" s="54"/>
       <c r="E211" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6058,7 +6043,7 @@
       <c r="C212" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D212" s="68"/>
+      <c r="D212" s="54"/>
       <c r="E212" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6074,7 +6059,7 @@
       <c r="C213" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D213" s="68"/>
+      <c r="D213" s="54"/>
       <c r="E213" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6090,7 +6075,7 @@
       <c r="C214" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D214" s="68"/>
+      <c r="D214" s="54"/>
       <c r="E214" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6106,7 +6091,7 @@
       <c r="C215" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D215" s="68"/>
+      <c r="D215" s="54"/>
       <c r="E215" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6122,7 +6107,7 @@
       <c r="C216" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D216" s="68"/>
+      <c r="D216" s="54"/>
       <c r="E216" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6138,7 +6123,7 @@
       <c r="C217" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D217" s="68"/>
+      <c r="D217" s="54"/>
       <c r="E217" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6154,7 +6139,7 @@
       <c r="C218" s="7">
         <v>2</v>
       </c>
-      <c r="D218" s="68"/>
+      <c r="D218" s="54"/>
       <c r="E218" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6170,7 +6155,7 @@
       <c r="C219" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="68"/>
+      <c r="D219" s="54"/>
       <c r="E219" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6186,7 +6171,7 @@
       <c r="C220" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D220" s="68"/>
+      <c r="D220" s="54"/>
       <c r="E220" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6202,7 +6187,7 @@
       <c r="C221" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D221" s="68"/>
+      <c r="D221" s="54"/>
       <c r="E221" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6218,7 +6203,7 @@
       <c r="C222" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D222" s="69"/>
+      <c r="D222" s="55"/>
       <c r="E222" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6228,117 +6213,159 @@
       <c r="A223" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D223" s="44"/>
+      <c r="B223" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" s="91" t="s">
+        <v>334</v>
+      </c>
       <c r="E223" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D224" s="44"/>
+      <c r="B224" s="8">
+        <v>8</v>
+      </c>
+      <c r="D224" s="92"/>
       <c r="E224" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B225" s="46"/>
+      <c r="B225" s="44">
+        <v>5</v>
+      </c>
       <c r="C225" s="26"/>
-      <c r="D225" s="44"/>
+      <c r="D225" s="92"/>
       <c r="E225" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D226" s="44"/>
+      <c r="B226" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" s="92"/>
       <c r="E226" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D227" s="44"/>
+      <c r="B227" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D227" s="92"/>
       <c r="E227" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B228" s="43"/>
-      <c r="D228" s="45"/>
+      <c r="B228" s="43">
+        <v>8</v>
+      </c>
+      <c r="D228" s="92"/>
       <c r="E228" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>253</v>
       </c>
+      <c r="B229" s="8">
+        <v>5</v>
+      </c>
+      <c r="D229" s="92"/>
       <c r="E229" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>254</v>
       </c>
+      <c r="B230" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D230" s="92"/>
       <c r="E230" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>255</v>
       </c>
+      <c r="B231" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D231" s="92"/>
       <c r="E231" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>256</v>
       </c>
+      <c r="B232" s="8">
+        <v>8</v>
+      </c>
+      <c r="D232" s="92"/>
       <c r="E232" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="B233" s="8">
+        <v>5</v>
+      </c>
+      <c r="D233" s="92"/>
       <c r="E233" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>258</v>
       </c>
+      <c r="B234" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234" s="93"/>
       <c r="E234" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6585,13 +6612,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="D188:D222"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="D182:D184"/>
-    <mergeCell ref="D185:D187"/>
+  <mergeCells count="20">
+    <mergeCell ref="D223:D234"/>
     <mergeCell ref="D135:D143"/>
     <mergeCell ref="D144:D166"/>
     <mergeCell ref="D167:D169"/>
@@ -6605,6 +6627,12 @@
     <mergeCell ref="D79:D92"/>
     <mergeCell ref="D93:D113"/>
     <mergeCell ref="D114:D134"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="D188:D222"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="D182:D184"/>
+    <mergeCell ref="D185:D187"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E261">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -6647,25 +6675,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="16">
@@ -6811,7 +6839,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -6885,31 +6913,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="83" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="16">
@@ -7055,7 +7083,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -7135,41 +7163,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="80" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="73" t="s">
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="83" t="s">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>288</v>
       </c>
       <c r="B8" s="16">
@@ -7315,7 +7343,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -7409,41 +7437,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="80" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="73" t="s">
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="83" t="s">
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="77" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="16">
@@ -7589,7 +7617,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -7684,40 +7712,40 @@
     </row>
     <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80" t="s">
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="73" t="s">
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="V14" s="74"/>
-      <c r="W14" s="75"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="83"/>
       <c r="X14" s="30" t="s">
         <v>287</v>
       </c>
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="77" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="16">
@@ -7794,7 +7822,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
@@ -7875,6 +7903,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B4:H4"/>
@@ -7886,16 +7924,6 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:T14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7931,27 +7959,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>292</v>
       </c>
       <c r="B2" s="16">
@@ -8003,7 +8031,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -8053,34 +8081,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="80" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83"/>
     </row>
     <row r="5" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="16">
@@ -8148,7 +8176,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -8214,34 +8242,34 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="80" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="73" t="s">
+      <c r="P7" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="83"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>294</v>
       </c>
       <c r="B8" s="16">
@@ -8309,7 +8337,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="39" t="s">
         <v>28</v>
       </c>
@@ -8386,17 +8414,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="P7:T7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:M4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8405,10 +8433,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="F16:G17"/>
+      <selection activeCell="B17" sqref="B17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8417,15 +8445,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="16">
@@ -8455,7 +8483,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -8502,7 +8530,7 @@
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="77" t="s">
         <v>301</v>
       </c>
       <c r="B6" s="16">
@@ -8540,7 +8568,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -8591,7 +8619,7 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="77" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="16">
@@ -8629,7 +8657,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -8650,12 +8678,107 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" s="16">
+        <v>234</v>
+      </c>
+      <c r="C17" s="16">
+        <v>235</v>
+      </c>
+      <c r="D17" s="16">
+        <v>236</v>
+      </c>
+      <c r="E17" s="16">
+        <v>237</v>
+      </c>
+      <c r="F17" s="16">
+        <v>238</v>
+      </c>
+      <c r="G17" s="16">
+        <v>239</v>
+      </c>
+      <c r="H17" s="16">
+        <v>240</v>
+      </c>
+      <c r="I17" s="16">
+        <v>241</v>
+      </c>
+      <c r="J17" s="16">
+        <v>242</v>
+      </c>
+      <c r="K17" s="16">
+        <v>243</v>
+      </c>
+      <c r="L17" s="16">
+        <v>244</v>
+      </c>
+      <c r="M17" s="16">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="21">
+        <v>8</v>
+      </c>
+      <c r="D18" s="21">
+        <v>5</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="21">
+        <v>8</v>
+      </c>
+      <c r="H18" s="21">
+        <v>5</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="21">
+        <v>8</v>
+      </c>
+      <c r="L18" s="21">
+        <v>5</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8719,7 +8842,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -8744,7 +8867,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -8760,7 +8883,7 @@
       <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8776,7 +8899,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -8794,7 +8917,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8810,7 +8933,7 @@
       <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8826,7 +8949,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="60" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -8844,7 +8967,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8860,7 +8983,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8876,7 +8999,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8892,7 +9015,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8908,7 +9031,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8924,7 +9047,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8940,7 +9063,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8956,7 +9079,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8972,7 +9095,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8988,7 +9111,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9004,7 +9127,7 @@
       <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9020,7 +9143,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="61" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -9038,7 +9161,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9054,7 +9177,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9070,7 +9193,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9086,7 +9209,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9102,7 +9225,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9118,7 +9241,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9134,7 +9257,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9150,7 +9273,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9166,7 +9289,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9182,7 +9305,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9198,7 +9321,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9214,7 +9337,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9230,7 +9353,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9246,7 +9369,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9262,7 +9385,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="60" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -9280,7 +9403,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9296,7 +9419,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9312,7 +9435,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="64"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9328,7 +9451,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9344,7 +9467,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9360,7 +9483,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9376,7 +9499,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="64"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9392,7 +9515,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="64"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9408,7 +9531,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="64"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9424,7 +9547,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="64"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9440,7 +9563,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9456,7 +9579,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9473,7 +9596,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="64"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9490,7 +9613,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="64"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9507,7 +9630,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9524,7 +9647,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9540,7 +9663,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9556,7 +9679,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="64"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9572,7 +9695,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="64"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9588,7 +9711,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="64"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9604,7 +9727,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="64"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9620,7 +9743,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="65" t="s">
+      <c r="D57" s="64" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -9638,7 +9761,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="66"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9654,7 +9777,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="66"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9670,7 +9793,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="66"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9686,7 +9809,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="66"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9702,7 +9825,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="66"/>
+      <c r="D62" s="65"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9718,7 +9841,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="66"/>
+      <c r="D63" s="65"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9734,7 +9857,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="66"/>
+      <c r="D64" s="65"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9750,7 +9873,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="66"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9766,7 +9889,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="66"/>
+      <c r="D66" s="65"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9782,7 +9905,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="66"/>
+      <c r="D67" s="65"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -9798,7 +9921,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="66"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9814,7 +9937,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="66"/>
+      <c r="D69" s="65"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9830,7 +9953,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="66"/>
+      <c r="D70" s="65"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9846,7 +9969,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="66"/>
+      <c r="D71" s="65"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9862,7 +9985,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="66"/>
+      <c r="D72" s="65"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9878,7 +10001,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="66"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9894,7 +10017,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="66"/>
+      <c r="D74" s="65"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9910,7 +10033,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="66"/>
+      <c r="D75" s="65"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9926,7 +10049,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="66"/>
+      <c r="D76" s="65"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9942,7 +10065,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="66"/>
+      <c r="D77" s="65"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9958,7 +10081,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="66"/>
+      <c r="D78" s="65"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9974,7 +10097,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="D79" s="89" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -9992,7 +10115,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="57"/>
+      <c r="D80" s="89"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10008,7 +10131,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="57"/>
+      <c r="D81" s="89"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10024,7 +10147,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="57"/>
+      <c r="D82" s="89"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10040,7 +10163,7 @@
       <c r="C83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="57"/>
+      <c r="D83" s="89"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10056,7 +10179,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="57"/>
+      <c r="D84" s="89"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10072,7 +10195,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="57"/>
+      <c r="D85" s="89"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10088,7 +10211,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="57"/>
+      <c r="D86" s="89"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10104,7 +10227,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="57"/>
+      <c r="D87" s="89"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10120,7 +10243,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="57"/>
+      <c r="D88" s="89"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10136,7 +10259,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="57"/>
+      <c r="D89" s="89"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10152,7 +10275,7 @@
       <c r="C90" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="57"/>
+      <c r="D90" s="89"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10168,7 +10291,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="58" t="s">
+      <c r="D91" s="61" t="s">
         <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -10186,7 +10309,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="59"/>
+      <c r="D92" s="62"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10202,7 +10325,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="59"/>
+      <c r="D93" s="62"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10218,7 +10341,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="59"/>
+      <c r="D94" s="62"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10234,7 +10357,7 @@
       <c r="C95" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="59"/>
+      <c r="D95" s="62"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10250,7 +10373,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="59"/>
+      <c r="D96" s="62"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10266,7 +10389,7 @@
       <c r="C97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="59"/>
+      <c r="D97" s="62"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10282,7 +10405,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="59"/>
+      <c r="D98" s="62"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10298,7 +10421,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="59"/>
+      <c r="D99" s="62"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10314,7 +10437,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="59"/>
+      <c r="D100" s="62"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10330,7 +10453,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="59"/>
+      <c r="D101" s="62"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10346,7 +10469,7 @@
       <c r="C102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="59"/>
+      <c r="D102" s="62"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10362,7 +10485,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="59"/>
+      <c r="D103" s="62"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10378,7 +10501,7 @@
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="59"/>
+      <c r="D104" s="62"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10394,7 +10517,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="59"/>
+      <c r="D105" s="62"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10410,7 +10533,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="59"/>
+      <c r="D106" s="62"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10426,7 +10549,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="59"/>
+      <c r="D107" s="62"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10442,7 +10565,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="59"/>
+      <c r="D108" s="62"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10458,7 +10581,7 @@
       <c r="C109" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="60"/>
+      <c r="D109" s="90"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10474,7 +10597,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="61" t="s">
+      <c r="D110" s="72" t="s">
         <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -10492,7 +10615,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="61"/>
+      <c r="D111" s="72"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10508,7 +10631,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="61"/>
+      <c r="D112" s="72"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10524,7 +10647,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="61"/>
+      <c r="D113" s="72"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10540,7 +10663,7 @@
       <c r="C114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="61"/>
+      <c r="D114" s="72"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10556,7 +10679,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="61"/>
+      <c r="D115" s="72"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10572,7 +10695,7 @@
       <c r="C116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="61"/>
+      <c r="D116" s="72"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10588,7 +10711,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="61"/>
+      <c r="D117" s="72"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10604,7 +10727,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="61"/>
+      <c r="D118" s="72"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10620,7 +10743,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="61"/>
+      <c r="D119" s="72"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10636,7 +10759,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="61"/>
+      <c r="D120" s="72"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10652,7 +10775,7 @@
       <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="61"/>
+      <c r="D121" s="72"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10668,7 +10791,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="61"/>
+      <c r="D122" s="72"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10684,7 +10807,7 @@
       <c r="C123" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="61"/>
+      <c r="D123" s="72"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10700,7 +10823,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="61"/>
+      <c r="D124" s="72"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10716,7 +10839,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="61"/>
+      <c r="D125" s="72"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10732,7 +10855,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="61"/>
+      <c r="D126" s="72"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10748,7 +10871,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="61"/>
+      <c r="D127" s="72"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10764,7 +10887,7 @@
       <c r="C128" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="62"/>
+      <c r="D128" s="74"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10780,7 +10903,7 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="47" t="s">
+      <c r="D129" s="50" t="s">
         <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
@@ -10798,7 +10921,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="48"/>
+      <c r="D130" s="51"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10814,7 +10937,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="48"/>
+      <c r="D131" s="51"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -10830,7 +10953,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="48"/>
+      <c r="D132" s="51"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10846,7 +10969,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="48"/>
+      <c r="D133" s="51"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10862,7 +10985,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="48"/>
+      <c r="D134" s="51"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10878,7 +11001,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="48"/>
+      <c r="D135" s="51"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10894,7 +11017,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="48"/>
+      <c r="D136" s="51"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10910,7 +11033,7 @@
       <c r="C137" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="49"/>
+      <c r="D137" s="52"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10926,7 +11049,7 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="50" t="s">
+      <c r="D138" s="56" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -10944,7 +11067,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="51"/>
+      <c r="D139" s="57"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10960,7 +11083,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="51"/>
+      <c r="D140" s="57"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10976,7 +11099,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="51"/>
+      <c r="D141" s="57"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10992,7 +11115,7 @@
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="51"/>
+      <c r="D142" s="57"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11008,7 +11131,7 @@
       <c r="C143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="51"/>
+      <c r="D143" s="57"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11024,7 +11147,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="51"/>
+      <c r="D144" s="57"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11040,7 +11163,7 @@
       <c r="C145" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="51"/>
+      <c r="D145" s="57"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11056,7 +11179,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="51"/>
+      <c r="D146" s="57"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11072,7 +11195,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="51"/>
+      <c r="D147" s="57"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11088,7 +11211,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="51"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11104,7 +11227,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="51"/>
+      <c r="D149" s="57"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11120,7 +11243,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="51"/>
+      <c r="D150" s="57"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11136,7 +11259,7 @@
       <c r="C151" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="51"/>
+      <c r="D151" s="57"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11152,7 +11275,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="51"/>
+      <c r="D152" s="57"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11168,7 +11291,7 @@
       <c r="C153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="51"/>
+      <c r="D153" s="57"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11184,7 +11307,7 @@
       <c r="C154" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="51"/>
+      <c r="D154" s="57"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11200,7 +11323,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="51"/>
+      <c r="D155" s="57"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11216,7 +11339,7 @@
       <c r="C156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="51"/>
+      <c r="D156" s="57"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11232,7 +11355,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="51"/>
+      <c r="D157" s="57"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11248,7 +11371,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="51"/>
+      <c r="D158" s="57"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11264,7 +11387,7 @@
       <c r="C159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="51"/>
+      <c r="D159" s="57"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11280,7 +11403,7 @@
       <c r="C160" s="35">
         <v>0</v>
       </c>
-      <c r="D160" s="52"/>
+      <c r="D160" s="58"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11296,7 +11419,7 @@
       <c r="C161" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="86" t="s">
+      <c r="D161" s="88" t="s">
         <v>310</v>
       </c>
       <c r="E161" s="6" t="str">
@@ -11314,7 +11437,7 @@
       <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D162" s="86"/>
+      <c r="D162" s="88"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11330,7 +11453,7 @@
       <c r="C163" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="86"/>
+      <c r="D163" s="88"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11346,7 +11469,7 @@
       <c r="C164" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="86"/>
+      <c r="D164" s="88"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11362,7 +11485,7 @@
       <c r="C165" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="86"/>
+      <c r="D165" s="88"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11378,7 +11501,7 @@
       <c r="C166" s="7">
         <v>2</v>
       </c>
-      <c r="D166" s="86"/>
+      <c r="D166" s="88"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11394,7 +11517,7 @@
       <c r="C167" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="86"/>
+      <c r="D167" s="88"/>
       <c r="E167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11410,7 +11533,7 @@
       <c r="C168" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="86"/>
+      <c r="D168" s="88"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11426,7 +11549,7 @@
       <c r="C169" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D169" s="86"/>
+      <c r="D169" s="88"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11442,7 +11565,7 @@
       <c r="C170" s="7">
         <v>10</v>
       </c>
-      <c r="D170" s="86"/>
+      <c r="D170" s="88"/>
       <c r="E170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11458,7 +11581,7 @@
       <c r="C171" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="86"/>
+      <c r="D171" s="88"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11474,7 +11597,7 @@
       <c r="C172" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D172" s="86"/>
+      <c r="D172" s="88"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11490,7 +11613,7 @@
       <c r="C173" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D173" s="86"/>
+      <c r="D173" s="88"/>
       <c r="E173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11506,7 +11629,7 @@
       <c r="C174" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="86"/>
+      <c r="D174" s="88"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11522,7 +11645,7 @@
       <c r="C175" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D175" s="86"/>
+      <c r="D175" s="88"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11538,7 +11661,7 @@
       <c r="C176" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="86"/>
+      <c r="D176" s="88"/>
       <c r="E176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11554,7 +11677,7 @@
       <c r="C177" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="86"/>
+      <c r="D177" s="88"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11570,7 +11693,7 @@
       <c r="C178" s="7">
         <v>163</v>
       </c>
-      <c r="D178" s="86"/>
+      <c r="D178" s="88"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11583,7 +11706,7 @@
       <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="86"/>
+      <c r="D179" s="88"/>
       <c r="E179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11596,7 +11719,7 @@
       <c r="B180" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D180" s="86"/>
+      <c r="D180" s="88"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11609,7 +11732,7 @@
       <c r="B181" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="86"/>
+      <c r="D181" s="88"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11622,7 +11745,7 @@
       <c r="B182" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="86"/>
+      <c r="D182" s="88"/>
       <c r="E182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11635,7 +11758,7 @@
       <c r="B183" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D183" s="86"/>
+      <c r="D183" s="88"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11648,7 +11771,7 @@
       <c r="B184" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="86"/>
+      <c r="D184" s="88"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11661,7 +11784,7 @@
       <c r="B185" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D185" s="86"/>
+      <c r="D185" s="88"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>

--- a/Segunda_entrega_correccion/CHECK.xlsx
+++ b/Segunda_entrega_correccion/CHECK.xlsx
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="363">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1678,6 +1678,90 @@
   </si>
   <si>
     <t>ASIGNACION MULTIPLE CON EXPRESION</t>
+  </si>
+  <si>
+    <t>CELDA 289</t>
+  </si>
+  <si>
+    <t>CELDA 275</t>
+  </si>
+  <si>
+    <t>CELDA 286</t>
+  </si>
+  <si>
+    <t>CELDA 290</t>
+  </si>
+  <si>
+    <t>CELDA 303</t>
+  </si>
+  <si>
+    <t>CELDA 296</t>
+  </si>
+  <si>
+    <t>CELDA 324</t>
+  </si>
+  <si>
+    <t>CELDA 310</t>
+  </si>
+  <si>
+    <t>CELDA 321</t>
+  </si>
+  <si>
+    <t>CELDA 325</t>
+  </si>
+  <si>
+    <t>CELDA 336</t>
+  </si>
+  <si>
+    <t>CELDA 331</t>
+  </si>
+  <si>
+    <t>CELDA 339</t>
+  </si>
+  <si>
+    <t>asdad</t>
+  </si>
+  <si>
+    <t>CELDA 361</t>
+  </si>
+  <si>
+    <t>CELDA 349</t>
+  </si>
+  <si>
+    <t>CELDA 358</t>
+  </si>
+  <si>
+    <t>CELDA 362</t>
+  </si>
+  <si>
+    <t>CELDA 375</t>
+  </si>
+  <si>
+    <t>CELDA 368</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CELDA 342</t>
+  </si>
+  <si>
+    <t>CELDA 394</t>
+  </si>
+  <si>
+    <t>CELDA 382</t>
+  </si>
+  <si>
+    <t>CELDA 391</t>
+  </si>
+  <si>
+    <t>CELDA 395</t>
+  </si>
+  <si>
+    <t>CELDA 408</t>
+  </si>
+  <si>
+    <t>CELDA 401</t>
   </si>
 </sst>
 </file>
@@ -2103,57 +2187,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2172,6 +2205,12 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2186,6 +2225,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2234,15 +2327,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2600,10 +2684,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="I225" sqref="I225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2723,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="63" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2651,7 +2735,7 @@
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2664,7 +2748,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2680,7 +2764,7 @@
       <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2696,7 +2780,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2714,7 +2798,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2730,7 +2814,7 @@
       <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2746,7 +2830,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="64" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2764,7 +2848,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2780,7 +2864,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2796,7 +2880,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2812,7 +2896,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2828,7 +2912,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2844,7 +2928,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2860,7 +2944,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2876,7 +2960,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2892,7 +2976,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2908,7 +2992,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2924,7 +3008,7 @@
       <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2940,7 +3024,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="53" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -2958,7 +3042,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="62"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2974,7 +3058,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="62"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2990,7 +3074,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3006,7 +3090,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3022,7 +3106,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3038,7 +3122,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3054,7 +3138,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="62"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3070,7 +3154,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3086,7 +3170,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3102,7 +3186,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="62"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3118,7 +3202,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3134,7 +3218,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="62"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3150,7 +3234,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="62"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3166,7 +3250,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3182,7 +3266,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="64" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -3200,7 +3284,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3216,7 +3300,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3232,7 +3316,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3248,7 +3332,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3264,7 +3348,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3280,7 +3364,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3296,7 +3380,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3312,7 +3396,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3328,7 +3412,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3344,7 +3428,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="63"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3360,7 +3444,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="63"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3376,7 +3460,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="63"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3393,7 +3477,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="63"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3410,7 +3494,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3427,7 +3511,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3444,7 +3528,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3460,7 +3544,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="63"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3476,7 +3560,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="63"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3492,7 +3576,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="63"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3508,7 +3592,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3524,7 +3608,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3540,7 +3624,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="47" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3558,7 +3642,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="65"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3574,7 +3658,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="65"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3590,7 +3674,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="65"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3606,7 +3690,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="65"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3622,7 +3706,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="65"/>
+      <c r="D62" s="48"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3638,7 +3722,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="65"/>
+      <c r="D63" s="48"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3654,7 +3738,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="65"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3670,7 +3754,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="65"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3686,7 +3770,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="65"/>
+      <c r="D66" s="48"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3702,7 +3786,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="65"/>
+      <c r="D67" s="48"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E136" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3718,7 +3802,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="65"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3734,7 +3818,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="65"/>
+      <c r="D69" s="48"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3750,7 +3834,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="65"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3766,7 +3850,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="65"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3782,7 +3866,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="65"/>
+      <c r="D72" s="48"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3798,7 +3882,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="65"/>
+      <c r="D73" s="48"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3814,7 +3898,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="65"/>
+      <c r="D74" s="48"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3830,7 +3914,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="65"/>
+      <c r="D75" s="48"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3846,7 +3930,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="65"/>
+      <c r="D76" s="48"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3862,7 +3946,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="65"/>
+      <c r="D77" s="48"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3878,7 +3962,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="65"/>
+      <c r="D78" s="48"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3894,7 +3978,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="66" t="s">
+      <c r="D79" s="49" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3912,7 +3996,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="67"/>
+      <c r="D80" s="50"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3928,7 +4012,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="67"/>
+      <c r="D81" s="50"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3944,7 +4028,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="67"/>
+      <c r="D82" s="50"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3960,7 +4044,7 @@
       <c r="C83" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="67"/>
+      <c r="D83" s="50"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3976,7 +4060,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="67"/>
+      <c r="D84" s="50"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3992,7 +4076,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="67"/>
+      <c r="D85" s="50"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4008,7 +4092,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="67"/>
+      <c r="D86" s="50"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4024,7 +4108,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="67"/>
+      <c r="D87" s="50"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4040,7 +4124,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="67"/>
+      <c r="D88" s="50"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4056,7 +4140,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="67"/>
+      <c r="D89" s="50"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4072,7 +4156,7 @@
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="68"/>
+      <c r="D90" s="51"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4088,7 +4172,7 @@
       <c r="C91" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="67"/>
+      <c r="D91" s="50"/>
       <c r="E91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4104,7 +4188,7 @@
       <c r="C92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="69"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4120,7 +4204,7 @@
       <c r="C93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="61" t="s">
+      <c r="D93" s="53" t="s">
         <v>296</v>
       </c>
       <c r="E93" s="6" t="str">
@@ -4138,7 +4222,7 @@
       <c r="C94" s="7">
         <v>7</v>
       </c>
-      <c r="D94" s="62"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4154,7 +4238,7 @@
       <c r="C95" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="62"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4170,7 +4254,7 @@
       <c r="C96" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="62"/>
+      <c r="D96" s="54"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4186,7 +4270,7 @@
       <c r="C97" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="62"/>
+      <c r="D97" s="54"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4202,7 +4286,7 @@
       <c r="C98" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="62"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4218,7 +4302,7 @@
       <c r="C99" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D99" s="62"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4234,7 +4318,7 @@
       <c r="C100" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="62"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4250,7 +4334,7 @@
       <c r="C101" s="7">
         <v>8</v>
       </c>
-      <c r="D101" s="62"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4266,7 +4350,7 @@
       <c r="C102" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="62"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4282,7 +4366,7 @@
       <c r="C103" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="62"/>
+      <c r="D103" s="54"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4298,7 +4382,7 @@
       <c r="C104" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="62"/>
+      <c r="D104" s="54"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4314,7 +4398,7 @@
       <c r="C105" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="62"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4330,7 +4414,7 @@
       <c r="C106" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="62"/>
+      <c r="D106" s="54"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4346,7 +4430,7 @@
       <c r="C107" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="62"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4362,7 +4446,7 @@
       <c r="C108" s="7">
         <v>5</v>
       </c>
-      <c r="D108" s="62"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4378,7 +4462,7 @@
       <c r="C109" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="62"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4394,7 +4478,7 @@
       <c r="C110" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="62"/>
+      <c r="D110" s="54"/>
       <c r="E110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4410,7 +4494,7 @@
       <c r="C111" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="62"/>
+      <c r="D111" s="54"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4426,7 +4510,7 @@
       <c r="C112" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="70"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4442,7 +4526,7 @@
       <c r="C113" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="62"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4458,7 +4542,7 @@
       <c r="C114" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="71" t="s">
+      <c r="D114" s="56" t="s">
         <v>297</v>
       </c>
       <c r="E114" s="6" t="str">
@@ -4476,7 +4560,7 @@
       <c r="C115" s="7">
         <v>7</v>
       </c>
-      <c r="D115" s="72"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4492,7 +4576,7 @@
       <c r="C116" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="72"/>
+      <c r="D116" s="57"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4508,7 +4592,7 @@
       <c r="C117" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="72"/>
+      <c r="D117" s="57"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4524,7 +4608,7 @@
       <c r="C118" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="72"/>
+      <c r="D118" s="57"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4540,7 +4624,7 @@
       <c r="C119" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="72"/>
+      <c r="D119" s="57"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4556,7 +4640,7 @@
       <c r="C120" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="72"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4572,7 +4656,7 @@
       <c r="C121" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="72"/>
+      <c r="D121" s="57"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4588,7 +4672,7 @@
       <c r="C122" s="7">
         <v>8</v>
       </c>
-      <c r="D122" s="72"/>
+      <c r="D122" s="57"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4604,7 +4688,7 @@
       <c r="C123" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="72"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4620,7 +4704,7 @@
       <c r="C124" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="72"/>
+      <c r="D124" s="57"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4636,7 +4720,7 @@
       <c r="C125" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D125" s="72"/>
+      <c r="D125" s="57"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4652,7 +4736,7 @@
       <c r="C126" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="72"/>
+      <c r="D126" s="57"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4668,7 +4752,7 @@
       <c r="C127" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D127" s="72"/>
+      <c r="D127" s="57"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4684,7 +4768,7 @@
       <c r="C128" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="72"/>
+      <c r="D128" s="57"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4700,7 +4784,7 @@
       <c r="C129" s="7">
         <v>5</v>
       </c>
-      <c r="D129" s="72"/>
+      <c r="D129" s="57"/>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4716,7 +4800,7 @@
       <c r="C130" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="72"/>
+      <c r="D130" s="57"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4732,7 +4816,7 @@
       <c r="C131" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="72"/>
+      <c r="D131" s="57"/>
       <c r="E131" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4748,7 +4832,7 @@
       <c r="C132" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="72"/>
+      <c r="D132" s="57"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4764,7 +4848,7 @@
       <c r="C133" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D133" s="73"/>
+      <c r="D133" s="58"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4780,7 +4864,7 @@
       <c r="C134" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="74"/>
+      <c r="D134" s="59"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4796,7 +4880,7 @@
       <c r="C135" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="50" t="s">
+      <c r="D135" s="69" t="s">
         <v>302</v>
       </c>
       <c r="E135" s="6" t="str">
@@ -4814,7 +4898,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="51"/>
+      <c r="D136" s="70"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4830,7 +4914,7 @@
       <c r="C137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="51"/>
+      <c r="D137" s="70"/>
       <c r="E137" s="6" t="str">
         <f t="shared" ref="E137:E143" si="2">IF(AND(B137=C137,B137&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -4846,7 +4930,7 @@
       <c r="C138" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="51"/>
+      <c r="D138" s="70"/>
       <c r="E138" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4862,7 +4946,7 @@
       <c r="C139" s="7">
         <v>8</v>
       </c>
-      <c r="D139" s="51"/>
+      <c r="D139" s="70"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4878,7 +4962,7 @@
       <c r="C140" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="51"/>
+      <c r="D140" s="70"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4894,7 +4978,7 @@
       <c r="C141" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="51"/>
+      <c r="D141" s="70"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4910,7 +4994,7 @@
       <c r="C142" s="7">
         <v>8</v>
       </c>
-      <c r="D142" s="51"/>
+      <c r="D142" s="70"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4926,7 +5010,7 @@
       <c r="C143" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="52"/>
+      <c r="D143" s="71"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4942,7 +5026,7 @@
       <c r="C144" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="56" t="s">
+      <c r="D144" s="72" t="s">
         <v>307</v>
       </c>
       <c r="E144" s="6" t="str">
@@ -4960,7 +5044,7 @@
       <c r="C145" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="57"/>
+      <c r="D145" s="73"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4976,7 +5060,7 @@
       <c r="C146" s="7">
         <v>2</v>
       </c>
-      <c r="D146" s="57"/>
+      <c r="D146" s="73"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -4992,7 +5076,7 @@
       <c r="C147" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="57"/>
+      <c r="D147" s="73"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5008,7 +5092,7 @@
       <c r="C148" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D148" s="57"/>
+      <c r="D148" s="73"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5024,7 +5108,7 @@
       <c r="C149" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="57"/>
+      <c r="D149" s="73"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5040,7 +5124,7 @@
       <c r="C150" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D150" s="57"/>
+      <c r="D150" s="73"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5056,7 +5140,7 @@
       <c r="C151" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D151" s="57"/>
+      <c r="D151" s="73"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5072,7 +5156,7 @@
       <c r="C152" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="57"/>
+      <c r="D152" s="73"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5088,7 +5172,7 @@
       <c r="C153" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D153" s="57"/>
+      <c r="D153" s="73"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5104,7 +5188,7 @@
       <c r="C154" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D154" s="57"/>
+      <c r="D154" s="73"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5120,7 +5204,7 @@
       <c r="C155" s="7">
         <v>4</v>
       </c>
-      <c r="D155" s="57"/>
+      <c r="D155" s="73"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5136,7 +5220,7 @@
       <c r="C156" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D156" s="57"/>
+      <c r="D156" s="73"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5152,7 +5236,7 @@
       <c r="C157" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D157" s="57"/>
+      <c r="D157" s="73"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5168,7 +5252,7 @@
       <c r="C158" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="57"/>
+      <c r="D158" s="73"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5184,7 +5268,7 @@
       <c r="C159" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D159" s="57"/>
+      <c r="D159" s="73"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5200,7 +5284,7 @@
       <c r="C160" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D160" s="57"/>
+      <c r="D160" s="73"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5216,7 +5300,7 @@
       <c r="C161" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D161" s="57"/>
+      <c r="D161" s="73"/>
       <c r="E161" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5232,7 +5316,7 @@
       <c r="C162" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="57"/>
+      <c r="D162" s="73"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5248,7 +5332,7 @@
       <c r="C163" s="7">
         <v>1</v>
       </c>
-      <c r="D163" s="57"/>
+      <c r="D163" s="73"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5264,7 +5348,7 @@
       <c r="C164" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D164" s="57"/>
+      <c r="D164" s="73"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5280,7 +5364,7 @@
       <c r="C165" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D165" s="57"/>
+      <c r="D165" s="73"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5296,7 +5380,7 @@
       <c r="C166" s="35">
         <v>0</v>
       </c>
-      <c r="D166" s="58"/>
+      <c r="D166" s="74"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5312,7 +5396,7 @@
       <c r="C167" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="47" t="s">
+      <c r="D167" s="60" t="s">
         <v>322</v>
       </c>
       <c r="E167" s="6" t="str">
@@ -5330,7 +5414,7 @@
       <c r="C168" s="7">
         <v>1</v>
       </c>
-      <c r="D168" s="48"/>
+      <c r="D168" s="61"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5346,7 +5430,7 @@
       <c r="C169" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="49"/>
+      <c r="D169" s="62"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5362,7 +5446,7 @@
       <c r="C170" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="50" t="s">
+      <c r="D170" s="69" t="s">
         <v>322</v>
       </c>
       <c r="E170" s="6" t="str">
@@ -5380,7 +5464,7 @@
       <c r="C171" s="7">
         <v>15</v>
       </c>
-      <c r="D171" s="51"/>
+      <c r="D171" s="70"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5396,7 +5480,7 @@
       <c r="C172" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="52"/>
+      <c r="D172" s="71"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5412,7 +5496,7 @@
       <c r="C173" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D173" s="47" t="s">
+      <c r="D173" s="60" t="s">
         <v>321</v>
       </c>
       <c r="E173" s="6" t="str">
@@ -5430,7 +5514,7 @@
       <c r="C174" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="48"/>
+      <c r="D174" s="61"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5446,7 +5530,7 @@
       <c r="C175" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="49"/>
+      <c r="D175" s="62"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5462,7 +5546,7 @@
       <c r="C176" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D176" s="50" t="s">
+      <c r="D176" s="69" t="s">
         <v>321</v>
       </c>
       <c r="E176" s="6" t="str">
@@ -5480,7 +5564,7 @@
       <c r="C177" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="51"/>
+      <c r="D177" s="70"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5496,7 +5580,7 @@
       <c r="C178" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="52"/>
+      <c r="D178" s="71"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5512,7 +5596,7 @@
       <c r="C179" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="47" t="s">
+      <c r="D179" s="60" t="s">
         <v>321</v>
       </c>
       <c r="E179" s="6" t="str">
@@ -5530,7 +5614,7 @@
       <c r="C180" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D180" s="48"/>
+      <c r="D180" s="61"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5546,7 +5630,7 @@
       <c r="C181" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="49"/>
+      <c r="D181" s="62"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5562,7 +5646,7 @@
       <c r="C182" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D182" s="50" t="s">
+      <c r="D182" s="69" t="s">
         <v>320</v>
       </c>
       <c r="E182" s="6" t="str">
@@ -5580,7 +5664,7 @@
       <c r="C183" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D183" s="51"/>
+      <c r="D183" s="70"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5596,7 +5680,7 @@
       <c r="C184" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D184" s="52"/>
+      <c r="D184" s="71"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5612,7 +5696,7 @@
       <c r="C185" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="D185" s="47" t="s">
+      <c r="D185" s="60" t="s">
         <v>319</v>
       </c>
       <c r="E185" s="6" t="str">
@@ -5625,7 +5709,7 @@
         <v>198</v>
       </c>
       <c r="B186" s="9"/>
-      <c r="D186" s="48"/>
+      <c r="D186" s="61"/>
       <c r="E186" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5641,7 +5725,7 @@
       <c r="C187" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D187" s="49"/>
+      <c r="D187" s="62"/>
       <c r="E187" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5657,7 +5741,7 @@
       <c r="C188" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="53" t="s">
+      <c r="D188" s="75" t="s">
         <v>326</v>
       </c>
       <c r="E188" s="6" t="str">
@@ -5675,7 +5759,7 @@
       <c r="C189" s="7">
         <v>2</v>
       </c>
-      <c r="D189" s="54"/>
+      <c r="D189" s="76"/>
       <c r="E189" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5691,7 +5775,7 @@
       <c r="C190" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D190" s="54"/>
+      <c r="D190" s="76"/>
       <c r="E190" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5707,7 +5791,7 @@
       <c r="C191" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D191" s="54"/>
+      <c r="D191" s="76"/>
       <c r="E191" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5723,7 +5807,7 @@
       <c r="C192" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D192" s="54"/>
+      <c r="D192" s="76"/>
       <c r="E192" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5739,7 +5823,7 @@
       <c r="C193" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="54"/>
+      <c r="D193" s="76"/>
       <c r="E193" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5755,7 +5839,7 @@
       <c r="C194" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D194" s="54"/>
+      <c r="D194" s="76"/>
       <c r="E194" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5771,7 +5855,7 @@
       <c r="C195" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="54"/>
+      <c r="D195" s="76"/>
       <c r="E195" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5787,7 +5871,7 @@
       <c r="C196" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D196" s="54"/>
+      <c r="D196" s="76"/>
       <c r="E196" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5803,7 +5887,7 @@
       <c r="C197" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D197" s="54"/>
+      <c r="D197" s="76"/>
       <c r="E197" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5819,7 +5903,7 @@
       <c r="C198" s="7">
         <v>4</v>
       </c>
-      <c r="D198" s="54"/>
+      <c r="D198" s="76"/>
       <c r="E198" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5835,7 +5919,7 @@
       <c r="C199" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D199" s="54"/>
+      <c r="D199" s="76"/>
       <c r="E199" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5851,7 +5935,7 @@
       <c r="C200" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D200" s="54"/>
+      <c r="D200" s="76"/>
       <c r="E200" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5867,7 +5951,7 @@
       <c r="C201" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D201" s="54"/>
+      <c r="D201" s="76"/>
       <c r="E201" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5883,7 +5967,7 @@
       <c r="C202" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D202" s="54"/>
+      <c r="D202" s="76"/>
       <c r="E202" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5899,7 +5983,7 @@
       <c r="C203" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D203" s="54"/>
+      <c r="D203" s="76"/>
       <c r="E203" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5915,7 +5999,7 @@
       <c r="C204" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D204" s="54"/>
+      <c r="D204" s="76"/>
       <c r="E204" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5931,7 +6015,7 @@
       <c r="C205" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D205" s="54"/>
+      <c r="D205" s="76"/>
       <c r="E205" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5947,7 +6031,7 @@
       <c r="C206" s="7">
         <v>1</v>
       </c>
-      <c r="D206" s="54"/>
+      <c r="D206" s="76"/>
       <c r="E206" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5963,7 +6047,7 @@
       <c r="C207" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D207" s="54"/>
+      <c r="D207" s="76"/>
       <c r="E207" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5979,7 +6063,7 @@
       <c r="C208" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D208" s="54"/>
+      <c r="D208" s="76"/>
       <c r="E208" s="6" t="str">
         <f t="shared" ref="E208:E259" si="4">IF(AND(B208=C208,B208&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -5995,7 +6079,7 @@
       <c r="C209" s="7">
         <v>0</v>
       </c>
-      <c r="D209" s="54"/>
+      <c r="D209" s="76"/>
       <c r="E209" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6011,7 +6095,7 @@
       <c r="C210" s="7">
         <v>1</v>
       </c>
-      <c r="D210" s="54"/>
+      <c r="D210" s="76"/>
       <c r="E210" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6027,7 +6111,7 @@
       <c r="C211" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D211" s="54"/>
+      <c r="D211" s="76"/>
       <c r="E211" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6038,12 +6122,12 @@
         <v>224</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D212" s="54"/>
+        <v>48</v>
+      </c>
+      <c r="D212" s="76"/>
       <c r="E212" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6059,7 +6143,7 @@
       <c r="C213" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D213" s="54"/>
+      <c r="D213" s="76"/>
       <c r="E213" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6075,7 +6159,7 @@
       <c r="C214" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D214" s="54"/>
+      <c r="D214" s="76"/>
       <c r="E214" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6091,7 +6175,7 @@
       <c r="C215" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D215" s="54"/>
+      <c r="D215" s="76"/>
       <c r="E215" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6107,7 +6191,7 @@
       <c r="C216" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D216" s="54"/>
+      <c r="D216" s="76"/>
       <c r="E216" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6123,7 +6207,7 @@
       <c r="C217" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D217" s="54"/>
+      <c r="D217" s="76"/>
       <c r="E217" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6139,7 +6223,7 @@
       <c r="C218" s="7">
         <v>2</v>
       </c>
-      <c r="D218" s="54"/>
+      <c r="D218" s="76"/>
       <c r="E218" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6155,7 +6239,7 @@
       <c r="C219" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="54"/>
+      <c r="D219" s="76"/>
       <c r="E219" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6171,7 +6255,7 @@
       <c r="C220" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D220" s="54"/>
+      <c r="D220" s="76"/>
       <c r="E220" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6187,7 +6271,7 @@
       <c r="C221" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D221" s="54"/>
+      <c r="D221" s="76"/>
       <c r="E221" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6203,7 +6287,7 @@
       <c r="C222" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D222" s="55"/>
+      <c r="D222" s="77"/>
       <c r="E222" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6216,12 +6300,15 @@
       <c r="B223" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D223" s="91" t="s">
+      <c r="C223" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" s="66" t="s">
         <v>334</v>
       </c>
       <c r="E223" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6231,7 +6318,10 @@
       <c r="B224" s="8">
         <v>8</v>
       </c>
-      <c r="D224" s="92"/>
+      <c r="C224" s="7">
+        <v>5</v>
+      </c>
+      <c r="D224" s="67"/>
       <c r="E224" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6244,8 +6334,10 @@
       <c r="B225" s="44">
         <v>5</v>
       </c>
-      <c r="C225" s="26"/>
-      <c r="D225" s="92"/>
+      <c r="C225" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D225" s="67"/>
       <c r="E225" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6258,7 +6350,10 @@
       <c r="B226" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D226" s="92"/>
+      <c r="C226" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226" s="67"/>
       <c r="E226" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6271,7 +6366,10 @@
       <c r="B227" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D227" s="92"/>
+      <c r="C227" s="7">
+        <v>5</v>
+      </c>
+      <c r="D227" s="67"/>
       <c r="E227" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6284,7 +6382,10 @@
       <c r="B228" s="43">
         <v>8</v>
       </c>
-      <c r="D228" s="92"/>
+      <c r="C228" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D228" s="67"/>
       <c r="E228" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6297,7 +6398,10 @@
       <c r="B229" s="8">
         <v>5</v>
       </c>
-      <c r="D229" s="92"/>
+      <c r="C229" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D229" s="67"/>
       <c r="E229" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6310,7 +6414,10 @@
       <c r="B230" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D230" s="92"/>
+      <c r="C230" s="7">
+        <v>5</v>
+      </c>
+      <c r="D230" s="67"/>
       <c r="E230" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6323,7 +6430,10 @@
       <c r="B231" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D231" s="92"/>
+      <c r="C231" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" s="67"/>
       <c r="E231" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6336,10 +6446,13 @@
       <c r="B232" s="8">
         <v>8</v>
       </c>
-      <c r="D232" s="92"/>
+      <c r="C232" s="7">
+        <v>8</v>
+      </c>
+      <c r="D232" s="67"/>
       <c r="E232" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6349,10 +6462,13 @@
       <c r="B233" s="8">
         <v>5</v>
       </c>
-      <c r="D233" s="92"/>
+      <c r="C233" s="7">
+        <v>5</v>
+      </c>
+      <c r="D233" s="67"/>
       <c r="E233" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6362,7 +6478,10 @@
       <c r="B234" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D234" s="93"/>
+      <c r="C234" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" s="68"/>
       <c r="E234" s="6" t="str">
         <f t="shared" si="4"/>
         <v>ERROR</v>
@@ -6372,186 +6491,249 @@
       <c r="A235" s="3" t="s">
         <v>259</v>
       </c>
+      <c r="C235" s="7">
+        <v>2</v>
+      </c>
       <c r="E235" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>260</v>
       </c>
+      <c r="C236" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E236" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>261</v>
       </c>
+      <c r="C237" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="E237" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="C238" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="E238" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="C239" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E239" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>264</v>
       </c>
+      <c r="C240" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="E240" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="C241" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E241" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>266</v>
       </c>
+      <c r="C242" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E242" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="C243" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E243" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>268</v>
       </c>
+      <c r="C244" s="7">
+        <v>4</v>
+      </c>
       <c r="E244" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="C245" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E245" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="C246" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="E246" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="C247" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E247" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>272</v>
       </c>
+      <c r="C248" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="E248" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="C249" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="E249" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="C250" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E250" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="C251" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="E251" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="C252" s="7">
+        <v>1</v>
+      </c>
       <c r="E252" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="C253" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E253" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>278</v>
       </c>
+      <c r="C254" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="E254" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="C255" s="7">
+        <v>0</v>
+      </c>
       <c r="E255" s="6" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -6561,54 +6743,807 @@
       <c r="A256" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="C256" s="7">
+        <v>1</v>
+      </c>
       <c r="E256" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>328</v>
       </c>
+      <c r="C257" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E257" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>329</v>
       </c>
+      <c r="C258" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="E258" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>330</v>
       </c>
+      <c r="C259" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="E259" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="C260" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E260" s="6" t="str">
         <f t="shared" ref="E260:E261" si="5">IF(AND(B260=C260,B260&lt;&gt;" "),"OK","ERROR")</f>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="C261" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="E261" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>OK</v>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C262" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C263" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C264" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C265" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C266" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C267" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C268" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C269" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C270" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C271" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C272" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C398" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C399" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C403" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C404" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C405" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C406" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C407" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="7" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -6618,6 +7553,11 @@
     <mergeCell ref="D144:D166"/>
     <mergeCell ref="D167:D169"/>
     <mergeCell ref="D170:D172"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="D188:D222"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="D182:D184"/>
+    <mergeCell ref="D185:D187"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D19"/>
@@ -6628,11 +7568,6 @@
     <mergeCell ref="D93:D113"/>
     <mergeCell ref="D114:D134"/>
     <mergeCell ref="D173:D175"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="D188:D222"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="D182:D184"/>
-    <mergeCell ref="D185:D187"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E261">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -6675,25 +7610,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="16">
@@ -6839,7 +7774,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -6913,31 +7848,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="87" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="80" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="16">
@@ -7083,7 +8018,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -7163,41 +8098,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="78" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="81" t="s">
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="87" t="s">
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="80" t="s">
         <v>288</v>
       </c>
       <c r="B8" s="16">
@@ -7343,7 +8278,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -7437,41 +8372,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="78" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="81" t="s">
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="87" t="s">
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="80" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="16">
@@ -7617,7 +8552,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -7712,40 +8647,40 @@
     </row>
     <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="78" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="81" t="s">
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="V14" s="82"/>
-      <c r="W14" s="83"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="86"/>
       <c r="X14" s="30" t="s">
         <v>287</v>
       </c>
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="80" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="16">
@@ -7822,7 +8757,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
@@ -7959,27 +8894,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>292</v>
       </c>
       <c r="B2" s="16">
@@ -8031,7 +8966,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -8081,34 +9016,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="83"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="86"/>
     </row>
     <row r="5" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="80" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="16">
@@ -8176,7 +9111,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -8242,34 +9177,34 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="78" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="81" t="s">
+      <c r="P7" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="83"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="86"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="80" t="s">
         <v>294</v>
       </c>
       <c r="B8" s="16">
@@ -8337,7 +9272,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="39" t="s">
         <v>28</v>
       </c>
@@ -8445,15 +9380,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="16">
@@ -8483,7 +9418,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -8530,7 +9465,7 @@
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="80" t="s">
         <v>301</v>
       </c>
       <c r="B6" s="16">
@@ -8568,7 +9503,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -8619,7 +9554,7 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="80" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="16">
@@ -8657,7 +9592,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -8693,7 +9628,7 @@
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="80" t="s">
         <v>333</v>
       </c>
       <c r="B17" s="16">
@@ -8734,7 +9669,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="21" t="s">
         <v>28</v>
       </c>
@@ -8842,7 +9777,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="63" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -8867,7 +9802,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -8883,7 +9818,7 @@
       <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8899,7 +9834,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="63" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -8917,7 +9852,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8933,7 +9868,7 @@
       <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8949,7 +9884,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="64" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -8967,7 +9902,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8983,7 +9918,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -8999,7 +9934,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9015,7 +9950,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9031,7 +9966,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9047,7 +9982,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9063,7 +9998,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9079,7 +10014,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9095,7 +10030,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9111,7 +10046,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9127,7 +10062,7 @@
       <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9143,7 +10078,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="53" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -9161,7 +10096,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="62"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9177,7 +10112,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="62"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9193,7 +10128,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9209,7 +10144,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="62"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9225,7 +10160,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9241,7 +10176,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9257,7 +10192,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="62"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9273,7 +10208,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9289,7 +10224,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9305,7 +10240,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="62"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9321,7 +10256,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9337,7 +10272,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="62"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9353,7 +10288,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="62"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9369,7 +10304,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9385,7 +10320,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="64" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -9403,7 +10338,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9419,7 +10354,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9435,7 +10370,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9451,7 +10386,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9467,7 +10402,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9483,7 +10418,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9499,7 +10434,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9515,7 +10450,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9531,7 +10466,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9547,7 +10482,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="63"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9563,7 +10498,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="63"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9579,7 +10514,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="63"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9596,7 +10531,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="63"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9613,7 +10548,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9630,7 +10565,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9647,7 +10582,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9663,7 +10598,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="63"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9679,7 +10614,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="63"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9695,7 +10630,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="63"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9711,7 +10646,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9727,7 +10662,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9743,7 +10678,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="47" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -9761,7 +10696,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="65"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9777,7 +10712,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="65"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9793,7 +10728,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="65"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9809,7 +10744,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="65"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9825,7 +10760,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="65"/>
+      <c r="D62" s="48"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9841,7 +10776,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="65"/>
+      <c r="D63" s="48"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9857,7 +10792,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="65"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9873,7 +10808,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="65"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9889,7 +10824,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="65"/>
+      <c r="D66" s="48"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9905,7 +10840,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="65"/>
+      <c r="D67" s="48"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -9921,7 +10856,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="65"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9937,7 +10872,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="65"/>
+      <c r="D69" s="48"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9953,7 +10888,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="65"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9969,7 +10904,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="65"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -9985,7 +10920,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="65"/>
+      <c r="D72" s="48"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10001,7 +10936,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="65"/>
+      <c r="D73" s="48"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10017,7 +10952,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="65"/>
+      <c r="D74" s="48"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10033,7 +10968,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="65"/>
+      <c r="D75" s="48"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10049,7 +10984,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="65"/>
+      <c r="D76" s="48"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10065,7 +11000,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="65"/>
+      <c r="D77" s="48"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10081,7 +11016,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="65"/>
+      <c r="D78" s="48"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10097,7 +11032,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="89" t="s">
+      <c r="D79" s="92" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -10115,7 +11050,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="89"/>
+      <c r="D80" s="92"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10131,7 +11066,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="89"/>
+      <c r="D81" s="92"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10147,7 +11082,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="89"/>
+      <c r="D82" s="92"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10163,7 +11098,7 @@
       <c r="C83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="89"/>
+      <c r="D83" s="92"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10179,7 +11114,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="89"/>
+      <c r="D84" s="92"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10195,7 +11130,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="89"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10211,7 +11146,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="89"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10227,7 +11162,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="89"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10243,7 +11178,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="89"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10259,7 +11194,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="89"/>
+      <c r="D89" s="92"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10275,7 +11210,7 @@
       <c r="C90" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="89"/>
+      <c r="D90" s="92"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10291,7 +11226,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="61" t="s">
+      <c r="D91" s="53" t="s">
         <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -10309,7 +11244,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="62"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10325,7 +11260,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="62"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10341,7 +11276,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="62"/>
+      <c r="D94" s="54"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10357,7 +11292,7 @@
       <c r="C95" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="62"/>
+      <c r="D95" s="54"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10373,7 +11308,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="62"/>
+      <c r="D96" s="54"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10389,7 +11324,7 @@
       <c r="C97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="62"/>
+      <c r="D97" s="54"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10405,7 +11340,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="62"/>
+      <c r="D98" s="54"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10421,7 +11356,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="62"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10437,7 +11372,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="62"/>
+      <c r="D100" s="54"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10453,7 +11388,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="62"/>
+      <c r="D101" s="54"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10469,7 +11404,7 @@
       <c r="C102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="62"/>
+      <c r="D102" s="54"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10485,7 +11420,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="62"/>
+      <c r="D103" s="54"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10501,7 +11436,7 @@
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="62"/>
+      <c r="D104" s="54"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10517,7 +11452,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="62"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10533,7 +11468,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="62"/>
+      <c r="D106" s="54"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10549,7 +11484,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="62"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10565,7 +11500,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="62"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10581,7 +11516,7 @@
       <c r="C109" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="90"/>
+      <c r="D109" s="93"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10597,7 +11532,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="72" t="s">
+      <c r="D110" s="57" t="s">
         <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -10615,7 +11550,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="72"/>
+      <c r="D111" s="57"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10631,7 +11566,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="72"/>
+      <c r="D112" s="57"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10647,7 +11582,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="72"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10663,7 +11598,7 @@
       <c r="C114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="72"/>
+      <c r="D114" s="57"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10679,7 +11614,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="72"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10695,7 +11630,7 @@
       <c r="C116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="72"/>
+      <c r="D116" s="57"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10711,7 +11646,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="72"/>
+      <c r="D117" s="57"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10727,7 +11662,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="72"/>
+      <c r="D118" s="57"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10743,7 +11678,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="72"/>
+      <c r="D119" s="57"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10759,7 +11694,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="72"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10775,7 +11710,7 @@
       <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="72"/>
+      <c r="D121" s="57"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10791,7 +11726,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="72"/>
+      <c r="D122" s="57"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10807,7 +11742,7 @@
       <c r="C123" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="72"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10823,7 +11758,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="72"/>
+      <c r="D124" s="57"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10839,7 +11774,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="72"/>
+      <c r="D125" s="57"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10855,7 +11790,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="72"/>
+      <c r="D126" s="57"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10871,7 +11806,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="72"/>
+      <c r="D127" s="57"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10887,7 +11822,7 @@
       <c r="C128" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="74"/>
+      <c r="D128" s="59"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10903,7 +11838,7 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="50" t="s">
+      <c r="D129" s="69" t="s">
         <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
@@ -10921,7 +11856,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="51"/>
+      <c r="D130" s="70"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10937,7 +11872,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="51"/>
+      <c r="D131" s="70"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -10953,7 +11888,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="51"/>
+      <c r="D132" s="70"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10969,7 +11904,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="51"/>
+      <c r="D133" s="70"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -10985,7 +11920,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="51"/>
+      <c r="D134" s="70"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11001,7 +11936,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="51"/>
+      <c r="D135" s="70"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11017,7 +11952,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="51"/>
+      <c r="D136" s="70"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11033,7 +11968,7 @@
       <c r="C137" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="52"/>
+      <c r="D137" s="71"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11049,7 +11984,7 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="56" t="s">
+      <c r="D138" s="72" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -11067,7 +12002,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="57"/>
+      <c r="D139" s="73"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11083,7 +12018,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="57"/>
+      <c r="D140" s="73"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11099,7 +12034,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="57"/>
+      <c r="D141" s="73"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11115,7 +12050,7 @@
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="57"/>
+      <c r="D142" s="73"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11131,7 +12066,7 @@
       <c r="C143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="57"/>
+      <c r="D143" s="73"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11147,7 +12082,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="57"/>
+      <c r="D144" s="73"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11163,7 +12098,7 @@
       <c r="C145" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="57"/>
+      <c r="D145" s="73"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11179,7 +12114,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="57"/>
+      <c r="D146" s="73"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11195,7 +12130,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="57"/>
+      <c r="D147" s="73"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11211,7 +12146,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="57"/>
+      <c r="D148" s="73"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11227,7 +12162,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="57"/>
+      <c r="D149" s="73"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11243,7 +12178,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="57"/>
+      <c r="D150" s="73"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11259,7 +12194,7 @@
       <c r="C151" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="57"/>
+      <c r="D151" s="73"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11275,7 +12210,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="57"/>
+      <c r="D152" s="73"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11291,7 +12226,7 @@
       <c r="C153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="57"/>
+      <c r="D153" s="73"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11307,7 +12242,7 @@
       <c r="C154" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="57"/>
+      <c r="D154" s="73"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11323,7 +12258,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="57"/>
+      <c r="D155" s="73"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11339,7 +12274,7 @@
       <c r="C156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="57"/>
+      <c r="D156" s="73"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11355,7 +12290,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="57"/>
+      <c r="D157" s="73"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11371,7 +12306,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="57"/>
+      <c r="D158" s="73"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11387,7 +12322,7 @@
       <c r="C159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="57"/>
+      <c r="D159" s="73"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11403,7 +12338,7 @@
       <c r="C160" s="35">
         <v>0</v>
       </c>
-      <c r="D160" s="58"/>
+      <c r="D160" s="74"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11419,7 +12354,7 @@
       <c r="C161" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="88" t="s">
+      <c r="D161" s="91" t="s">
         <v>310</v>
       </c>
       <c r="E161" s="6" t="str">
@@ -11437,7 +12372,7 @@
       <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D162" s="88"/>
+      <c r="D162" s="91"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11453,7 +12388,7 @@
       <c r="C163" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="88"/>
+      <c r="D163" s="91"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11469,7 +12404,7 @@
       <c r="C164" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="88"/>
+      <c r="D164" s="91"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11485,7 +12420,7 @@
       <c r="C165" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="88"/>
+      <c r="D165" s="91"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11501,7 +12436,7 @@
       <c r="C166" s="7">
         <v>2</v>
       </c>
-      <c r="D166" s="88"/>
+      <c r="D166" s="91"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11517,7 +12452,7 @@
       <c r="C167" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="88"/>
+      <c r="D167" s="91"/>
       <c r="E167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11533,7 +12468,7 @@
       <c r="C168" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="88"/>
+      <c r="D168" s="91"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11549,7 +12484,7 @@
       <c r="C169" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D169" s="88"/>
+      <c r="D169" s="91"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11565,7 +12500,7 @@
       <c r="C170" s="7">
         <v>10</v>
       </c>
-      <c r="D170" s="88"/>
+      <c r="D170" s="91"/>
       <c r="E170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11581,7 +12516,7 @@
       <c r="C171" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="88"/>
+      <c r="D171" s="91"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11597,7 +12532,7 @@
       <c r="C172" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D172" s="88"/>
+      <c r="D172" s="91"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11613,7 +12548,7 @@
       <c r="C173" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D173" s="88"/>
+      <c r="D173" s="91"/>
       <c r="E173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11629,7 +12564,7 @@
       <c r="C174" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="88"/>
+      <c r="D174" s="91"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11645,7 +12580,7 @@
       <c r="C175" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D175" s="88"/>
+      <c r="D175" s="91"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11661,7 +12596,7 @@
       <c r="C176" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="88"/>
+      <c r="D176" s="91"/>
       <c r="E176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11677,7 +12612,7 @@
       <c r="C177" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="88"/>
+      <c r="D177" s="91"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11693,7 +12628,7 @@
       <c r="C178" s="7">
         <v>163</v>
       </c>
-      <c r="D178" s="88"/>
+      <c r="D178" s="91"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11706,7 +12641,7 @@
       <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="88"/>
+      <c r="D179" s="91"/>
       <c r="E179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11719,7 +12654,7 @@
       <c r="B180" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D180" s="88"/>
+      <c r="D180" s="91"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11732,7 +12667,7 @@
       <c r="B181" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="88"/>
+      <c r="D181" s="91"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11745,7 +12680,7 @@
       <c r="B182" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="88"/>
+      <c r="D182" s="91"/>
       <c r="E182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11758,7 +12693,7 @@
       <c r="B183" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D183" s="88"/>
+      <c r="D183" s="91"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11771,7 +12706,7 @@
       <c r="B184" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="88"/>
+      <c r="D184" s="91"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11784,7 +12719,7 @@
       <c r="B185" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D185" s="88"/>
+      <c r="D185" s="91"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>

--- a/Segunda_entrega_correccion/CHECK.xlsx
+++ b/Segunda_entrega_correccion/CHECK.xlsx
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="335">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1678,90 +1678,6 @@
   </si>
   <si>
     <t>ASIGNACION MULTIPLE CON EXPRESION</t>
-  </si>
-  <si>
-    <t>CELDA 289</t>
-  </si>
-  <si>
-    <t>CELDA 275</t>
-  </si>
-  <si>
-    <t>CELDA 286</t>
-  </si>
-  <si>
-    <t>CELDA 290</t>
-  </si>
-  <si>
-    <t>CELDA 303</t>
-  </si>
-  <si>
-    <t>CELDA 296</t>
-  </si>
-  <si>
-    <t>CELDA 324</t>
-  </si>
-  <si>
-    <t>CELDA 310</t>
-  </si>
-  <si>
-    <t>CELDA 321</t>
-  </si>
-  <si>
-    <t>CELDA 325</t>
-  </si>
-  <si>
-    <t>CELDA 336</t>
-  </si>
-  <si>
-    <t>CELDA 331</t>
-  </si>
-  <si>
-    <t>CELDA 339</t>
-  </si>
-  <si>
-    <t>asdad</t>
-  </si>
-  <si>
-    <t>CELDA 361</t>
-  </si>
-  <si>
-    <t>CELDA 349</t>
-  </si>
-  <si>
-    <t>CELDA 358</t>
-  </si>
-  <si>
-    <t>CELDA 362</t>
-  </si>
-  <si>
-    <t>CELDA 375</t>
-  </si>
-  <si>
-    <t>CELDA 368</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>CELDA 342</t>
-  </si>
-  <si>
-    <t>CELDA 394</t>
-  </si>
-  <si>
-    <t>CELDA 382</t>
-  </si>
-  <si>
-    <t>CELDA 391</t>
-  </si>
-  <si>
-    <t>CELDA 395</t>
-  </si>
-  <si>
-    <t>CELDA 408</t>
-  </si>
-  <si>
-    <t>CELDA 401</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2174,12 +2090,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2332,7 +2242,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2684,10 +2618,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2657,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="61" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2735,7 +2669,7 @@
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2748,7 +2682,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2764,7 +2698,7 @@
       <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2780,7 +2714,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="61" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -2798,7 +2732,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2814,7 +2748,7 @@
       <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2830,7 +2764,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="62" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -2848,7 +2782,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2864,7 +2798,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2880,7 +2814,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2896,7 +2830,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2912,7 +2846,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2928,7 +2862,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2944,7 +2878,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2960,7 +2894,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2976,7 +2910,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2992,7 +2926,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3008,7 +2942,7 @@
       <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3024,7 +2958,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="51" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -3042,7 +2976,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="54"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3058,7 +2992,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3074,7 +3008,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3090,7 +3024,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3106,7 +3040,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3122,7 +3056,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3138,7 +3072,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="54"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3154,7 +3088,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3170,7 +3104,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3186,7 +3120,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3202,7 +3136,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3218,7 +3152,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3234,7 +3168,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3250,7 +3184,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3266,7 +3200,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="62" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -3284,7 +3218,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3300,7 +3234,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3316,7 +3250,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3332,7 +3266,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3348,7 +3282,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3364,7 +3298,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="65"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3380,7 +3314,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3396,7 +3330,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="65"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3412,7 +3346,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="65"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3428,7 +3362,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="65"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3444,7 +3378,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="65"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3460,7 +3394,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="65"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3477,7 +3411,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="65"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3494,7 +3428,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="65"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3511,7 +3445,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="65"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3528,7 +3462,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="65"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3544,7 +3478,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="65"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3560,7 +3494,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="65"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3576,7 +3510,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="65"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3592,7 +3526,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="65"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3608,7 +3542,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="65"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3624,7 +3558,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="45" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3642,7 +3576,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="48"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3658,7 +3592,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="48"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3674,7 +3608,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="48"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3690,7 +3624,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="48"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3706,7 +3640,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="48"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3722,7 +3656,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="48"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3738,7 +3672,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="48"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3754,7 +3688,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="48"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3770,7 +3704,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="48"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3786,9 +3720,9 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="48"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="6" t="str">
-        <f t="shared" ref="E67:E136" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -3802,7 +3736,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="48"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3818,7 +3752,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="48"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3834,7 +3768,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="48"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3850,7 +3784,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="48"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3866,7 +3800,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="48"/>
+      <c r="D72" s="46"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3882,7 +3816,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="48"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3898,7 +3832,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="48"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3914,7 +3848,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="48"/>
+      <c r="D75" s="46"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3930,7 +3864,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="48"/>
+      <c r="D76" s="46"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3946,7 +3880,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="48"/>
+      <c r="D77" s="46"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3962,7 +3896,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="48"/>
+      <c r="D78" s="46"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3978,7 +3912,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="47" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3996,7 +3930,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="50"/>
+      <c r="D80" s="48"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4012,7 +3946,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="50"/>
+      <c r="D81" s="48"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4028,7 +3962,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="50"/>
+      <c r="D82" s="48"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4044,7 +3978,7 @@
       <c r="C83" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="50"/>
+      <c r="D83" s="48"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4060,7 +3994,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="50"/>
+      <c r="D84" s="48"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4076,7 +4010,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="50"/>
+      <c r="D85" s="48"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4092,7 +4026,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="50"/>
+      <c r="D86" s="48"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4108,7 +4042,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="50"/>
+      <c r="D87" s="48"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4124,7 +4058,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="50"/>
+      <c r="D88" s="48"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4140,7 +4074,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="50"/>
+      <c r="D89" s="48"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4150,13 +4084,13 @@
       <c r="A90" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="51"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4172,7 +4106,7 @@
       <c r="C91" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="50"/>
+      <c r="D91" s="48"/>
       <c r="E91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4188,7 +4122,7 @@
       <c r="C92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="52"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4204,7 +4138,7 @@
       <c r="C93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="51" t="s">
         <v>296</v>
       </c>
       <c r="E93" s="6" t="str">
@@ -4222,7 +4156,7 @@
       <c r="C94" s="7">
         <v>7</v>
       </c>
-      <c r="D94" s="54"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4238,7 +4172,7 @@
       <c r="C95" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="54"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4254,7 +4188,7 @@
       <c r="C96" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="54"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4270,7 +4204,7 @@
       <c r="C97" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="54"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4286,7 +4220,7 @@
       <c r="C98" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="54"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4302,7 +4236,7 @@
       <c r="C99" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D99" s="54"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4318,7 +4252,7 @@
       <c r="C100" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="54"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4334,7 +4268,7 @@
       <c r="C101" s="7">
         <v>8</v>
       </c>
-      <c r="D101" s="54"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4350,7 +4284,7 @@
       <c r="C102" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="54"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4366,7 +4300,7 @@
       <c r="C103" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="54"/>
+      <c r="D103" s="52"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4382,7 +4316,7 @@
       <c r="C104" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="54"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4398,7 +4332,7 @@
       <c r="C105" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="54"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4414,7 +4348,7 @@
       <c r="C106" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="54"/>
+      <c r="D106" s="52"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4430,7 +4364,7 @@
       <c r="C107" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="54"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4446,7 +4380,7 @@
       <c r="C108" s="7">
         <v>5</v>
       </c>
-      <c r="D108" s="54"/>
+      <c r="D108" s="52"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4462,7 +4396,7 @@
       <c r="C109" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="54"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4478,7 +4412,7 @@
       <c r="C110" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="54"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4494,7 +4428,7 @@
       <c r="C111" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="54"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4510,7 +4444,7 @@
       <c r="C112" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="55"/>
+      <c r="D112" s="53"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4526,7 +4460,7 @@
       <c r="C113" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="54"/>
+      <c r="D113" s="52"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4536,13 +4470,13 @@
       <c r="A114" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C114" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="56" t="s">
+      <c r="D114" s="54" t="s">
         <v>297</v>
       </c>
       <c r="E114" s="6" t="str">
@@ -4560,7 +4494,7 @@
       <c r="C115" s="7">
         <v>7</v>
       </c>
-      <c r="D115" s="57"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4576,7 +4510,7 @@
       <c r="C116" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="57"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4592,7 +4526,7 @@
       <c r="C117" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="57"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4608,7 +4542,7 @@
       <c r="C118" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="57"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4624,7 +4558,7 @@
       <c r="C119" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="57"/>
+      <c r="D119" s="55"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4640,7 +4574,7 @@
       <c r="C120" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="57"/>
+      <c r="D120" s="55"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4656,7 +4590,7 @@
       <c r="C121" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="57"/>
+      <c r="D121" s="55"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4672,7 +4606,7 @@
       <c r="C122" s="7">
         <v>8</v>
       </c>
-      <c r="D122" s="57"/>
+      <c r="D122" s="55"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4688,7 +4622,7 @@
       <c r="C123" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="57"/>
+      <c r="D123" s="55"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4704,7 +4638,7 @@
       <c r="C124" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="57"/>
+      <c r="D124" s="55"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4720,7 +4654,7 @@
       <c r="C125" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D125" s="57"/>
+      <c r="D125" s="55"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4736,7 +4670,7 @@
       <c r="C126" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="57"/>
+      <c r="D126" s="55"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4752,7 +4686,7 @@
       <c r="C127" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D127" s="57"/>
+      <c r="D127" s="55"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4768,7 +4702,7 @@
       <c r="C128" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="55"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4784,7 +4718,7 @@
       <c r="C129" s="7">
         <v>5</v>
       </c>
-      <c r="D129" s="57"/>
+      <c r="D129" s="55"/>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4800,7 +4734,7 @@
       <c r="C130" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="57"/>
+      <c r="D130" s="55"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4816,9 +4750,9 @@
       <c r="C131" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="57"/>
+      <c r="D131" s="55"/>
       <c r="E131" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E131:E194" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -4832,9 +4766,9 @@
       <c r="C132" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="57"/>
+      <c r="D132" s="55"/>
       <c r="E132" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4842,15 +4776,15 @@
       <c r="A133" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="43" t="s">
         <v>36</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D133" s="58"/>
+      <c r="D133" s="56"/>
       <c r="E133" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4864,9 +4798,9 @@
       <c r="C134" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="59"/>
+      <c r="D134" s="57"/>
       <c r="E134" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4880,11 +4814,11 @@
       <c r="C135" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="69" t="s">
+      <c r="D135" s="67" t="s">
         <v>302</v>
       </c>
       <c r="E135" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4898,9 +4832,9 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="70"/>
+      <c r="D136" s="68"/>
       <c r="E136" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4914,9 +4848,9 @@
       <c r="C137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="70"/>
+      <c r="D137" s="68"/>
       <c r="E137" s="6" t="str">
-        <f t="shared" ref="E137:E143" si="2">IF(AND(B137=C137,B137&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -4930,7 +4864,7 @@
       <c r="C138" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="70"/>
+      <c r="D138" s="68"/>
       <c r="E138" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4946,7 +4880,7 @@
       <c r="C139" s="7">
         <v>8</v>
       </c>
-      <c r="D139" s="70"/>
+      <c r="D139" s="68"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4962,7 +4896,7 @@
       <c r="C140" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="70"/>
+      <c r="D140" s="68"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4978,7 +4912,7 @@
       <c r="C141" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="70"/>
+      <c r="D141" s="68"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4994,7 +4928,7 @@
       <c r="C142" s="7">
         <v>8</v>
       </c>
-      <c r="D142" s="70"/>
+      <c r="D142" s="68"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5010,7 +4944,7 @@
       <c r="C143" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="71"/>
+      <c r="D143" s="69"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5026,11 +4960,11 @@
       <c r="C144" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="72" t="s">
+      <c r="D144" s="70" t="s">
         <v>307</v>
       </c>
       <c r="E144" s="6" t="str">
-        <f t="shared" ref="E144:E207" si="3">IF(AND(B144=C144,B144&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5044,9 +4978,9 @@
       <c r="C145" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="73"/>
+      <c r="D145" s="71"/>
       <c r="E145" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5060,9 +4994,9 @@
       <c r="C146" s="7">
         <v>2</v>
       </c>
-      <c r="D146" s="73"/>
+      <c r="D146" s="71"/>
       <c r="E146" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5076,9 +5010,9 @@
       <c r="C147" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="73"/>
+      <c r="D147" s="71"/>
       <c r="E147" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5092,9 +5026,9 @@
       <c r="C148" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D148" s="73"/>
+      <c r="D148" s="71"/>
       <c r="E148" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5108,9 +5042,9 @@
       <c r="C149" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="73"/>
+      <c r="D149" s="71"/>
       <c r="E149" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5124,9 +5058,9 @@
       <c r="C150" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D150" s="73"/>
+      <c r="D150" s="71"/>
       <c r="E150" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5140,9 +5074,9 @@
       <c r="C151" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D151" s="73"/>
+      <c r="D151" s="71"/>
       <c r="E151" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5156,9 +5090,9 @@
       <c r="C152" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="73"/>
+      <c r="D152" s="71"/>
       <c r="E152" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5172,9 +5106,9 @@
       <c r="C153" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D153" s="73"/>
+      <c r="D153" s="71"/>
       <c r="E153" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5188,9 +5122,9 @@
       <c r="C154" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D154" s="73"/>
+      <c r="D154" s="71"/>
       <c r="E154" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5204,9 +5138,9 @@
       <c r="C155" s="7">
         <v>4</v>
       </c>
-      <c r="D155" s="73"/>
+      <c r="D155" s="71"/>
       <c r="E155" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5220,9 +5154,9 @@
       <c r="C156" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D156" s="73"/>
+      <c r="D156" s="71"/>
       <c r="E156" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5236,9 +5170,9 @@
       <c r="C157" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D157" s="73"/>
+      <c r="D157" s="71"/>
       <c r="E157" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5252,9 +5186,9 @@
       <c r="C158" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="73"/>
+      <c r="D158" s="71"/>
       <c r="E158" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5268,9 +5202,9 @@
       <c r="C159" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D159" s="73"/>
+      <c r="D159" s="71"/>
       <c r="E159" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5284,9 +5218,9 @@
       <c r="C160" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D160" s="73"/>
+      <c r="D160" s="71"/>
       <c r="E160" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5300,9 +5234,9 @@
       <c r="C161" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D161" s="73"/>
+      <c r="D161" s="71"/>
       <c r="E161" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5316,9 +5250,9 @@
       <c r="C162" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="73"/>
+      <c r="D162" s="71"/>
       <c r="E162" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5332,9 +5266,9 @@
       <c r="C163" s="7">
         <v>1</v>
       </c>
-      <c r="D163" s="73"/>
+      <c r="D163" s="71"/>
       <c r="E163" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5348,9 +5282,9 @@
       <c r="C164" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D164" s="73"/>
+      <c r="D164" s="71"/>
       <c r="E164" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5364,9 +5298,9 @@
       <c r="C165" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D165" s="73"/>
+      <c r="D165" s="71"/>
       <c r="E165" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5380,9 +5314,9 @@
       <c r="C166" s="35">
         <v>0</v>
       </c>
-      <c r="D166" s="74"/>
+      <c r="D166" s="72"/>
       <c r="E166" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5396,11 +5330,11 @@
       <c r="C167" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="60" t="s">
+      <c r="D167" s="58" t="s">
         <v>322</v>
       </c>
       <c r="E167" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5414,9 +5348,9 @@
       <c r="C168" s="7">
         <v>1</v>
       </c>
-      <c r="D168" s="61"/>
+      <c r="D168" s="59"/>
       <c r="E168" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5430,9 +5364,9 @@
       <c r="C169" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="62"/>
+      <c r="D169" s="60"/>
       <c r="E169" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5446,11 +5380,11 @@
       <c r="C170" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="69" t="s">
+      <c r="D170" s="67" t="s">
         <v>322</v>
       </c>
       <c r="E170" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5464,9 +5398,9 @@
       <c r="C171" s="7">
         <v>15</v>
       </c>
-      <c r="D171" s="70"/>
+      <c r="D171" s="68"/>
       <c r="E171" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5480,9 +5414,9 @@
       <c r="C172" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="71"/>
+      <c r="D172" s="69"/>
       <c r="E172" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5496,11 +5430,11 @@
       <c r="C173" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D173" s="60" t="s">
+      <c r="D173" s="58" t="s">
         <v>321</v>
       </c>
       <c r="E173" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5514,9 +5448,9 @@
       <c r="C174" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="61"/>
+      <c r="D174" s="59"/>
       <c r="E174" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5530,9 +5464,9 @@
       <c r="C175" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="62"/>
+      <c r="D175" s="60"/>
       <c r="E175" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5546,11 +5480,11 @@
       <c r="C176" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D176" s="69" t="s">
+      <c r="D176" s="67" t="s">
         <v>321</v>
       </c>
       <c r="E176" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5564,9 +5498,9 @@
       <c r="C177" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="70"/>
+      <c r="D177" s="68"/>
       <c r="E177" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5580,9 +5514,9 @@
       <c r="C178" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="71"/>
+      <c r="D178" s="69"/>
       <c r="E178" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5596,11 +5530,11 @@
       <c r="C179" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="60" t="s">
+      <c r="D179" s="58" t="s">
         <v>321</v>
       </c>
       <c r="E179" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5614,9 +5548,9 @@
       <c r="C180" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D180" s="61"/>
+      <c r="D180" s="59"/>
       <c r="E180" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5630,9 +5564,9 @@
       <c r="C181" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="62"/>
+      <c r="D181" s="60"/>
       <c r="E181" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5646,11 +5580,11 @@
       <c r="C182" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D182" s="69" t="s">
+      <c r="D182" s="67" t="s">
         <v>320</v>
       </c>
       <c r="E182" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5664,9 +5598,9 @@
       <c r="C183" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D183" s="70"/>
+      <c r="D183" s="68"/>
       <c r="E183" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5680,9 +5614,9 @@
       <c r="C184" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D184" s="71"/>
+      <c r="D184" s="69"/>
       <c r="E184" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5696,11 +5630,11 @@
       <c r="C185" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="D185" s="60" t="s">
+      <c r="D185" s="58" t="s">
         <v>319</v>
       </c>
       <c r="E185" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5709,9 +5643,9 @@
         <v>198</v>
       </c>
       <c r="B186" s="9"/>
-      <c r="D186" s="61"/>
+      <c r="D186" s="59"/>
       <c r="E186" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5725,9 +5659,9 @@
       <c r="C187" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D187" s="62"/>
+      <c r="D187" s="60"/>
       <c r="E187" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5741,11 +5675,11 @@
       <c r="C188" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="75" t="s">
+      <c r="D188" s="73" t="s">
         <v>326</v>
       </c>
       <c r="E188" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5759,9 +5693,9 @@
       <c r="C189" s="7">
         <v>2</v>
       </c>
-      <c r="D189" s="76"/>
+      <c r="D189" s="74"/>
       <c r="E189" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5775,9 +5709,9 @@
       <c r="C190" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D190" s="76"/>
+      <c r="D190" s="74"/>
       <c r="E190" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5791,9 +5725,9 @@
       <c r="C191" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D191" s="76"/>
+      <c r="D191" s="74"/>
       <c r="E191" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5807,9 +5741,9 @@
       <c r="C192" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D192" s="76"/>
+      <c r="D192" s="74"/>
       <c r="E192" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5823,9 +5757,9 @@
       <c r="C193" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="76"/>
+      <c r="D193" s="74"/>
       <c r="E193" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5839,9 +5773,9 @@
       <c r="C194" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D194" s="76"/>
+      <c r="D194" s="74"/>
       <c r="E194" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
@@ -5855,9 +5789,9 @@
       <c r="C195" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="76"/>
+      <c r="D195" s="74"/>
       <c r="E195" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E195:E258" si="3">IF(AND(B195=C195,B195&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
@@ -5871,7 +5805,7 @@
       <c r="C196" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D196" s="76"/>
+      <c r="D196" s="74"/>
       <c r="E196" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5887,7 +5821,7 @@
       <c r="C197" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D197" s="76"/>
+      <c r="D197" s="74"/>
       <c r="E197" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5903,7 +5837,7 @@
       <c r="C198" s="7">
         <v>4</v>
       </c>
-      <c r="D198" s="76"/>
+      <c r="D198" s="74"/>
       <c r="E198" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5919,7 +5853,7 @@
       <c r="C199" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D199" s="76"/>
+      <c r="D199" s="74"/>
       <c r="E199" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5935,7 +5869,7 @@
       <c r="C200" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D200" s="76"/>
+      <c r="D200" s="74"/>
       <c r="E200" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5951,7 +5885,7 @@
       <c r="C201" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D201" s="76"/>
+      <c r="D201" s="74"/>
       <c r="E201" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5967,7 +5901,7 @@
       <c r="C202" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D202" s="76"/>
+      <c r="D202" s="74"/>
       <c r="E202" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5983,7 +5917,7 @@
       <c r="C203" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D203" s="76"/>
+      <c r="D203" s="74"/>
       <c r="E203" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5999,7 +5933,7 @@
       <c r="C204" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D204" s="76"/>
+      <c r="D204" s="74"/>
       <c r="E204" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6015,7 +5949,7 @@
       <c r="C205" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D205" s="76"/>
+      <c r="D205" s="74"/>
       <c r="E205" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6031,7 +5965,7 @@
       <c r="C206" s="7">
         <v>1</v>
       </c>
-      <c r="D206" s="76"/>
+      <c r="D206" s="74"/>
       <c r="E206" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6047,7 +5981,7 @@
       <c r="C207" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D207" s="76"/>
+      <c r="D207" s="74"/>
       <c r="E207" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6063,9 +5997,9 @@
       <c r="C208" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D208" s="76"/>
+      <c r="D208" s="74"/>
       <c r="E208" s="6" t="str">
-        <f t="shared" ref="E208:E259" si="4">IF(AND(B208=C208,B208&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6079,9 +6013,9 @@
       <c r="C209" s="7">
         <v>0</v>
       </c>
-      <c r="D209" s="76"/>
+      <c r="D209" s="74"/>
       <c r="E209" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6095,9 +6029,9 @@
       <c r="C210" s="7">
         <v>1</v>
       </c>
-      <c r="D210" s="76"/>
+      <c r="D210" s="74"/>
       <c r="E210" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6111,9 +6045,9 @@
       <c r="C211" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D211" s="76"/>
+      <c r="D211" s="74"/>
       <c r="E211" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6127,9 +6061,9 @@
       <c r="C212" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D212" s="76"/>
+      <c r="D212" s="74"/>
       <c r="E212" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6143,9 +6077,9 @@
       <c r="C213" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D213" s="76"/>
+      <c r="D213" s="74"/>
       <c r="E213" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6159,9 +6093,9 @@
       <c r="C214" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D214" s="76"/>
+      <c r="D214" s="74"/>
       <c r="E214" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6175,9 +6109,9 @@
       <c r="C215" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D215" s="76"/>
+      <c r="D215" s="74"/>
       <c r="E215" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6191,9 +6125,9 @@
       <c r="C216" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D216" s="76"/>
+      <c r="D216" s="74"/>
       <c r="E216" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6207,9 +6141,9 @@
       <c r="C217" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D217" s="76"/>
+      <c r="D217" s="74"/>
       <c r="E217" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6223,9 +6157,9 @@
       <c r="C218" s="7">
         <v>2</v>
       </c>
-      <c r="D218" s="76"/>
+      <c r="D218" s="74"/>
       <c r="E218" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6239,9 +6173,9 @@
       <c r="C219" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="76"/>
+      <c r="D219" s="74"/>
       <c r="E219" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6255,9 +6189,9 @@
       <c r="C220" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D220" s="76"/>
+      <c r="D220" s="74"/>
       <c r="E220" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6271,9 +6205,9 @@
       <c r="C221" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D221" s="76"/>
+      <c r="D221" s="74"/>
       <c r="E221" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6287,27 +6221,27 @@
       <c r="C222" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D222" s="77"/>
+      <c r="D222" s="75"/>
       <c r="E222" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D223" s="66" t="s">
+      <c r="D223" s="64" t="s">
         <v>334</v>
       </c>
       <c r="E223" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6319,28 +6253,28 @@
         <v>8</v>
       </c>
       <c r="C224" s="7">
-        <v>5</v>
-      </c>
-      <c r="D224" s="67"/>
+        <v>8</v>
+      </c>
+      <c r="D224" s="65"/>
       <c r="E224" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B225" s="44">
+      <c r="B225" s="8">
         <v>5</v>
       </c>
-      <c r="C225" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D225" s="67"/>
+      <c r="C225" s="26">
+        <v>5</v>
+      </c>
+      <c r="D225" s="65"/>
       <c r="E225" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6351,12 +6285,12 @@
         <v>35</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D226" s="67"/>
+        <v>35</v>
+      </c>
+      <c r="D226" s="65"/>
       <c r="E226" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6364,31 +6298,31 @@
         <v>251</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C227" s="7">
-        <v>5</v>
-      </c>
-      <c r="D227" s="67"/>
+        <v>33</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D227" s="65"/>
       <c r="E227" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B228" s="43">
-        <v>8</v>
+      <c r="B228" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D228" s="67"/>
+        <v>34</v>
+      </c>
+      <c r="D228" s="65"/>
       <c r="E228" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6396,31 +6330,31 @@
         <v>253</v>
       </c>
       <c r="B229" s="8">
-        <v>5</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D229" s="67"/>
+        <v>8</v>
+      </c>
+      <c r="C229" s="7">
+        <v>8</v>
+      </c>
+      <c r="D229" s="65"/>
       <c r="E229" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B230" s="8" t="s">
-        <v>35</v>
+      <c r="B230" s="8">
+        <v>5</v>
       </c>
       <c r="C230" s="7">
         <v>5</v>
       </c>
-      <c r="D230" s="67"/>
+      <c r="D230" s="65"/>
       <c r="E230" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6428,30 +6362,30 @@
         <v>255</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D231" s="67"/>
+        <v>35</v>
+      </c>
+      <c r="D231" s="65"/>
       <c r="E231" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B232" s="8">
-        <v>8</v>
-      </c>
-      <c r="C232" s="7">
-        <v>8</v>
-      </c>
-      <c r="D232" s="67"/>
+      <c r="B232" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D232" s="65"/>
       <c r="E232" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6459,15 +6393,15 @@
       <c r="A233" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B233" s="8">
-        <v>5</v>
-      </c>
-      <c r="C233" s="7">
-        <v>5</v>
-      </c>
-      <c r="D233" s="67"/>
+      <c r="B233" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D233" s="65"/>
       <c r="E233" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6475,267 +6409,225 @@
       <c r="A234" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B234" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" s="68"/>
+      <c r="B234" s="8">
+        <v>8</v>
+      </c>
+      <c r="C234" s="7">
+        <v>8</v>
+      </c>
+      <c r="D234" s="65"/>
       <c r="E234" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>259</v>
       </c>
+      <c r="B235" s="8">
+        <v>5</v>
+      </c>
       <c r="C235" s="7">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D235" s="65"/>
       <c r="E235" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>260</v>
       </c>
+      <c r="B236" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C236" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D236" s="65"/>
       <c r="E236" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C237" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="B237" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C237" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D237" s="66"/>
       <c r="E237" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C238" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="E238" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C239" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E239" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="E240" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="E241" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="E242" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C243" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E243" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C244" s="7">
-        <v>4</v>
-      </c>
       <c r="E244" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E245" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C246" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="E246" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C247" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="E247" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="E248" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C249" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="E249" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C250" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E250" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C251" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="E251" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C252" s="7">
-        <v>1</v>
-      </c>
       <c r="E252" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C253" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E253" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C254" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="E254" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C255" s="7">
-        <v>0</v>
-      </c>
       <c r="E255" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
@@ -6743,812 +6635,58 @@
       <c r="A256" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C256" s="7">
-        <v>1</v>
-      </c>
       <c r="E256" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C257" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="E257" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C258" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E258" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" si="3"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C259" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="E259" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ERROR</v>
+        <f t="shared" ref="E259:E261" si="4">IF(AND(B259=C259,B259&lt;&gt;" "),"OK","ERROR")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C260" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="E260" s="6" t="str">
-        <f t="shared" ref="E260:E261" si="5">IF(AND(B260=C260,B260&lt;&gt;" "),"OK","ERROR")</f>
-        <v>ERROR</v>
+        <f t="shared" si="4"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C261" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="E261" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>ERROR</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C262" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C263" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C264" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C265" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C266" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C267" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C268" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C269" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C270" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C271" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C272" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C295" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C304" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C305" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C306" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C307" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C308" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C309" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C310" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C311" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C312" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C313" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C314" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C315" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C316" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C317" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C318" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C319" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C320" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C329" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C330" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C331" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C332" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C333" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C334" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C335" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C336" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="7" t="s">
-        <v>353</v>
+        <f t="shared" si="4"/>
+        <v>OK</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D223:D234"/>
     <mergeCell ref="D135:D143"/>
     <mergeCell ref="D144:D166"/>
     <mergeCell ref="D167:D169"/>
@@ -7558,6 +6696,7 @@
     <mergeCell ref="D179:D181"/>
     <mergeCell ref="D182:D184"/>
     <mergeCell ref="D185:D187"/>
+    <mergeCell ref="D223:D237"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D19"/>
@@ -7570,10 +6709,10 @@
     <mergeCell ref="D173:D175"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E261">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7610,25 +6749,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="16">
@@ -7774,7 +6913,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -7848,31 +6987,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="90" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="78" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="16">
@@ -8018,7 +7157,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -8098,41 +7237,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="84" t="s">
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="90" t="s">
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="78" t="s">
         <v>288</v>
       </c>
       <c r="B8" s="16">
@@ -8278,7 +7417,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -8372,41 +7511,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="81" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="84" t="s">
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="90" t="s">
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="78" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="16">
@@ -8552,7 +7691,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -8647,40 +7786,40 @@
     </row>
     <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="81" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84" t="s">
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="V14" s="85"/>
-      <c r="W14" s="86"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="84"/>
       <c r="X14" s="30" t="s">
         <v>287</v>
       </c>
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="78" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="16">
@@ -8757,7 +7896,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
@@ -8894,27 +8033,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>292</v>
       </c>
       <c r="B2" s="16">
@@ -8966,7 +8105,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -9016,34 +8155,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="81" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="86"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="84"/>
     </row>
     <row r="5" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="78" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="16">
@@ -9111,7 +8250,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -9177,34 +8316,34 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="81" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="84" t="s">
+      <c r="P7" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="86"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="84"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="78" t="s">
         <v>294</v>
       </c>
       <c r="B8" s="16">
@@ -9272,7 +8411,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="39" t="s">
         <v>28</v>
       </c>
@@ -9368,10 +8507,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:M18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9380,15 +8519,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="16">
@@ -9418,7 +8557,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -9465,7 +8604,7 @@
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="78" t="s">
         <v>301</v>
       </c>
       <c r="B6" s="16">
@@ -9503,7 +8642,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -9554,7 +8693,7 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="78" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="16">
@@ -9592,7 +8731,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -9627,8 +8766,8 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="78" t="s">
         <v>333</v>
       </c>
       <c r="B17" s="16">
@@ -9667,9 +8806,18 @@
       <c r="M17" s="16">
         <v>245</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
+      <c r="N17" s="16">
+        <v>246</v>
+      </c>
+      <c r="O17" s="16">
+        <v>247</v>
+      </c>
+      <c r="P17" s="16">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="78"/>
       <c r="B18" s="21" t="s">
         <v>28</v>
       </c>
@@ -9683,28 +8831,37 @@
         <v>35</v>
       </c>
       <c r="F18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="21">
+      <c r="H18" s="21">
         <v>8</v>
       </c>
-      <c r="H18" s="21">
+      <c r="I18" s="21">
         <v>5</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="K18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="21">
+      <c r="M18" s="21">
         <v>8</v>
       </c>
-      <c r="L18" s="21">
+      <c r="N18" s="21">
         <v>5</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="O18" s="23" t="s">
         <v>35</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -9777,7 +8934,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="61" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -9802,7 +8959,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -9818,7 +8975,7 @@
       <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9834,7 +8991,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="61" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -9852,7 +9009,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9868,7 +9025,7 @@
       <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9884,7 +9041,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="62" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -9902,7 +9059,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9918,7 +9075,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9934,7 +9091,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9950,7 +9107,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9966,7 +9123,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9982,7 +9139,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9998,7 +9155,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10014,7 +9171,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10030,7 +9187,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10046,7 +9203,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10062,7 +9219,7 @@
       <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10078,7 +9235,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="51" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -10096,7 +9253,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="54"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10112,7 +9269,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10128,7 +9285,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10144,7 +9301,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10160,7 +9317,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10176,7 +9333,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10192,7 +9349,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="54"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10208,7 +9365,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10224,7 +9381,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10240,7 +9397,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10256,7 +9413,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10272,7 +9429,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10288,7 +9445,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10304,7 +9461,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10320,7 +9477,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="62" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -10338,7 +9495,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10354,7 +9511,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10370,7 +9527,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10386,7 +9543,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10402,7 +9559,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10418,7 +9575,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="65"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10434,7 +9591,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10450,7 +9607,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="65"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10466,7 +9623,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="65"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10482,7 +9639,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="65"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10498,7 +9655,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="65"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10514,7 +9671,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="65"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10531,7 +9688,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="65"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10548,7 +9705,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="65"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10565,7 +9722,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="65"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10582,7 +9739,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="65"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10598,7 +9755,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="65"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10614,7 +9771,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="65"/>
+      <c r="D53" s="63"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10630,7 +9787,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="65"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10646,7 +9803,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="65"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10662,7 +9819,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="65"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10678,7 +9835,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="45" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -10696,7 +9853,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="48"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10712,7 +9869,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="48"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10728,7 +9885,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="48"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10744,7 +9901,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="48"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10760,7 +9917,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="48"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10776,7 +9933,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="48"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10792,7 +9949,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="48"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10808,7 +9965,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="48"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10824,7 +9981,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="48"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -10840,7 +9997,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="48"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -10856,7 +10013,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="48"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10872,7 +10029,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="48"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10888,7 +10045,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="48"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10904,7 +10061,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="48"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10920,7 +10077,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="48"/>
+      <c r="D72" s="46"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10936,7 +10093,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="48"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10952,7 +10109,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="48"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10968,7 +10125,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="48"/>
+      <c r="D75" s="46"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10984,7 +10141,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="48"/>
+      <c r="D76" s="46"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11000,7 +10157,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="48"/>
+      <c r="D77" s="46"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11016,7 +10173,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="48"/>
+      <c r="D78" s="46"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11032,7 +10189,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="92" t="s">
+      <c r="D79" s="90" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -11050,7 +10207,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="92"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11066,7 +10223,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="92"/>
+      <c r="D81" s="90"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11082,7 +10239,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="92"/>
+      <c r="D82" s="90"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11098,7 +10255,7 @@
       <c r="C83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="92"/>
+      <c r="D83" s="90"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11114,7 +10271,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="92"/>
+      <c r="D84" s="90"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11130,7 +10287,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="92"/>
+      <c r="D85" s="90"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11146,7 +10303,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="92"/>
+      <c r="D86" s="90"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11162,7 +10319,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="92"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11178,7 +10335,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="92"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11194,7 +10351,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="92"/>
+      <c r="D89" s="90"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11210,7 +10367,7 @@
       <c r="C90" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="92"/>
+      <c r="D90" s="90"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11226,7 +10383,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="53" t="s">
+      <c r="D91" s="51" t="s">
         <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -11244,7 +10401,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="54"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11260,7 +10417,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="54"/>
+      <c r="D93" s="52"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11276,7 +10433,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="54"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11292,7 +10449,7 @@
       <c r="C95" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="54"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11308,7 +10465,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="54"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11324,7 +10481,7 @@
       <c r="C97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="54"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11340,7 +10497,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="54"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11356,7 +10513,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="54"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11372,7 +10529,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="54"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11388,7 +10545,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="54"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11404,7 +10561,7 @@
       <c r="C102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="54"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11420,7 +10577,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="54"/>
+      <c r="D103" s="52"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11436,7 +10593,7 @@
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="54"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11452,7 +10609,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="54"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11468,7 +10625,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="54"/>
+      <c r="D106" s="52"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11484,7 +10641,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="54"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11500,7 +10657,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="54"/>
+      <c r="D108" s="52"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11516,7 +10673,7 @@
       <c r="C109" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="93"/>
+      <c r="D109" s="91"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11532,7 +10689,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="57" t="s">
+      <c r="D110" s="55" t="s">
         <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -11550,7 +10707,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="57"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11566,7 +10723,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="57"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11582,7 +10739,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="57"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11598,7 +10755,7 @@
       <c r="C114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="57"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11614,7 +10771,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="57"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11630,7 +10787,7 @@
       <c r="C116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="57"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11646,7 +10803,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="57"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11662,7 +10819,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="57"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11678,7 +10835,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="57"/>
+      <c r="D119" s="55"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11694,7 +10851,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="57"/>
+      <c r="D120" s="55"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11710,7 +10867,7 @@
       <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="57"/>
+      <c r="D121" s="55"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11726,7 +10883,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="57"/>
+      <c r="D122" s="55"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11742,7 +10899,7 @@
       <c r="C123" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="57"/>
+      <c r="D123" s="55"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11758,7 +10915,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="57"/>
+      <c r="D124" s="55"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11774,7 +10931,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="57"/>
+      <c r="D125" s="55"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11790,7 +10947,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="57"/>
+      <c r="D126" s="55"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11806,7 +10963,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="57"/>
+      <c r="D127" s="55"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11822,7 +10979,7 @@
       <c r="C128" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="59"/>
+      <c r="D128" s="57"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11838,7 +10995,7 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="69" t="s">
+      <c r="D129" s="67" t="s">
         <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
@@ -11856,7 +11013,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="70"/>
+      <c r="D130" s="68"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11872,7 +11029,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="70"/>
+      <c r="D131" s="68"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -11888,7 +11045,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="70"/>
+      <c r="D132" s="68"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11904,7 +11061,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="70"/>
+      <c r="D133" s="68"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11920,7 +11077,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="70"/>
+      <c r="D134" s="68"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11936,7 +11093,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="70"/>
+      <c r="D135" s="68"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11952,7 +11109,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="70"/>
+      <c r="D136" s="68"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11968,7 +11125,7 @@
       <c r="C137" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="71"/>
+      <c r="D137" s="69"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11984,7 +11141,7 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="72" t="s">
+      <c r="D138" s="70" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -12002,7 +11159,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="73"/>
+      <c r="D139" s="71"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12018,7 +11175,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="73"/>
+      <c r="D140" s="71"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12034,7 +11191,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="73"/>
+      <c r="D141" s="71"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12050,7 +11207,7 @@
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="73"/>
+      <c r="D142" s="71"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12066,7 +11223,7 @@
       <c r="C143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="73"/>
+      <c r="D143" s="71"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12082,7 +11239,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="73"/>
+      <c r="D144" s="71"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12098,7 +11255,7 @@
       <c r="C145" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="73"/>
+      <c r="D145" s="71"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12114,7 +11271,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="73"/>
+      <c r="D146" s="71"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12130,7 +11287,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="73"/>
+      <c r="D147" s="71"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12146,7 +11303,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="73"/>
+      <c r="D148" s="71"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12162,7 +11319,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="73"/>
+      <c r="D149" s="71"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12178,7 +11335,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="73"/>
+      <c r="D150" s="71"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12194,7 +11351,7 @@
       <c r="C151" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="73"/>
+      <c r="D151" s="71"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12210,7 +11367,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="73"/>
+      <c r="D152" s="71"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12226,7 +11383,7 @@
       <c r="C153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="73"/>
+      <c r="D153" s="71"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12242,7 +11399,7 @@
       <c r="C154" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="73"/>
+      <c r="D154" s="71"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12258,7 +11415,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="73"/>
+      <c r="D155" s="71"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12274,7 +11431,7 @@
       <c r="C156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="73"/>
+      <c r="D156" s="71"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12290,7 +11447,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="73"/>
+      <c r="D157" s="71"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12306,7 +11463,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="73"/>
+      <c r="D158" s="71"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12322,7 +11479,7 @@
       <c r="C159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="73"/>
+      <c r="D159" s="71"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12338,7 +11495,7 @@
       <c r="C160" s="35">
         <v>0</v>
       </c>
-      <c r="D160" s="74"/>
+      <c r="D160" s="72"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -12354,7 +11511,7 @@
       <c r="C161" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="91" t="s">
+      <c r="D161" s="89" t="s">
         <v>310</v>
       </c>
       <c r="E161" s="6" t="str">
@@ -12372,7 +11529,7 @@
       <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D162" s="91"/>
+      <c r="D162" s="89"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12388,7 +11545,7 @@
       <c r="C163" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="91"/>
+      <c r="D163" s="89"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12404,7 +11561,7 @@
       <c r="C164" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="91"/>
+      <c r="D164" s="89"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12420,7 +11577,7 @@
       <c r="C165" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="91"/>
+      <c r="D165" s="89"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12436,7 +11593,7 @@
       <c r="C166" s="7">
         <v>2</v>
       </c>
-      <c r="D166" s="91"/>
+      <c r="D166" s="89"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12452,7 +11609,7 @@
       <c r="C167" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="91"/>
+      <c r="D167" s="89"/>
       <c r="E167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12468,7 +11625,7 @@
       <c r="C168" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="91"/>
+      <c r="D168" s="89"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12484,7 +11641,7 @@
       <c r="C169" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D169" s="91"/>
+      <c r="D169" s="89"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12500,7 +11657,7 @@
       <c r="C170" s="7">
         <v>10</v>
       </c>
-      <c r="D170" s="91"/>
+      <c r="D170" s="89"/>
       <c r="E170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12516,7 +11673,7 @@
       <c r="C171" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="91"/>
+      <c r="D171" s="89"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12532,7 +11689,7 @@
       <c r="C172" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D172" s="91"/>
+      <c r="D172" s="89"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12548,7 +11705,7 @@
       <c r="C173" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D173" s="91"/>
+      <c r="D173" s="89"/>
       <c r="E173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12564,7 +11721,7 @@
       <c r="C174" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="91"/>
+      <c r="D174" s="89"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12580,7 +11737,7 @@
       <c r="C175" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D175" s="91"/>
+      <c r="D175" s="89"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12596,7 +11753,7 @@
       <c r="C176" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="91"/>
+      <c r="D176" s="89"/>
       <c r="E176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12612,7 +11769,7 @@
       <c r="C177" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="91"/>
+      <c r="D177" s="89"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12628,7 +11785,7 @@
       <c r="C178" s="7">
         <v>163</v>
       </c>
-      <c r="D178" s="91"/>
+      <c r="D178" s="89"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12641,7 +11798,7 @@
       <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="91"/>
+      <c r="D179" s="89"/>
       <c r="E179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12654,7 +11811,7 @@
       <c r="B180" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D180" s="91"/>
+      <c r="D180" s="89"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12667,7 +11824,7 @@
       <c r="B181" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="91"/>
+      <c r="D181" s="89"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12680,7 +11837,7 @@
       <c r="B182" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="91"/>
+      <c r="D182" s="89"/>
       <c r="E182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12693,7 +11850,7 @@
       <c r="B183" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D183" s="91"/>
+      <c r="D183" s="89"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12706,7 +11863,7 @@
       <c r="B184" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="91"/>
+      <c r="D184" s="89"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -12719,7 +11876,7 @@
       <c r="B185" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D185" s="91"/>
+      <c r="D185" s="89"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -13155,10 +12312,10 @@
     <mergeCell ref="D138:D160"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E185">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E2="OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Segunda_entrega_correccion/CHECK.xlsx
+++ b/Segunda_entrega_correccion/CHECK.xlsx
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="488">
   <si>
     <t>CELDA 1</t>
   </si>
@@ -1647,12 +1647,6 @@
     <t>if(BETWEEN(a,[2;a*(b+4)])) then { a:= 15 } endif</t>
   </si>
   <si>
-    <t>inicuerpo = posactual</t>
-  </si>
-  <si>
-    <t>desapilar() = posactual</t>
-  </si>
-  <si>
     <t>BETWEEN IF</t>
   </si>
   <si>
@@ -1678,13 +1672,525 @@
   </si>
   <si>
     <t>ASIGNACION MULTIPLE CON EXPRESION</t>
+  </si>
+  <si>
+    <t>CELDA 293</t>
+  </si>
+  <si>
+    <t>CELDA 279</t>
+  </si>
+  <si>
+    <t>CELDA 290</t>
+  </si>
+  <si>
+    <t>CELDA 294</t>
+  </si>
+  <si>
+    <t>CELDA 307</t>
+  </si>
+  <si>
+    <t>CELDA 300</t>
+  </si>
+  <si>
+    <t>CELDA 328</t>
+  </si>
+  <si>
+    <t>CELDA 314</t>
+  </si>
+  <si>
+    <t>CELDA 325</t>
+  </si>
+  <si>
+    <t>CELDA 329</t>
+  </si>
+  <si>
+    <t>CELDA 340</t>
+  </si>
+  <si>
+    <t>CELDA 335</t>
+  </si>
+  <si>
+    <t>CELDA 343</t>
+  </si>
+  <si>
+    <t>asdad</t>
+  </si>
+  <si>
+    <t>CELDA 365</t>
+  </si>
+  <si>
+    <t>CELDA 353</t>
+  </si>
+  <si>
+    <t>CELDA 362</t>
+  </si>
+  <si>
+    <t>CELDA 366</t>
+  </si>
+  <si>
+    <t>CELDA 379</t>
+  </si>
+  <si>
+    <t>CELDA 372</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CELDA 346</t>
+  </si>
+  <si>
+    <t>CELDA 398</t>
+  </si>
+  <si>
+    <t>CELDA 386</t>
+  </si>
+  <si>
+    <t>CELDA 395</t>
+  </si>
+  <si>
+    <t>CELDA 399</t>
+  </si>
+  <si>
+    <t>CELDA 412</t>
+  </si>
+  <si>
+    <t>CELDA 405</t>
+  </si>
+  <si>
+    <t>CELDA 282</t>
+  </si>
+  <si>
+    <t>CELDA 275</t>
+  </si>
+  <si>
+    <t>CELDA 301</t>
+  </si>
+  <si>
+    <t>CELDA 289</t>
+  </si>
+  <si>
+    <t>CELDA 298</t>
+  </si>
+  <si>
+    <t>CELDA 302</t>
+  </si>
+  <si>
+    <t>CELDA 315</t>
+  </si>
+  <si>
+    <t>CELDA 308</t>
+  </si>
+  <si>
+    <t>CELDA 273</t>
+  </si>
+  <si>
+    <t>CELDA 274</t>
+  </si>
+  <si>
+    <t>CELDA 276</t>
+  </si>
+  <si>
+    <t>CELDA 277</t>
+  </si>
+  <si>
+    <t>CELDA 278</t>
+  </si>
+  <si>
+    <t>CELDA 280</t>
+  </si>
+  <si>
+    <t>CELDA 281</t>
+  </si>
+  <si>
+    <t>CELDA 283</t>
+  </si>
+  <si>
+    <t>CELDA 284</t>
+  </si>
+  <si>
+    <t>CELDA 285</t>
+  </si>
+  <si>
+    <t>CELDA 286</t>
+  </si>
+  <si>
+    <t>CELDA 287</t>
+  </si>
+  <si>
+    <t>CELDA 288</t>
+  </si>
+  <si>
+    <t>CELDA 291</t>
+  </si>
+  <si>
+    <t>CELDA 292</t>
+  </si>
+  <si>
+    <t>CELDA 295</t>
+  </si>
+  <si>
+    <t>CELDA 296</t>
+  </si>
+  <si>
+    <t>CELDA 297</t>
+  </si>
+  <si>
+    <t>CELDA 299</t>
+  </si>
+  <si>
+    <t>CELDA 303</t>
+  </si>
+  <si>
+    <t>CELDA 304</t>
+  </si>
+  <si>
+    <t>CELDA 305</t>
+  </si>
+  <si>
+    <t>CELDA 306</t>
+  </si>
+  <si>
+    <t>CELDA 309</t>
+  </si>
+  <si>
+    <t>CELDA 310</t>
+  </si>
+  <si>
+    <t>CELDA 311</t>
+  </si>
+  <si>
+    <t>CELDA 312</t>
+  </si>
+  <si>
+    <t>CELDA 313</t>
+  </si>
+  <si>
+    <t>CELDA 316</t>
+  </si>
+  <si>
+    <t>CELDA 317</t>
+  </si>
+  <si>
+    <t>CELDA 318</t>
+  </si>
+  <si>
+    <t>CELDA 319</t>
+  </si>
+  <si>
+    <t>CELDA 320</t>
+  </si>
+  <si>
+    <t>CELDA 321</t>
+  </si>
+  <si>
+    <t>CELDA 322</t>
+  </si>
+  <si>
+    <t>CELDA 323</t>
+  </si>
+  <si>
+    <t>CELDA 324</t>
+  </si>
+  <si>
+    <t>CELDA 326</t>
+  </si>
+  <si>
+    <t>CELDA 327</t>
+  </si>
+  <si>
+    <t>CELDA 330</t>
+  </si>
+  <si>
+    <t>CELDA 331</t>
+  </si>
+  <si>
+    <t>CELDA 332</t>
+  </si>
+  <si>
+    <t>CELDA 333</t>
+  </si>
+  <si>
+    <t>CELDA 334</t>
+  </si>
+  <si>
+    <t>CELDA 336</t>
+  </si>
+  <si>
+    <t>CELDA 337</t>
+  </si>
+  <si>
+    <t>CELDA 338</t>
+  </si>
+  <si>
+    <t>CELDA 339</t>
+  </si>
+  <si>
+    <t>CELDA 341</t>
+  </si>
+  <si>
+    <t>CELDA 342</t>
+  </si>
+  <si>
+    <t>CELDA 344</t>
+  </si>
+  <si>
+    <t>CELDA 345</t>
+  </si>
+  <si>
+    <t>CELDA 347</t>
+  </si>
+  <si>
+    <t>CELDA 348</t>
+  </si>
+  <si>
+    <t>CELDA 349</t>
+  </si>
+  <si>
+    <t>CELDA 350</t>
+  </si>
+  <si>
+    <t>CELDA 351</t>
+  </si>
+  <si>
+    <t>CELDA 352</t>
+  </si>
+  <si>
+    <t>CELDA 354</t>
+  </si>
+  <si>
+    <t>CELDA 355</t>
+  </si>
+  <si>
+    <t>CELDA 356</t>
+  </si>
+  <si>
+    <t>CELDA 357</t>
+  </si>
+  <si>
+    <t>CELDA 358</t>
+  </si>
+  <si>
+    <t>CELDA 359</t>
+  </si>
+  <si>
+    <t>CELDA 360</t>
+  </si>
+  <si>
+    <t>CELDA 361</t>
+  </si>
+  <si>
+    <t>CELDA 363</t>
+  </si>
+  <si>
+    <t>CELDA 364</t>
+  </si>
+  <si>
+    <t>CELDA 367</t>
+  </si>
+  <si>
+    <t>CELDA 368</t>
+  </si>
+  <si>
+    <t>CELDA 369</t>
+  </si>
+  <si>
+    <t>CELDA 370</t>
+  </si>
+  <si>
+    <t>CELDA 371</t>
+  </si>
+  <si>
+    <t>CELDA 373</t>
+  </si>
+  <si>
+    <t>CELDA 374</t>
+  </si>
+  <si>
+    <t>CELDA 375</t>
+  </si>
+  <si>
+    <t>CELDA 376</t>
+  </si>
+  <si>
+    <t>CELDA 377</t>
+  </si>
+  <si>
+    <t>CELDA 378</t>
+  </si>
+  <si>
+    <t>CELDA 380</t>
+  </si>
+  <si>
+    <t>CELDA 381</t>
+  </si>
+  <si>
+    <t>CELDA 382</t>
+  </si>
+  <si>
+    <t>CELDA 383</t>
+  </si>
+  <si>
+    <t>CELDA 384</t>
+  </si>
+  <si>
+    <t>CELDA 385</t>
+  </si>
+  <si>
+    <t>CELDA 387</t>
+  </si>
+  <si>
+    <t>CELDA 388</t>
+  </si>
+  <si>
+    <t>CELDA 389</t>
+  </si>
+  <si>
+    <t>CELDA 390</t>
+  </si>
+  <si>
+    <t>CELDA 391</t>
+  </si>
+  <si>
+    <t>CELDA 392</t>
+  </si>
+  <si>
+    <t>CELDA 393</t>
+  </si>
+  <si>
+    <t>CELDA 394</t>
+  </si>
+  <si>
+    <t>CELDA 396</t>
+  </si>
+  <si>
+    <t>CELDA 397</t>
+  </si>
+  <si>
+    <t>CELDA 400</t>
+  </si>
+  <si>
+    <t>CELDA 401</t>
+  </si>
+  <si>
+    <t>CELDA 402</t>
+  </si>
+  <si>
+    <t>CELDA 403</t>
+  </si>
+  <si>
+    <t>CELDA 404</t>
+  </si>
+  <si>
+    <t>CELDA 406</t>
+  </si>
+  <si>
+    <t>CELDA 407</t>
+  </si>
+  <si>
+    <t>CELDA 408</t>
+  </si>
+  <si>
+    <t>CELDA 409</t>
+  </si>
+  <si>
+    <t>CELDA 410</t>
+  </si>
+  <si>
+    <t>CELDA 411</t>
+  </si>
+  <si>
+    <t>CELDA 413</t>
+  </si>
+  <si>
+    <t>CELDA 414</t>
+  </si>
+  <si>
+    <t>CELDA 415</t>
+  </si>
+  <si>
+    <t>CELDA 416</t>
+  </si>
+  <si>
+    <t>CELDA 417</t>
+  </si>
+  <si>
+    <t>CELDA 418</t>
+  </si>
+  <si>
+    <t>CELDA 419</t>
+  </si>
+  <si>
+    <t>CELDA 420</t>
+  </si>
+  <si>
+    <t>CELDA 421</t>
+  </si>
+  <si>
+    <t>CELDA 422</t>
+  </si>
+  <si>
+    <t>CELDA 423</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (BETWEEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a,[2;a*(b+4)]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) THEN  i:=16+a ENDIF</t>
+    </r>
+  </si>
+  <si>
+    <t>IF CON BETWEEN EN CONDICION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1734,6 +2240,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1973,7 +2485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2097,71 +2609,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2181,6 +2630,15 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,22 +2648,61 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,6 +2714,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2226,7 +2726,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2238,11 +2753,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2618,10 +3172,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238:B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,7 +3223,7 @@
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2958,7 +3512,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="63" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -2976,7 +3530,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2992,7 +3546,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3008,7 +3562,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3024,7 +3578,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3040,7 +3594,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3056,7 +3610,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3072,7 +3626,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="52"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3088,7 +3642,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="52"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3104,7 +3658,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3120,7 +3674,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3136,7 +3690,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3152,7 +3706,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="52"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3168,7 +3722,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3184,7 +3738,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3218,7 +3772,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3234,7 +3788,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3250,7 +3804,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3266,7 +3820,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3282,7 +3836,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3298,7 +3852,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3314,7 +3868,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3330,7 +3884,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3346,7 +3900,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3362,7 +3916,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="63"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3378,7 +3932,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="63"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3394,7 +3948,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="63"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3411,7 +3965,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="63"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3428,7 +3982,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3445,7 +3999,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3462,7 +4016,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3478,7 +4032,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="63"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3494,7 +4048,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="63"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3510,7 +4064,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="63"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3526,7 +4080,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3542,7 +4096,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3558,7 +4112,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="66" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3576,7 +4130,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="46"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3592,7 +4146,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="46"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3608,7 +4162,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="46"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3624,7 +4178,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="46"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3640,7 +4194,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="46"/>
+      <c r="D62" s="67"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3656,7 +4210,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="46"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3672,7 +4226,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="46"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3688,7 +4242,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="46"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3704,7 +4258,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="46"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3720,7 +4274,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="46"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -3736,7 +4290,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="46"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3752,7 +4306,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="46"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3768,7 +4322,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="46"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3784,7 +4338,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="46"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3800,7 +4354,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="46"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3816,7 +4370,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="46"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3832,7 +4386,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="46"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3848,7 +4402,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="46"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3864,7 +4418,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="46"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3880,7 +4434,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="46"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3896,7 +4450,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="46"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3912,7 +4466,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="D79" s="68" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -3930,7 +4484,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="48"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3946,7 +4500,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="48"/>
+      <c r="D81" s="69"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3962,7 +4516,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="48"/>
+      <c r="D82" s="69"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3978,7 +4532,7 @@
       <c r="C83" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="48"/>
+      <c r="D83" s="69"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -3994,7 +4548,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="48"/>
+      <c r="D84" s="69"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4010,7 +4564,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="48"/>
+      <c r="D85" s="69"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4026,7 +4580,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="48"/>
+      <c r="D86" s="69"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4042,7 +4596,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="48"/>
+      <c r="D87" s="69"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4058,7 +4612,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="69"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4074,7 +4628,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="48"/>
+      <c r="D89" s="69"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4090,7 +4644,7 @@
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="49"/>
+      <c r="D90" s="70"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4106,7 +4660,7 @@
       <c r="C91" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="48"/>
+      <c r="D91" s="69"/>
       <c r="E91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4122,7 +4676,7 @@
       <c r="C92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="50"/>
+      <c r="D92" s="71"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4138,7 +4692,7 @@
       <c r="C93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="63" t="s">
         <v>296</v>
       </c>
       <c r="E93" s="6" t="str">
@@ -4156,7 +4710,7 @@
       <c r="C94" s="7">
         <v>7</v>
       </c>
-      <c r="D94" s="52"/>
+      <c r="D94" s="64"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4172,7 +4726,7 @@
       <c r="C95" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="52"/>
+      <c r="D95" s="64"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4188,7 +4742,7 @@
       <c r="C96" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="52"/>
+      <c r="D96" s="64"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4204,7 +4758,7 @@
       <c r="C97" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="52"/>
+      <c r="D97" s="64"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4220,7 +4774,7 @@
       <c r="C98" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="52"/>
+      <c r="D98" s="64"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4236,7 +4790,7 @@
       <c r="C99" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D99" s="52"/>
+      <c r="D99" s="64"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4252,7 +4806,7 @@
       <c r="C100" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="52"/>
+      <c r="D100" s="64"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4268,7 +4822,7 @@
       <c r="C101" s="7">
         <v>8</v>
       </c>
-      <c r="D101" s="52"/>
+      <c r="D101" s="64"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4284,7 +4838,7 @@
       <c r="C102" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="52"/>
+      <c r="D102" s="64"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4300,7 +4854,7 @@
       <c r="C103" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="52"/>
+      <c r="D103" s="64"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4316,7 +4870,7 @@
       <c r="C104" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="52"/>
+      <c r="D104" s="64"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4332,7 +4886,7 @@
       <c r="C105" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="52"/>
+      <c r="D105" s="64"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4348,7 +4902,7 @@
       <c r="C106" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="52"/>
+      <c r="D106" s="64"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4364,7 +4918,7 @@
       <c r="C107" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="52"/>
+      <c r="D107" s="64"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4380,7 +4934,7 @@
       <c r="C108" s="7">
         <v>5</v>
       </c>
-      <c r="D108" s="52"/>
+      <c r="D108" s="64"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4396,7 +4950,7 @@
       <c r="C109" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="52"/>
+      <c r="D109" s="64"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4412,7 +4966,7 @@
       <c r="C110" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="52"/>
+      <c r="D110" s="64"/>
       <c r="E110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4428,7 +4982,7 @@
       <c r="C111" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="52"/>
+      <c r="D111" s="64"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4444,7 +4998,7 @@
       <c r="C112" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="53"/>
+      <c r="D112" s="72"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4460,7 +5014,7 @@
       <c r="C113" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="52"/>
+      <c r="D113" s="64"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4476,7 +5030,7 @@
       <c r="C114" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="54" t="s">
+      <c r="D114" s="73" t="s">
         <v>297</v>
       </c>
       <c r="E114" s="6" t="str">
@@ -4494,7 +5048,7 @@
       <c r="C115" s="7">
         <v>7</v>
       </c>
-      <c r="D115" s="55"/>
+      <c r="D115" s="74"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4510,7 +5064,7 @@
       <c r="C116" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="55"/>
+      <c r="D116" s="74"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4526,7 +5080,7 @@
       <c r="C117" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="55"/>
+      <c r="D117" s="74"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4542,7 +5096,7 @@
       <c r="C118" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="55"/>
+      <c r="D118" s="74"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4558,7 +5112,7 @@
       <c r="C119" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="55"/>
+      <c r="D119" s="74"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4574,7 +5128,7 @@
       <c r="C120" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="55"/>
+      <c r="D120" s="74"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4590,7 +5144,7 @@
       <c r="C121" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="55"/>
+      <c r="D121" s="74"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4606,7 +5160,7 @@
       <c r="C122" s="7">
         <v>8</v>
       </c>
-      <c r="D122" s="55"/>
+      <c r="D122" s="74"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4622,7 +5176,7 @@
       <c r="C123" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="55"/>
+      <c r="D123" s="74"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4638,7 +5192,7 @@
       <c r="C124" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="55"/>
+      <c r="D124" s="74"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4654,7 +5208,7 @@
       <c r="C125" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D125" s="55"/>
+      <c r="D125" s="74"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4670,7 +5224,7 @@
       <c r="C126" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="55"/>
+      <c r="D126" s="74"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4686,7 +5240,7 @@
       <c r="C127" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D127" s="55"/>
+      <c r="D127" s="74"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4702,7 +5256,7 @@
       <c r="C128" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="55"/>
+      <c r="D128" s="74"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4718,7 +5272,7 @@
       <c r="C129" s="7">
         <v>5</v>
       </c>
-      <c r="D129" s="55"/>
+      <c r="D129" s="74"/>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4734,7 +5288,7 @@
       <c r="C130" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="55"/>
+      <c r="D130" s="74"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4750,7 +5304,7 @@
       <c r="C131" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="55"/>
+      <c r="D131" s="74"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E194" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -4766,7 +5320,7 @@
       <c r="C132" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="55"/>
+      <c r="D132" s="74"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4782,7 +5336,7 @@
       <c r="C133" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D133" s="56"/>
+      <c r="D133" s="75"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4798,7 +5352,7 @@
       <c r="C134" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="57"/>
+      <c r="D134" s="76"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4814,7 +5368,7 @@
       <c r="C135" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="67" t="s">
+      <c r="D135" s="46" t="s">
         <v>302</v>
       </c>
       <c r="E135" s="6" t="str">
@@ -4832,7 +5386,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="68"/>
+      <c r="D136" s="47"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4848,7 +5402,7 @@
       <c r="C137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="68"/>
+      <c r="D137" s="47"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4864,7 +5418,7 @@
       <c r="C138" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="68"/>
+      <c r="D138" s="47"/>
       <c r="E138" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4880,7 +5434,7 @@
       <c r="C139" s="7">
         <v>8</v>
       </c>
-      <c r="D139" s="68"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4896,7 +5450,7 @@
       <c r="C140" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="68"/>
+      <c r="D140" s="47"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4912,7 +5466,7 @@
       <c r="C141" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="68"/>
+      <c r="D141" s="47"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4928,7 +5482,7 @@
       <c r="C142" s="7">
         <v>8</v>
       </c>
-      <c r="D142" s="68"/>
+      <c r="D142" s="47"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4944,7 +5498,7 @@
       <c r="C143" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="69"/>
+      <c r="D143" s="48"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4960,7 +5514,7 @@
       <c r="C144" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="70" t="s">
+      <c r="D144" s="49" t="s">
         <v>307</v>
       </c>
       <c r="E144" s="6" t="str">
@@ -4978,7 +5532,7 @@
       <c r="C145" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="71"/>
+      <c r="D145" s="50"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -4994,7 +5548,7 @@
       <c r="C146" s="7">
         <v>2</v>
       </c>
-      <c r="D146" s="71"/>
+      <c r="D146" s="50"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5010,7 +5564,7 @@
       <c r="C147" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="71"/>
+      <c r="D147" s="50"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5026,7 +5580,7 @@
       <c r="C148" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D148" s="71"/>
+      <c r="D148" s="50"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5042,7 +5596,7 @@
       <c r="C149" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="71"/>
+      <c r="D149" s="50"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5058,7 +5612,7 @@
       <c r="C150" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D150" s="71"/>
+      <c r="D150" s="50"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5074,7 +5628,7 @@
       <c r="C151" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D151" s="71"/>
+      <c r="D151" s="50"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5090,7 +5644,7 @@
       <c r="C152" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="71"/>
+      <c r="D152" s="50"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5106,7 +5660,7 @@
       <c r="C153" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D153" s="71"/>
+      <c r="D153" s="50"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5122,7 +5676,7 @@
       <c r="C154" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D154" s="71"/>
+      <c r="D154" s="50"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5138,7 +5692,7 @@
       <c r="C155" s="7">
         <v>4</v>
       </c>
-      <c r="D155" s="71"/>
+      <c r="D155" s="50"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5154,7 +5708,7 @@
       <c r="C156" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D156" s="71"/>
+      <c r="D156" s="50"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5170,7 +5724,7 @@
       <c r="C157" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D157" s="71"/>
+      <c r="D157" s="50"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5186,7 +5740,7 @@
       <c r="C158" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="71"/>
+      <c r="D158" s="50"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5202,7 +5756,7 @@
       <c r="C159" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D159" s="71"/>
+      <c r="D159" s="50"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5218,7 +5772,7 @@
       <c r="C160" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D160" s="71"/>
+      <c r="D160" s="50"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5234,7 +5788,7 @@
       <c r="C161" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D161" s="71"/>
+      <c r="D161" s="50"/>
       <c r="E161" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5250,7 +5804,7 @@
       <c r="C162" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="71"/>
+      <c r="D162" s="50"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5266,7 +5820,7 @@
       <c r="C163" s="7">
         <v>1</v>
       </c>
-      <c r="D163" s="71"/>
+      <c r="D163" s="50"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5282,7 +5836,7 @@
       <c r="C164" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D164" s="71"/>
+      <c r="D164" s="50"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5298,7 +5852,7 @@
       <c r="C165" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D165" s="71"/>
+      <c r="D165" s="50"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5314,7 +5868,7 @@
       <c r="C166" s="35">
         <v>0</v>
       </c>
-      <c r="D166" s="72"/>
+      <c r="D166" s="51"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5330,7 +5884,7 @@
       <c r="C167" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="58" t="s">
+      <c r="D167" s="52" t="s">
         <v>322</v>
       </c>
       <c r="E167" s="6" t="str">
@@ -5348,7 +5902,7 @@
       <c r="C168" s="7">
         <v>1</v>
       </c>
-      <c r="D168" s="59"/>
+      <c r="D168" s="53"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5364,7 +5918,7 @@
       <c r="C169" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="60"/>
+      <c r="D169" s="54"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5380,7 +5934,7 @@
       <c r="C170" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="67" t="s">
+      <c r="D170" s="46" t="s">
         <v>322</v>
       </c>
       <c r="E170" s="6" t="str">
@@ -5398,7 +5952,7 @@
       <c r="C171" s="7">
         <v>15</v>
       </c>
-      <c r="D171" s="68"/>
+      <c r="D171" s="47"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5414,7 +5968,7 @@
       <c r="C172" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="69"/>
+      <c r="D172" s="48"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5430,7 +5984,7 @@
       <c r="C173" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D173" s="58" t="s">
+      <c r="D173" s="52" t="s">
         <v>321</v>
       </c>
       <c r="E173" s="6" t="str">
@@ -5448,7 +6002,7 @@
       <c r="C174" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="59"/>
+      <c r="D174" s="53"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5464,7 +6018,7 @@
       <c r="C175" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="60"/>
+      <c r="D175" s="54"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5480,7 +6034,7 @@
       <c r="C176" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D176" s="67" t="s">
+      <c r="D176" s="46" t="s">
         <v>321</v>
       </c>
       <c r="E176" s="6" t="str">
@@ -5498,7 +6052,7 @@
       <c r="C177" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="68"/>
+      <c r="D177" s="47"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5514,7 +6068,7 @@
       <c r="C178" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="69"/>
+      <c r="D178" s="48"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5530,7 +6084,7 @@
       <c r="C179" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D179" s="58" t="s">
+      <c r="D179" s="52" t="s">
         <v>321</v>
       </c>
       <c r="E179" s="6" t="str">
@@ -5548,7 +6102,7 @@
       <c r="C180" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D180" s="59"/>
+      <c r="D180" s="53"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5564,7 +6118,7 @@
       <c r="C181" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="60"/>
+      <c r="D181" s="54"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5580,7 +6134,7 @@
       <c r="C182" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="D182" s="67" t="s">
+      <c r="D182" s="46" t="s">
         <v>320</v>
       </c>
       <c r="E182" s="6" t="str">
@@ -5598,7 +6152,7 @@
       <c r="C183" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D183" s="68"/>
+      <c r="D183" s="47"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5614,7 +6168,7 @@
       <c r="C184" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D184" s="69"/>
+      <c r="D184" s="48"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5630,7 +6184,7 @@
       <c r="C185" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="D185" s="58" t="s">
+      <c r="D185" s="52" t="s">
         <v>319</v>
       </c>
       <c r="E185" s="6" t="str">
@@ -5643,7 +6197,7 @@
         <v>198</v>
       </c>
       <c r="B186" s="9"/>
-      <c r="D186" s="59"/>
+      <c r="D186" s="53"/>
       <c r="E186" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5659,7 +6213,7 @@
       <c r="C187" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D187" s="60"/>
+      <c r="D187" s="54"/>
       <c r="E187" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5675,8 +6229,8 @@
       <c r="C188" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="73" t="s">
-        <v>326</v>
+      <c r="D188" s="55" t="s">
+        <v>324</v>
       </c>
       <c r="E188" s="6" t="str">
         <f t="shared" si="2"/>
@@ -5693,7 +6247,7 @@
       <c r="C189" s="7">
         <v>2</v>
       </c>
-      <c r="D189" s="74"/>
+      <c r="D189" s="56"/>
       <c r="E189" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5709,7 +6263,7 @@
       <c r="C190" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D190" s="74"/>
+      <c r="D190" s="56"/>
       <c r="E190" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5725,7 +6279,7 @@
       <c r="C191" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D191" s="74"/>
+      <c r="D191" s="56"/>
       <c r="E191" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5741,7 +6295,7 @@
       <c r="C192" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D192" s="74"/>
+      <c r="D192" s="56"/>
       <c r="E192" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5757,7 +6311,7 @@
       <c r="C193" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="74"/>
+      <c r="D193" s="56"/>
       <c r="E193" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5773,7 +6327,7 @@
       <c r="C194" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D194" s="74"/>
+      <c r="D194" s="56"/>
       <c r="E194" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5789,7 +6343,7 @@
       <c r="C195" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="74"/>
+      <c r="D195" s="56"/>
       <c r="E195" s="6" t="str">
         <f t="shared" ref="E195:E258" si="3">IF(AND(B195=C195,B195&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -5805,7 +6359,7 @@
       <c r="C196" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D196" s="74"/>
+      <c r="D196" s="56"/>
       <c r="E196" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5821,7 +6375,7 @@
       <c r="C197" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D197" s="74"/>
+      <c r="D197" s="56"/>
       <c r="E197" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5837,7 +6391,7 @@
       <c r="C198" s="7">
         <v>4</v>
       </c>
-      <c r="D198" s="74"/>
+      <c r="D198" s="56"/>
       <c r="E198" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5853,7 +6407,7 @@
       <c r="C199" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D199" s="74"/>
+      <c r="D199" s="56"/>
       <c r="E199" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5869,7 +6423,7 @@
       <c r="C200" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D200" s="74"/>
+      <c r="D200" s="56"/>
       <c r="E200" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5885,7 +6439,7 @@
       <c r="C201" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D201" s="74"/>
+      <c r="D201" s="56"/>
       <c r="E201" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5901,7 +6455,7 @@
       <c r="C202" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D202" s="74"/>
+      <c r="D202" s="56"/>
       <c r="E202" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5917,7 +6471,7 @@
       <c r="C203" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D203" s="74"/>
+      <c r="D203" s="56"/>
       <c r="E203" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5933,7 +6487,7 @@
       <c r="C204" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D204" s="74"/>
+      <c r="D204" s="56"/>
       <c r="E204" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5949,7 +6503,7 @@
       <c r="C205" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D205" s="74"/>
+      <c r="D205" s="56"/>
       <c r="E205" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5965,7 +6519,7 @@
       <c r="C206" s="7">
         <v>1</v>
       </c>
-      <c r="D206" s="74"/>
+      <c r="D206" s="56"/>
       <c r="E206" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5981,7 +6535,7 @@
       <c r="C207" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D207" s="74"/>
+      <c r="D207" s="56"/>
       <c r="E207" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -5997,7 +6551,7 @@
       <c r="C208" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D208" s="74"/>
+      <c r="D208" s="56"/>
       <c r="E208" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6013,7 +6567,7 @@
       <c r="C209" s="7">
         <v>0</v>
       </c>
-      <c r="D209" s="74"/>
+      <c r="D209" s="56"/>
       <c r="E209" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6029,7 +6583,7 @@
       <c r="C210" s="7">
         <v>1</v>
       </c>
-      <c r="D210" s="74"/>
+      <c r="D210" s="56"/>
       <c r="E210" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6045,7 +6599,7 @@
       <c r="C211" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D211" s="74"/>
+      <c r="D211" s="56"/>
       <c r="E211" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6061,7 +6615,7 @@
       <c r="C212" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D212" s="74"/>
+      <c r="D212" s="56"/>
       <c r="E212" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6077,7 +6631,7 @@
       <c r="C213" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D213" s="74"/>
+      <c r="D213" s="56"/>
       <c r="E213" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6093,7 +6647,7 @@
       <c r="C214" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D214" s="74"/>
+      <c r="D214" s="56"/>
       <c r="E214" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6109,7 +6663,7 @@
       <c r="C215" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D215" s="74"/>
+      <c r="D215" s="56"/>
       <c r="E215" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6125,7 +6679,7 @@
       <c r="C216" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D216" s="74"/>
+      <c r="D216" s="56"/>
       <c r="E216" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6141,7 +6695,7 @@
       <c r="C217" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D217" s="74"/>
+      <c r="D217" s="56"/>
       <c r="E217" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6157,7 +6711,7 @@
       <c r="C218" s="7">
         <v>2</v>
       </c>
-      <c r="D218" s="74"/>
+      <c r="D218" s="56"/>
       <c r="E218" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6173,7 +6727,7 @@
       <c r="C219" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D219" s="74"/>
+      <c r="D219" s="56"/>
       <c r="E219" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6189,7 +6743,7 @@
       <c r="C220" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D220" s="74"/>
+      <c r="D220" s="56"/>
       <c r="E220" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6205,7 +6759,7 @@
       <c r="C221" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D221" s="74"/>
+      <c r="D221" s="56"/>
       <c r="E221" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6221,7 +6775,7 @@
       <c r="C222" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D222" s="75"/>
+      <c r="D222" s="57"/>
       <c r="E222" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6237,8 +6791,8 @@
       <c r="C223" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D223" s="64" t="s">
-        <v>334</v>
+      <c r="D223" s="58" t="s">
+        <v>332</v>
       </c>
       <c r="E223" s="6" t="str">
         <f t="shared" si="3"/>
@@ -6255,7 +6809,7 @@
       <c r="C224" s="7">
         <v>8</v>
       </c>
-      <c r="D224" s="65"/>
+      <c r="D224" s="59"/>
       <c r="E224" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6271,7 +6825,7 @@
       <c r="C225" s="26">
         <v>5</v>
       </c>
-      <c r="D225" s="65"/>
+      <c r="D225" s="59"/>
       <c r="E225" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6287,7 +6841,7 @@
       <c r="C226" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D226" s="65"/>
+      <c r="D226" s="59"/>
       <c r="E226" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6303,7 +6857,7 @@
       <c r="C227" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D227" s="65"/>
+      <c r="D227" s="59"/>
       <c r="E227" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6319,7 +6873,7 @@
       <c r="C228" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D228" s="65"/>
+      <c r="D228" s="59"/>
       <c r="E228" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6335,7 +6889,7 @@
       <c r="C229" s="7">
         <v>8</v>
       </c>
-      <c r="D229" s="65"/>
+      <c r="D229" s="59"/>
       <c r="E229" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6351,7 +6905,7 @@
       <c r="C230" s="7">
         <v>5</v>
       </c>
-      <c r="D230" s="65"/>
+      <c r="D230" s="59"/>
       <c r="E230" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6367,7 +6921,7 @@
       <c r="C231" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D231" s="65"/>
+      <c r="D231" s="59"/>
       <c r="E231" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6383,7 +6937,7 @@
       <c r="C232" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D232" s="65"/>
+      <c r="D232" s="59"/>
       <c r="E232" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6399,7 +6953,7 @@
       <c r="C233" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D233" s="65"/>
+      <c r="D233" s="59"/>
       <c r="E233" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6415,7 +6969,7 @@
       <c r="C234" s="7">
         <v>8</v>
       </c>
-      <c r="D234" s="65"/>
+      <c r="D234" s="59"/>
       <c r="E234" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6431,7 +6985,7 @@
       <c r="C235" s="7">
         <v>5</v>
       </c>
-      <c r="D235" s="65"/>
+      <c r="D235" s="59"/>
       <c r="E235" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6447,7 +7001,7 @@
       <c r="C236" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D236" s="65"/>
+      <c r="D236" s="59"/>
       <c r="E236" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6463,7 +7017,7 @@
       <c r="C237" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D237" s="66"/>
+      <c r="D237" s="60"/>
       <c r="E237" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6473,242 +7027,2174 @@
       <c r="A238" s="3" t="s">
         <v>262</v>
       </c>
+      <c r="B238" s="9"/>
+      <c r="C238" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" s="96" t="s">
+        <v>487</v>
+      </c>
       <c r="E238" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="B239" s="9"/>
+      <c r="C239" s="7">
+        <v>2</v>
+      </c>
+      <c r="D239" s="97"/>
       <c r="E239" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>264</v>
       </c>
+      <c r="B240" s="9"/>
+      <c r="C240" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D240" s="97"/>
       <c r="E240" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>265</v>
       </c>
+      <c r="B241" s="9"/>
+      <c r="C241" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D241" s="97"/>
       <c r="E241" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>266</v>
       </c>
+      <c r="C242" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D242" s="97"/>
       <c r="E242" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="C243" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" s="97"/>
       <c r="E243" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>268</v>
       </c>
+      <c r="C244" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D244" s="97"/>
       <c r="E244" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="C245" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" s="97"/>
       <c r="E245" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="C246" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" s="97"/>
       <c r="E246" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="C247" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D247" s="97"/>
       <c r="E247" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>272</v>
       </c>
+      <c r="C248" s="7">
+        <v>4</v>
+      </c>
+      <c r="D248" s="97"/>
       <c r="E248" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="C249" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249" s="97"/>
       <c r="E249" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="C250" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D250" s="97"/>
       <c r="E250" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="C251" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D251" s="97"/>
       <c r="E251" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="C252" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D252" s="97"/>
       <c r="E252" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="C253" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D253" s="97"/>
       <c r="E253" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>278</v>
       </c>
+      <c r="C254" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D254" s="97"/>
       <c r="E254" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="C255" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D255" s="97"/>
       <c r="E255" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>327</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C256" s="7">
+        <v>1</v>
+      </c>
+      <c r="D256" s="97"/>
       <c r="E256" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>328</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D257" s="97"/>
       <c r="E257" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>329</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D258" s="97"/>
       <c r="E258" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C259" s="7">
+        <v>0</v>
+      </c>
+      <c r="D259" s="97"/>
       <c r="E259" s="6" t="str">
-        <f t="shared" ref="E259:E261" si="4">IF(AND(B259=C259,B259&lt;&gt;" "),"OK","ERROR")</f>
+        <f t="shared" ref="E259:E322" si="4">IF(AND(B259=C259,B259&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>331</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C260" s="7">
+        <v>1</v>
+      </c>
+      <c r="D260" s="97"/>
       <c r="E260" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>332</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D261" s="97"/>
       <c r="E261" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>OK</v>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D262" s="97"/>
+      <c r="E262" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D263" s="97"/>
+      <c r="E263" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D264" s="97"/>
+      <c r="E264" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D265" s="97"/>
+      <c r="E265" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D266" s="97"/>
+      <c r="E266" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C267" s="7">
+        <v>16</v>
+      </c>
+      <c r="D267" s="97"/>
+      <c r="E267" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" s="97"/>
+      <c r="E268" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D269" s="97"/>
+      <c r="E269" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D270" s="97"/>
+      <c r="E270" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D271" s="97"/>
+      <c r="E271" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D272" s="97"/>
+      <c r="E272" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C274" s="7">
+        <v>2</v>
+      </c>
+      <c r="E274" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E275" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E276" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E277" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E278" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E279" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E282" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C283" s="7">
+        <v>4</v>
+      </c>
+      <c r="E283" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E284" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E285" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E286" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E287" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E288" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E289" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E290" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C291" s="7">
+        <v>1</v>
+      </c>
+      <c r="E291" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E292" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E293" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C294" s="7">
+        <v>0</v>
+      </c>
+      <c r="E294" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C295" s="7">
+        <v>0</v>
+      </c>
+      <c r="E295" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E296" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E297" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E298" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E299" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E300" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E301" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C302" s="7">
+        <v>16</v>
+      </c>
+      <c r="E302" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E304" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E305" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E306" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E307" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C309" s="7">
+        <v>2</v>
+      </c>
+      <c r="E309" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E310" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E311" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E312" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E313" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E314" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E317" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C318" s="7">
+        <v>4</v>
+      </c>
+      <c r="E318" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E319" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E320" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E321" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E322" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E323" s="6" t="str">
+        <f t="shared" ref="E323:E386" si="5">IF(AND(B323=C323,B323&lt;&gt;" "),"OK","ERROR")</f>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E324" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E325" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C326" s="7">
+        <v>1</v>
+      </c>
+      <c r="E326" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E327" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E328" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C329" s="7">
+        <v>0</v>
+      </c>
+      <c r="E329" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C330" s="7">
+        <v>1</v>
+      </c>
+      <c r="E330" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E331" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E332" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E333" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E334" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E335" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E336" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C337" s="7">
+        <v>16</v>
+      </c>
+      <c r="E337" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E338" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E339" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E340" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E341" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C342" s="7">
+        <v>17</v>
+      </c>
+      <c r="E342" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E343" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D344" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="E344" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D345" s="94"/>
+      <c r="E345" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D346" s="95"/>
+      <c r="E346" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C348" s="7">
+        <v>2</v>
+      </c>
+      <c r="E348" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E349" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E350" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E351" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E352" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E353" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E355" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C356" s="7">
+        <v>4</v>
+      </c>
+      <c r="E356" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E357" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E358" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E359" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E360" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E361" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E362" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C363" s="7">
+        <v>1</v>
+      </c>
+      <c r="E363" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E364" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E365" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C366" s="7">
+        <v>0</v>
+      </c>
+      <c r="E366" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C367" s="7">
+        <v>1</v>
+      </c>
+      <c r="E367" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E368" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E369" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E370" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E371" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E372" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E373" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C374" s="7">
+        <v>5</v>
+      </c>
+      <c r="E374" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E375" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E376" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E377" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E378" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E379" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C381" s="7">
+        <v>2</v>
+      </c>
+      <c r="E381" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E382" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E383" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E384" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E385" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E386" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" s="6" t="str">
+        <f t="shared" ref="E387:E412" si="6">IF(AND(B387=C387,B387&lt;&gt;" "),"OK","ERROR")</f>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E388" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C389" s="7">
+        <v>4</v>
+      </c>
+      <c r="E389" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E390" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E391" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E392" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E393" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E394" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E395" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C396" s="7">
+        <v>1</v>
+      </c>
+      <c r="E396" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E397" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E398" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C399" s="7">
+        <v>0</v>
+      </c>
+      <c r="E399" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C400" s="7">
+        <v>0</v>
+      </c>
+      <c r="E400" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E401" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E402" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E403" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E404" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E405" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E406" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C407" s="7">
+        <v>5</v>
+      </c>
+      <c r="E407" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E408" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E409" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E410" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E411" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E412" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>ERROR</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="D344:D346"/>
+    <mergeCell ref="D238:D272"/>
+    <mergeCell ref="D57:D78"/>
+    <mergeCell ref="D79:D92"/>
+    <mergeCell ref="D93:D113"/>
+    <mergeCell ref="D114:D134"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="D20:D34"/>
+    <mergeCell ref="D35:D56"/>
+    <mergeCell ref="D188:D222"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="D182:D184"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="D223:D237"/>
     <mergeCell ref="D135:D143"/>
     <mergeCell ref="D144:D166"/>
     <mergeCell ref="D167:D169"/>
     <mergeCell ref="D170:D172"/>
     <mergeCell ref="D176:D178"/>
-    <mergeCell ref="D188:D222"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="D182:D184"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="D223:D237"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="D20:D34"/>
-    <mergeCell ref="D35:D56"/>
-    <mergeCell ref="D57:D78"/>
-    <mergeCell ref="D79:D92"/>
-    <mergeCell ref="D93:D113"/>
-    <mergeCell ref="D114:D134"/>
-    <mergeCell ref="D173:D175"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E261">
+  <conditionalFormatting sqref="E2:E412">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>$E2="ERROR"</formula>
     </cfRule>
@@ -6749,25 +9235,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="16">
@@ -6913,7 +9399,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -6987,31 +9473,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="88" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="80" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="16">
@@ -7157,7 +9643,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -7237,41 +9723,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="79" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="82" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="88" t="s">
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="80" t="s">
         <v>288</v>
       </c>
       <c r="B8" s="16">
@@ -7417,7 +9903,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -7511,41 +9997,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="79" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82" t="s">
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="88" t="s">
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="80" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="16">
@@ -7691,7 +10177,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -7786,40 +10272,40 @@
     </row>
     <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="79" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="82" t="s">
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="V14" s="83"/>
-      <c r="W14" s="84"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="79"/>
       <c r="X14" s="30" t="s">
         <v>287</v>
       </c>
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="80" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="16">
@@ -7896,7 +10382,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
@@ -7977,16 +10463,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:T14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B4:H4"/>
@@ -7998,6 +10474,16 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="B10:H10"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8007,10 +10493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8033,27 +10519,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>292</v>
       </c>
       <c r="B2" s="16">
@@ -8105,7 +10591,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -8155,34 +10641,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="79" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="84"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="79"/>
     </row>
     <row r="5" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="80" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="16">
@@ -8250,7 +10736,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -8316,34 +10802,34 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="79" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="82" t="s">
+      <c r="P7" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="79"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="80" t="s">
         <v>294</v>
       </c>
       <c r="B8" s="16">
@@ -8411,7 +10897,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="39" t="s">
         <v>28</v>
       </c>
@@ -8476,29 +10962,182 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
     <row r="11" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q11" s="14" t="s">
-        <v>325</v>
+      <c r="A11" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="79"/>
+    </row>
+    <row r="12" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>113</v>
+      </c>
+      <c r="C12" s="16">
+        <v>114</v>
+      </c>
+      <c r="D12" s="16">
+        <v>115</v>
+      </c>
+      <c r="E12" s="16">
+        <v>116</v>
+      </c>
+      <c r="F12" s="16">
+        <v>117</v>
+      </c>
+      <c r="G12" s="16">
+        <v>118</v>
+      </c>
+      <c r="H12" s="16">
+        <v>119</v>
+      </c>
+      <c r="I12" s="16">
+        <v>120</v>
+      </c>
+      <c r="J12" s="16">
+        <v>121</v>
+      </c>
+      <c r="K12" s="16">
+        <v>122</v>
+      </c>
+      <c r="L12" s="16">
+        <v>123</v>
+      </c>
+      <c r="M12" s="16">
+        <v>124</v>
+      </c>
+      <c r="N12" s="16">
+        <v>125</v>
+      </c>
+      <c r="O12" s="16">
+        <v>126</v>
+      </c>
+      <c r="P12" s="16">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>128</v>
+      </c>
+      <c r="R12" s="16">
+        <v>129</v>
+      </c>
+      <c r="S12" s="16">
+        <v>130</v>
+      </c>
+      <c r="T12" s="16">
+        <v>131</v>
+      </c>
+      <c r="U12" s="16">
+        <v>132</v>
+      </c>
+      <c r="V12" s="16">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="39">
+        <v>7</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="39">
+        <v>8</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>5</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="P7:T7"/>
+  <mergeCells count="14">
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="P11:T11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:M4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="P7:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8509,8 +11148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,15 +11158,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="16">
@@ -8557,7 +11196,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -8604,7 +11243,7 @@
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>301</v>
       </c>
       <c r="B6" s="16">
@@ -8642,7 +11281,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -8693,7 +11332,7 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="80" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="16">
@@ -8731,7 +11370,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -8767,8 +11406,8 @@
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>333</v>
+      <c r="A17" s="80" t="s">
+        <v>331</v>
       </c>
       <c r="B17" s="16">
         <v>234</v>
@@ -8817,7 +11456,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="21" t="s">
         <v>28</v>
       </c>
@@ -9235,7 +11874,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="63" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -9253,7 +11892,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9269,7 +11908,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9285,7 +11924,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9301,7 +11940,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9317,7 +11956,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9333,7 +11972,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9349,7 +11988,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="52"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9365,7 +12004,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="52"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9381,7 +12020,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9397,7 +12036,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9413,7 +12052,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9429,7 +12068,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="52"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9445,7 +12084,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9461,7 +12100,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9495,7 +12134,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9511,7 +12150,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9527,7 +12166,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9543,7 +12182,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9559,7 +12198,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9575,7 +12214,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9591,7 +12230,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9607,7 +12246,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9623,7 +12262,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="63"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9639,7 +12278,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="63"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9655,7 +12294,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="63"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9671,7 +12310,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="63"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9688,7 +12327,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="63"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9705,7 +12344,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9722,7 +12361,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9739,7 +12378,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9755,7 +12394,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="63"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9771,7 +12410,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="63"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9787,7 +12426,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="63"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9803,7 +12442,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9819,7 +12458,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9835,7 +12474,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="66" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -9853,7 +12492,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="46"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9869,7 +12508,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="46"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9885,7 +12524,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="46"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9901,7 +12540,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="46"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9917,7 +12556,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="46"/>
+      <c r="D62" s="67"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9933,7 +12572,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="46"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9949,7 +12588,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="46"/>
+      <c r="D64" s="67"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9965,7 +12604,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="46"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9981,7 +12620,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="46"/>
+      <c r="D66" s="67"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -9997,7 +12636,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="46"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -10013,7 +12652,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="46"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10029,7 +12668,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="46"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10045,7 +12684,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="46"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10061,7 +12700,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="46"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10077,7 +12716,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="46"/>
+      <c r="D72" s="67"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10093,7 +12732,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="46"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10109,7 +12748,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="46"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10125,7 +12764,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="46"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10141,7 +12780,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="46"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10157,7 +12796,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="46"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10173,7 +12812,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="46"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10189,7 +12828,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="90" t="s">
+      <c r="D79" s="91" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -10207,7 +12846,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="90"/>
+      <c r="D80" s="91"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10223,7 +12862,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="90"/>
+      <c r="D81" s="91"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10239,7 +12878,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="90"/>
+      <c r="D82" s="91"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10255,7 +12894,7 @@
       <c r="C83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="90"/>
+      <c r="D83" s="91"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10271,7 +12910,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="90"/>
+      <c r="D84" s="91"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10287,7 +12926,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="90"/>
+      <c r="D85" s="91"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10303,7 +12942,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="90"/>
+      <c r="D86" s="91"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10319,7 +12958,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="90"/>
+      <c r="D87" s="91"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10335,7 +12974,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="90"/>
+      <c r="D88" s="91"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10351,7 +12990,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="90"/>
+      <c r="D89" s="91"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10367,7 +13006,7 @@
       <c r="C90" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="90"/>
+      <c r="D90" s="91"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10383,7 +13022,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="51" t="s">
+      <c r="D91" s="63" t="s">
         <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -10401,7 +13040,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="52"/>
+      <c r="D92" s="64"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10417,7 +13056,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="52"/>
+      <c r="D93" s="64"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10433,7 +13072,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="52"/>
+      <c r="D94" s="64"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10449,7 +13088,7 @@
       <c r="C95" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="52"/>
+      <c r="D95" s="64"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10465,7 +13104,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="52"/>
+      <c r="D96" s="64"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10481,7 +13120,7 @@
       <c r="C97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="52"/>
+      <c r="D97" s="64"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10497,7 +13136,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="52"/>
+      <c r="D98" s="64"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10513,7 +13152,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="52"/>
+      <c r="D99" s="64"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10529,7 +13168,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="52"/>
+      <c r="D100" s="64"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10545,7 +13184,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="52"/>
+      <c r="D101" s="64"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10561,7 +13200,7 @@
       <c r="C102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="52"/>
+      <c r="D102" s="64"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10577,7 +13216,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="52"/>
+      <c r="D103" s="64"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10593,7 +13232,7 @@
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="52"/>
+      <c r="D104" s="64"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10609,7 +13248,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="52"/>
+      <c r="D105" s="64"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10625,7 +13264,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="52"/>
+      <c r="D106" s="64"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10641,7 +13280,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="52"/>
+      <c r="D107" s="64"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10657,7 +13296,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="52"/>
+      <c r="D108" s="64"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10673,7 +13312,7 @@
       <c r="C109" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="91"/>
+      <c r="D109" s="92"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10689,7 +13328,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="74" t="s">
         <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -10707,7 +13346,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="55"/>
+      <c r="D111" s="74"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10723,7 +13362,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="55"/>
+      <c r="D112" s="74"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10739,7 +13378,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="55"/>
+      <c r="D113" s="74"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10755,7 +13394,7 @@
       <c r="C114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="55"/>
+      <c r="D114" s="74"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10771,7 +13410,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="55"/>
+      <c r="D115" s="74"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10787,7 +13426,7 @@
       <c r="C116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="55"/>
+      <c r="D116" s="74"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10803,7 +13442,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="55"/>
+      <c r="D117" s="74"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10819,7 +13458,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="55"/>
+      <c r="D118" s="74"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10835,7 +13474,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="55"/>
+      <c r="D119" s="74"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10851,7 +13490,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="55"/>
+      <c r="D120" s="74"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10867,7 +13506,7 @@
       <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="55"/>
+      <c r="D121" s="74"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10883,7 +13522,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="55"/>
+      <c r="D122" s="74"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10899,7 +13538,7 @@
       <c r="C123" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="55"/>
+      <c r="D123" s="74"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10915,7 +13554,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="55"/>
+      <c r="D124" s="74"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10931,7 +13570,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="55"/>
+      <c r="D125" s="74"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10947,7 +13586,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="55"/>
+      <c r="D126" s="74"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10963,7 +13602,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="55"/>
+      <c r="D127" s="74"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10979,7 +13618,7 @@
       <c r="C128" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="76"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -10995,7 +13634,7 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="67" t="s">
+      <c r="D129" s="46" t="s">
         <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
@@ -11013,7 +13652,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="68"/>
+      <c r="D130" s="47"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -11029,7 +13668,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="68"/>
+      <c r="D131" s="47"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -11045,7 +13684,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="68"/>
+      <c r="D132" s="47"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11061,7 +13700,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="68"/>
+      <c r="D133" s="47"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11077,7 +13716,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="68"/>
+      <c r="D134" s="47"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11093,7 +13732,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="68"/>
+      <c r="D135" s="47"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11109,7 +13748,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="68"/>
+      <c r="D136" s="47"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11125,7 +13764,7 @@
       <c r="C137" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="69"/>
+      <c r="D137" s="48"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11141,7 +13780,7 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="70" t="s">
+      <c r="D138" s="49" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -11159,7 +13798,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="71"/>
+      <c r="D139" s="50"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11175,7 +13814,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="71"/>
+      <c r="D140" s="50"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11191,7 +13830,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="71"/>
+      <c r="D141" s="50"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11207,7 +13846,7 @@
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="71"/>
+      <c r="D142" s="50"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11223,7 +13862,7 @@
       <c r="C143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="71"/>
+      <c r="D143" s="50"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11239,7 +13878,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="71"/>
+      <c r="D144" s="50"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11255,7 +13894,7 @@
       <c r="C145" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="71"/>
+      <c r="D145" s="50"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11271,7 +13910,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="71"/>
+      <c r="D146" s="50"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11287,7 +13926,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="71"/>
+      <c r="D147" s="50"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11303,7 +13942,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="71"/>
+      <c r="D148" s="50"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11319,7 +13958,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="71"/>
+      <c r="D149" s="50"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11335,7 +13974,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="71"/>
+      <c r="D150" s="50"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11351,7 +13990,7 @@
       <c r="C151" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="71"/>
+      <c r="D151" s="50"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11367,7 +14006,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="71"/>
+      <c r="D152" s="50"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11383,7 +14022,7 @@
       <c r="C153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="71"/>
+      <c r="D153" s="50"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11399,7 +14038,7 @@
       <c r="C154" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="71"/>
+      <c r="D154" s="50"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11415,7 +14054,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="71"/>
+      <c r="D155" s="50"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11431,7 +14070,7 @@
       <c r="C156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="71"/>
+      <c r="D156" s="50"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11447,7 +14086,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="71"/>
+      <c r="D157" s="50"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11463,7 +14102,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="71"/>
+      <c r="D158" s="50"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11479,7 +14118,7 @@
       <c r="C159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="71"/>
+      <c r="D159" s="50"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11495,7 +14134,7 @@
       <c r="C160" s="35">
         <v>0</v>
       </c>
-      <c r="D160" s="72"/>
+      <c r="D160" s="51"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -11511,7 +14150,7 @@
       <c r="C161" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="89" t="s">
+      <c r="D161" s="90" t="s">
         <v>310</v>
       </c>
       <c r="E161" s="6" t="str">
@@ -11529,7 +14168,7 @@
       <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D162" s="89"/>
+      <c r="D162" s="90"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11545,7 +14184,7 @@
       <c r="C163" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="89"/>
+      <c r="D163" s="90"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11561,7 +14200,7 @@
       <c r="C164" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="89"/>
+      <c r="D164" s="90"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11577,7 +14216,7 @@
       <c r="C165" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="89"/>
+      <c r="D165" s="90"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11593,7 +14232,7 @@
       <c r="C166" s="7">
         <v>2</v>
       </c>
-      <c r="D166" s="89"/>
+      <c r="D166" s="90"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11609,7 +14248,7 @@
       <c r="C167" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="89"/>
+      <c r="D167" s="90"/>
       <c r="E167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11625,7 +14264,7 @@
       <c r="C168" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="89"/>
+      <c r="D168" s="90"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11641,7 +14280,7 @@
       <c r="C169" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D169" s="89"/>
+      <c r="D169" s="90"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11657,7 +14296,7 @@
       <c r="C170" s="7">
         <v>10</v>
       </c>
-      <c r="D170" s="89"/>
+      <c r="D170" s="90"/>
       <c r="E170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11673,7 +14312,7 @@
       <c r="C171" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="89"/>
+      <c r="D171" s="90"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11689,7 +14328,7 @@
       <c r="C172" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D172" s="89"/>
+      <c r="D172" s="90"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11705,7 +14344,7 @@
       <c r="C173" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D173" s="89"/>
+      <c r="D173" s="90"/>
       <c r="E173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11721,7 +14360,7 @@
       <c r="C174" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="89"/>
+      <c r="D174" s="90"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11737,7 +14376,7 @@
       <c r="C175" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D175" s="89"/>
+      <c r="D175" s="90"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11753,7 +14392,7 @@
       <c r="C176" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="89"/>
+      <c r="D176" s="90"/>
       <c r="E176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11769,7 +14408,7 @@
       <c r="C177" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="89"/>
+      <c r="D177" s="90"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11785,7 +14424,7 @@
       <c r="C178" s="7">
         <v>163</v>
       </c>
-      <c r="D178" s="89"/>
+      <c r="D178" s="90"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11798,7 +14437,7 @@
       <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="89"/>
+      <c r="D179" s="90"/>
       <c r="E179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11811,7 +14450,7 @@
       <c r="B180" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D180" s="89"/>
+      <c r="D180" s="90"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11824,7 +14463,7 @@
       <c r="B181" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="89"/>
+      <c r="D181" s="90"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11837,7 +14476,7 @@
       <c r="B182" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="89"/>
+      <c r="D182" s="90"/>
       <c r="E182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11850,7 +14489,7 @@
       <c r="B183" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D183" s="89"/>
+      <c r="D183" s="90"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11863,7 +14502,7 @@
       <c r="B184" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="89"/>
+      <c r="D184" s="90"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -11876,7 +14515,7 @@
       <c r="B185" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D185" s="89"/>
+      <c r="D185" s="90"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>

--- a/Segunda_entrega_correccion/CHECK.xlsx
+++ b/Segunda_entrega_correccion/CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Compilador\Compilador\Segunda_entrega_correccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837EA27E-117F-4E41-916B-860EAA447E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5158352-678C-4671-A9BD-914F13AB92BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="45" windowWidth="11715" windowHeight="4950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2267,173 +2267,8 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2461,6 +2296,60 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2468,6 +2357,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2482,31 +2377,136 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2908,13 +2908,13 @@
   <dimension ref="A1:H559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="11.42578125" style="102"/>
+    <col min="2" max="2" width="11.42578125" style="47"/>
     <col min="3" max="3" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -2923,7 +2923,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="12"/>
@@ -2938,13 +2938,13 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="90" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -2956,20 +2956,20 @@
       </c>
       <c r="H2" s="4">
         <f>COUNTIF(E:E,"ERROR")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="100">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -2979,13 +2979,13 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -2995,13 +2995,13 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="90" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -3013,13 +3013,13 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="45">
         <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3029,13 +3029,13 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3045,13 +3045,13 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="91" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -3063,13 +3063,13 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="47">
         <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3079,13 +3079,13 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3095,13 +3095,13 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3111,13 +3111,13 @@
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3127,13 +3127,13 @@
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="65"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3143,13 +3143,13 @@
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="47" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3159,13 +3159,13 @@
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3175,13 +3175,13 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="47">
         <v>16</v>
       </c>
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3191,13 +3191,13 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3207,13 +3207,13 @@
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="65"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3223,13 +3223,13 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3239,13 +3239,13 @@
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="92" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -3257,13 +3257,13 @@
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="47">
         <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3273,13 +3273,13 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3289,13 +3289,13 @@
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3305,29 +3305,29 @@
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="55"/>
+        <v>353</v>
+      </c>
+      <c r="D24" s="93"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v>ERROR</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3337,13 +3337,13 @@
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3353,13 +3353,13 @@
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3369,13 +3369,13 @@
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="102">
+      <c r="B28" s="47">
         <v>16</v>
       </c>
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3385,13 +3385,13 @@
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3401,13 +3401,13 @@
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="93"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3417,13 +3417,13 @@
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="93"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3433,13 +3433,13 @@
       <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="55"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3449,13 +3449,13 @@
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="102">
+      <c r="B33" s="47">
         <v>17</v>
       </c>
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3465,13 +3465,13 @@
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3481,13 +3481,13 @@
       <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="91" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -3499,13 +3499,13 @@
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="102">
+      <c r="B36" s="47">
         <v>15</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="66"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3515,13 +3515,13 @@
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="66"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3531,13 +3531,13 @@
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="66"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3547,13 +3547,13 @@
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="47" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D39" s="66"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ERROR</v>
@@ -3563,13 +3563,13 @@
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="66"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3579,13 +3579,13 @@
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="66"/>
+      <c r="D41" s="94"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3595,13 +3595,13 @@
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="66"/>
+      <c r="D42" s="94"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3611,13 +3611,13 @@
       <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="102">
+      <c r="B43" s="47">
         <v>4</v>
       </c>
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="66"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3627,13 +3627,13 @@
       <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="66"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3643,13 +3643,13 @@
       <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="66"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3659,13 +3659,13 @@
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="47" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D46" s="66"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>ERROR</v>
@@ -3675,13 +3675,13 @@
       <c r="A47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="66"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3692,13 +3692,13 @@
       <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="47" t="s">
         <v>63</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="66"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3709,13 +3709,13 @@
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3726,13 +3726,13 @@
       <c r="A50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="102">
+      <c r="B50" s="47">
         <v>16</v>
       </c>
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3743,13 +3743,13 @@
       <c r="A51" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="66"/>
+      <c r="D51" s="94"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3759,13 +3759,13 @@
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="66"/>
+      <c r="D52" s="94"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3775,13 +3775,13 @@
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="66"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3791,13 +3791,13 @@
       <c r="A54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="66"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3807,13 +3807,13 @@
       <c r="A55" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="102">
+      <c r="B55" s="47">
         <v>17</v>
       </c>
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="66"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3823,13 +3823,13 @@
       <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="66"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3839,13 +3839,13 @@
       <c r="A57" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="95" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -3857,13 +3857,13 @@
       <c r="A58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="102">
+      <c r="B58" s="47">
         <v>15</v>
       </c>
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="49"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3873,13 +3873,13 @@
       <c r="A59" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="49"/>
+      <c r="D59" s="96"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3889,13 +3889,13 @@
       <c r="A60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="102" t="s">
+      <c r="B60" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="49"/>
+      <c r="D60" s="96"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3905,13 +3905,13 @@
       <c r="A61" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="49"/>
+      <c r="D61" s="96"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3921,13 +3921,13 @@
       <c r="A62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="49"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3937,13 +3937,13 @@
       <c r="A63" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="47" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="49"/>
+      <c r="D63" s="96"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3953,13 +3953,13 @@
       <c r="A64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="49"/>
+      <c r="D64" s="96"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3969,13 +3969,13 @@
       <c r="A65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="102">
+      <c r="B65" s="47">
         <v>4</v>
       </c>
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="49"/>
+      <c r="D65" s="96"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -3985,13 +3985,13 @@
       <c r="A66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="49"/>
+      <c r="D66" s="96"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -4001,13 +4001,13 @@
       <c r="A67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="49"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -4017,13 +4017,13 @@
       <c r="A68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D68" s="49"/>
+      <c r="D68" s="96"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ERROR</v>
@@ -4033,13 +4033,13 @@
       <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="102" t="s">
+      <c r="B69" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="49"/>
+      <c r="D69" s="96"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4049,13 +4049,13 @@
       <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="102" t="s">
+      <c r="B70" s="47" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="49"/>
+      <c r="D70" s="96"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4065,13 +4065,13 @@
       <c r="A71" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="49"/>
+      <c r="D71" s="96"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4081,13 +4081,13 @@
       <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="102">
+      <c r="B72" s="47">
         <v>16</v>
       </c>
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="49"/>
+      <c r="D72" s="96"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4097,13 +4097,13 @@
       <c r="A73" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="102" t="s">
+      <c r="B73" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4113,13 +4113,13 @@
       <c r="A74" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="96"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4129,13 +4129,13 @@
       <c r="A75" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="102" t="s">
+      <c r="B75" s="47" t="s">
         <v>91</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="49"/>
+      <c r="D75" s="96"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4145,13 +4145,13 @@
       <c r="A76" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="102" t="s">
+      <c r="B76" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="49"/>
+      <c r="D76" s="96"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4161,13 +4161,13 @@
       <c r="A77" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="102">
+      <c r="B77" s="47">
         <v>17</v>
       </c>
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="96"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4177,13 +4177,13 @@
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="103" t="s">
+      <c r="B78" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="49"/>
+      <c r="D78" s="96"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4193,13 +4193,13 @@
       <c r="A79" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="102" t="s">
+      <c r="B79" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="97" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -4211,13 +4211,13 @@
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="102">
+      <c r="B80" s="47">
         <v>7</v>
       </c>
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="51"/>
+      <c r="D80" s="98"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4227,13 +4227,13 @@
       <c r="A81" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="51"/>
+      <c r="D81" s="98"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4243,13 +4243,13 @@
       <c r="A82" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="102" t="s">
+      <c r="B82" s="47" t="s">
         <v>30</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="51"/>
+      <c r="D82" s="98"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4259,13 +4259,13 @@
       <c r="A83" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="102" t="s">
+      <c r="B83" s="47" t="s">
         <v>105</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="51"/>
+      <c r="D83" s="98"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4275,13 +4275,13 @@
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="51"/>
+      <c r="D84" s="98"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4291,13 +4291,13 @@
       <c r="A85" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="102" t="s">
+      <c r="B85" s="47" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="51"/>
+      <c r="D85" s="98"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4307,13 +4307,13 @@
       <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="102" t="s">
+      <c r="B86" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="51"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4323,13 +4323,13 @@
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="102">
+      <c r="B87" s="47">
         <v>5</v>
       </c>
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="51"/>
+      <c r="D87" s="98"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4339,13 +4339,13 @@
       <c r="A88" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="102" t="s">
+      <c r="B88" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="51"/>
+      <c r="D88" s="98"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4355,13 +4355,13 @@
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="102" t="s">
+      <c r="B89" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="51"/>
+      <c r="D89" s="98"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4371,13 +4371,13 @@
       <c r="A90" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="105" t="s">
+      <c r="B90" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="52"/>
+      <c r="D90" s="99"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4387,13 +4387,13 @@
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="102" t="s">
+      <c r="B91" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="51"/>
+      <c r="D91" s="98"/>
       <c r="E91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4403,13 +4403,13 @@
       <c r="A92" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="102" t="s">
+      <c r="B92" s="47" t="s">
         <v>91</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="53"/>
+      <c r="D92" s="100"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4419,13 +4419,13 @@
       <c r="A93" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="102" t="s">
+      <c r="B93" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="92" t="s">
         <v>296</v>
       </c>
       <c r="E93" s="6" t="str">
@@ -4437,13 +4437,13 @@
       <c r="A94" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="102">
+      <c r="B94" s="47">
         <v>7</v>
       </c>
       <c r="C94" s="7">
         <v>7</v>
       </c>
-      <c r="D94" s="55"/>
+      <c r="D94" s="93"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4453,13 +4453,13 @@
       <c r="A95" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="102" t="s">
+      <c r="B95" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="55"/>
+      <c r="D95" s="93"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4469,13 +4469,13 @@
       <c r="A96" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="102" t="s">
+      <c r="B96" s="47" t="s">
         <v>30</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="55"/>
+      <c r="D96" s="93"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4485,13 +4485,13 @@
       <c r="A97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="102" t="s">
+      <c r="B97" s="47" t="s">
         <v>126</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="55"/>
+      <c r="D97" s="93"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4501,13 +4501,13 @@
       <c r="A98" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="100" t="s">
+      <c r="B98" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="55"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4517,13 +4517,13 @@
       <c r="A99" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="102" t="s">
+      <c r="B99" s="47" t="s">
         <v>112</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D99" s="55"/>
+      <c r="D99" s="93"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4533,13 +4533,13 @@
       <c r="A100" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="102" t="s">
+      <c r="B100" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="93"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4549,13 +4549,13 @@
       <c r="A101" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="102">
+      <c r="B101" s="47">
         <v>8</v>
       </c>
       <c r="C101" s="7">
         <v>8</v>
       </c>
-      <c r="D101" s="55"/>
+      <c r="D101" s="93"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4565,13 +4565,13 @@
       <c r="A102" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B102" s="102" t="s">
+      <c r="B102" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="55"/>
+      <c r="D102" s="93"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4581,13 +4581,13 @@
       <c r="A103" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="102" t="s">
+      <c r="B103" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="55"/>
+      <c r="D103" s="93"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4597,13 +4597,13 @@
       <c r="A104" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="102" t="s">
+      <c r="B104" s="47" t="s">
         <v>126</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="55"/>
+      <c r="D104" s="93"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4613,13 +4613,13 @@
       <c r="A105" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="102" t="s">
+      <c r="B105" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="55"/>
+      <c r="D105" s="93"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4629,13 +4629,13 @@
       <c r="A106" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B106" s="102" t="s">
+      <c r="B106" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D106" s="55"/>
+      <c r="D106" s="93"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4645,13 +4645,13 @@
       <c r="A107" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="102" t="s">
+      <c r="B107" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="55"/>
+      <c r="D107" s="93"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4661,13 +4661,13 @@
       <c r="A108" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B108" s="102">
+      <c r="B108" s="47">
         <v>5</v>
       </c>
       <c r="C108" s="7">
         <v>5</v>
       </c>
-      <c r="D108" s="55"/>
+      <c r="D108" s="93"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4677,13 +4677,13 @@
       <c r="A109" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B109" s="100" t="s">
+      <c r="B109" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D109" s="55"/>
+      <c r="D109" s="93"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4693,13 +4693,13 @@
       <c r="A110" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B110" s="102" t="s">
+      <c r="B110" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="55"/>
+      <c r="D110" s="93"/>
       <c r="E110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4709,13 +4709,13 @@
       <c r="A111" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="55"/>
+      <c r="D111" s="93"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4725,13 +4725,13 @@
       <c r="A112" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B112" s="102" t="s">
+      <c r="B112" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="56"/>
+      <c r="D112" s="101"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4741,13 +4741,13 @@
       <c r="A113" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="102" t="s">
+      <c r="B113" s="47" t="s">
         <v>105</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="55"/>
+      <c r="D113" s="93"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4757,13 +4757,13 @@
       <c r="A114" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="106" t="s">
+      <c r="B114" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C114" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D114" s="57" t="s">
+      <c r="D114" s="102" t="s">
         <v>297</v>
       </c>
       <c r="E114" s="6" t="str">
@@ -4775,13 +4775,13 @@
       <c r="A115" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B115" s="102">
+      <c r="B115" s="47">
         <v>7</v>
       </c>
       <c r="C115" s="7">
         <v>7</v>
       </c>
-      <c r="D115" s="58"/>
+      <c r="D115" s="103"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4791,13 +4791,13 @@
       <c r="A116" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B116" s="102" t="s">
+      <c r="B116" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="58"/>
+      <c r="D116" s="103"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4807,13 +4807,13 @@
       <c r="A117" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B117" s="102" t="s">
+      <c r="B117" s="47" t="s">
         <v>30</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="58"/>
+      <c r="D117" s="103"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4823,13 +4823,13 @@
       <c r="A118" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B118" s="102" t="s">
+      <c r="B118" s="47" t="s">
         <v>133</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="58"/>
+      <c r="D118" s="103"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4839,13 +4839,13 @@
       <c r="A119" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B119" s="102" t="s">
+      <c r="B119" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="58"/>
+      <c r="D119" s="103"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4855,13 +4855,13 @@
       <c r="A120" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B120" s="102" t="s">
+      <c r="B120" s="47" t="s">
         <v>140</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="58"/>
+      <c r="D120" s="103"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4871,13 +4871,13 @@
       <c r="A121" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B121" s="102" t="s">
+      <c r="B121" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D121" s="58"/>
+      <c r="D121" s="103"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4887,13 +4887,13 @@
       <c r="A122" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B122" s="102">
+      <c r="B122" s="47">
         <v>8</v>
       </c>
       <c r="C122" s="7">
         <v>8</v>
       </c>
-      <c r="D122" s="58"/>
+      <c r="D122" s="103"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4903,13 +4903,13 @@
       <c r="A123" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B123" s="102" t="s">
+      <c r="B123" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="58"/>
+      <c r="D123" s="103"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4919,13 +4919,13 @@
       <c r="A124" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B124" s="102" t="s">
+      <c r="B124" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D124" s="58"/>
+      <c r="D124" s="103"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4935,13 +4935,13 @@
       <c r="A125" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B125" s="102" t="s">
+      <c r="B125" s="47" t="s">
         <v>147</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D125" s="58"/>
+      <c r="D125" s="103"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4951,13 +4951,13 @@
       <c r="A126" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="102" t="s">
+      <c r="B126" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="58"/>
+      <c r="D126" s="103"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4967,13 +4967,13 @@
       <c r="A127" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B127" s="102" t="s">
+      <c r="B127" s="47" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D127" s="58"/>
+      <c r="D127" s="103"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4983,13 +4983,13 @@
       <c r="A128" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="102" t="s">
+      <c r="B128" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="58"/>
+      <c r="D128" s="103"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -4999,13 +4999,13 @@
       <c r="A129" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B129" s="102">
+      <c r="B129" s="47">
         <v>5</v>
       </c>
       <c r="C129" s="7">
         <v>5</v>
       </c>
-      <c r="D129" s="58"/>
+      <c r="D129" s="103"/>
       <c r="E129" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -5015,13 +5015,13 @@
       <c r="A130" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="102" t="s">
+      <c r="B130" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="58"/>
+      <c r="D130" s="103"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -5031,13 +5031,13 @@
       <c r="A131" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="102" t="s">
+      <c r="B131" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D131" s="58"/>
+      <c r="D131" s="103"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E194" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -5047,13 +5047,13 @@
       <c r="A132" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B132" s="102" t="s">
+      <c r="B132" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="58"/>
+      <c r="D132" s="103"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5063,13 +5063,13 @@
       <c r="A133" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="105" t="s">
+      <c r="B133" s="50" t="s">
         <v>36</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D133" s="59"/>
+      <c r="D133" s="104"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5079,13 +5079,13 @@
       <c r="A134" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B134" s="103" t="s">
+      <c r="B134" s="48" t="s">
         <v>126</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="60"/>
+      <c r="D134" s="105"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5095,13 +5095,13 @@
       <c r="A135" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="102" t="s">
+      <c r="B135" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="70" t="s">
+      <c r="D135" s="81" t="s">
         <v>302</v>
       </c>
       <c r="E135" s="6" t="str">
@@ -5113,13 +5113,13 @@
       <c r="A136" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B136" s="102">
+      <c r="B136" s="47">
         <v>8</v>
       </c>
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="71"/>
+      <c r="D136" s="82"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5129,13 +5129,13 @@
       <c r="A137" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="102" t="s">
+      <c r="B137" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="71"/>
+      <c r="D137" s="82"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5145,13 +5145,13 @@
       <c r="A138" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B138" s="102" t="s">
+      <c r="B138" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="71"/>
+      <c r="D138" s="82"/>
       <c r="E138" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5161,13 +5161,13 @@
       <c r="A139" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="102">
+      <c r="B139" s="47">
         <v>8</v>
       </c>
       <c r="C139" s="7">
         <v>8</v>
       </c>
-      <c r="D139" s="71"/>
+      <c r="D139" s="82"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5177,13 +5177,13 @@
       <c r="A140" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="102" t="s">
+      <c r="B140" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="71"/>
+      <c r="D140" s="82"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5193,13 +5193,13 @@
       <c r="A141" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B141" s="102" t="s">
+      <c r="B141" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="71"/>
+      <c r="D141" s="82"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5209,13 +5209,13 @@
       <c r="A142" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B142" s="102">
+      <c r="B142" s="47">
         <v>8</v>
       </c>
       <c r="C142" s="7">
         <v>8</v>
       </c>
-      <c r="D142" s="71"/>
+      <c r="D142" s="82"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5225,13 +5225,13 @@
       <c r="A143" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B143" s="103" t="s">
+      <c r="B143" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="72"/>
+      <c r="D143" s="83"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5241,13 +5241,13 @@
       <c r="A144" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B144" s="100" t="s">
+      <c r="B144" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="61" t="s">
+      <c r="D144" s="66" t="s">
         <v>316</v>
       </c>
       <c r="E144" s="6" t="str">
@@ -5259,13 +5259,13 @@
       <c r="A145" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B145" s="100">
+      <c r="B145" s="45">
         <v>1</v>
       </c>
       <c r="C145" s="7">
         <v>1</v>
       </c>
-      <c r="D145" s="62"/>
+      <c r="D145" s="67"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5275,13 +5275,13 @@
       <c r="A146" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B146" s="100" t="s">
+      <c r="B146" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D146" s="63"/>
+      <c r="D146" s="68"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5291,13 +5291,13 @@
       <c r="A147" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B147" s="102" t="s">
+      <c r="B147" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="70" t="s">
+      <c r="D147" s="81" t="s">
         <v>316</v>
       </c>
       <c r="E147" s="6" t="str">
@@ -5309,13 +5309,13 @@
       <c r="A148" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B148" s="100">
+      <c r="B148" s="45">
         <v>15</v>
       </c>
       <c r="C148" s="7">
         <v>15</v>
       </c>
-      <c r="D148" s="71"/>
+      <c r="D148" s="82"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5325,13 +5325,13 @@
       <c r="A149" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="100" t="s">
+      <c r="B149" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D149" s="72"/>
+      <c r="D149" s="83"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5341,13 +5341,13 @@
       <c r="A150" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B150" s="100" t="s">
+      <c r="B150" s="45" t="s">
         <v>313</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D150" s="61" t="s">
+      <c r="D150" s="66" t="s">
         <v>315</v>
       </c>
       <c r="E150" s="6" t="str">
@@ -5359,13 +5359,13 @@
       <c r="A151" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B151" s="100">
+      <c r="B151" s="45">
         <v>99.99</v>
       </c>
       <c r="C151" s="7">
         <v>99.99</v>
       </c>
-      <c r="D151" s="62"/>
+      <c r="D151" s="67"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5375,13 +5375,13 @@
       <c r="A152" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B152" s="100" t="s">
+      <c r="B152" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D152" s="63"/>
+      <c r="D152" s="68"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5391,13 +5391,13 @@
       <c r="A153" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B153" s="100" t="s">
+      <c r="B153" s="45" t="s">
         <v>313</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D153" s="70" t="s">
+      <c r="D153" s="81" t="s">
         <v>315</v>
       </c>
       <c r="E153" s="6" t="str">
@@ -5409,13 +5409,13 @@
       <c r="A154" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B154" s="100">
+      <c r="B154" s="45">
         <v>0.99</v>
       </c>
       <c r="C154" s="7">
         <v>0.99</v>
       </c>
-      <c r="D154" s="71"/>
+      <c r="D154" s="82"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5425,13 +5425,13 @@
       <c r="A155" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B155" s="100" t="s">
+      <c r="B155" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D155" s="72"/>
+      <c r="D155" s="83"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5441,13 +5441,13 @@
       <c r="A156" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B156" s="100" t="s">
+      <c r="B156" s="45" t="s">
         <v>313</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D156" s="92" t="s">
+      <c r="D156" s="84" t="s">
         <v>356</v>
       </c>
       <c r="E156" s="6" t="str">
@@ -5459,13 +5459,13 @@
       <c r="A157" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B157" s="100">
+      <c r="B157" s="45">
         <v>99</v>
       </c>
       <c r="C157" s="7">
         <v>99</v>
       </c>
-      <c r="D157" s="93"/>
+      <c r="D157" s="85"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5475,13 +5475,13 @@
       <c r="A158" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B158" s="100" t="s">
+      <c r="B158" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D158" s="94"/>
+      <c r="D158" s="86"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5491,13 +5491,13 @@
       <c r="A159" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B159" s="100" t="s">
+      <c r="B159" s="45" t="s">
         <v>313</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D159" s="67" t="s">
+      <c r="D159" s="69" t="s">
         <v>354</v>
       </c>
       <c r="E159" s="6" t="str">
@@ -5509,13 +5509,13 @@
       <c r="A160" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B160" s="100">
+      <c r="B160" s="45">
         <v>-542.42999999999995</v>
       </c>
       <c r="C160" s="7">
         <v>-542.42999999999995</v>
       </c>
-      <c r="D160" s="68"/>
+      <c r="D160" s="70"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5525,13 +5525,13 @@
       <c r="A161" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B161" s="100" t="s">
+      <c r="B161" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D161" s="69"/>
+      <c r="D161" s="71"/>
       <c r="E161" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5541,13 +5541,13 @@
       <c r="A162" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B162" s="100" t="s">
+      <c r="B162" s="45" t="s">
         <v>314</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D162" s="92" t="s">
+      <c r="D162" s="84" t="s">
         <v>355</v>
       </c>
       <c r="E162" s="6" t="str">
@@ -5559,8 +5559,8 @@
       <c r="A163" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B163" s="100"/>
-      <c r="D163" s="93"/>
+      <c r="B163" s="45"/>
+      <c r="D163" s="85"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5570,13 +5570,13 @@
       <c r="A164" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B164" s="100" t="s">
+      <c r="B164" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D164" s="93"/>
+      <c r="D164" s="85"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5586,13 +5586,13 @@
       <c r="A165" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B165" s="102" t="s">
+      <c r="B165" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C165" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="97" t="s">
+      <c r="D165" s="87" t="s">
         <v>321</v>
       </c>
       <c r="E165" s="6" t="str">
@@ -5601,32 +5601,32 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="96" t="s">
+      <c r="A166" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B166" s="100">
+      <c r="B166" s="45">
         <v>8</v>
       </c>
       <c r="C166" s="7">
         <v>8</v>
       </c>
-      <c r="D166" s="98"/>
+      <c r="D166" s="88"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="95" t="s">
+      <c r="A167" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B167" s="100">
+      <c r="B167" s="45">
         <v>5</v>
       </c>
       <c r="C167" s="7">
         <v>5</v>
       </c>
-      <c r="D167" s="98"/>
+      <c r="D167" s="88"/>
       <c r="E167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5636,13 +5636,13 @@
       <c r="A168" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B168" s="100" t="s">
+      <c r="B168" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D168" s="98"/>
+      <c r="D168" s="88"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5652,13 +5652,13 @@
       <c r="A169" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B169" s="100" t="s">
+      <c r="B169" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="98"/>
+      <c r="D169" s="88"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5668,13 +5668,13 @@
       <c r="A170" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B170" s="100" t="s">
+      <c r="B170" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D170" s="98"/>
+      <c r="D170" s="88"/>
       <c r="E170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5684,13 +5684,13 @@
       <c r="A171" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B171" s="100">
+      <c r="B171" s="45">
         <v>8</v>
       </c>
       <c r="C171" s="7">
         <v>8</v>
       </c>
-      <c r="D171" s="98"/>
+      <c r="D171" s="88"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5700,13 +5700,13 @@
       <c r="A172" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B172" s="100">
+      <c r="B172" s="45">
         <v>5</v>
       </c>
       <c r="C172" s="7">
         <v>5</v>
       </c>
-      <c r="D172" s="98"/>
+      <c r="D172" s="88"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5716,13 +5716,13 @@
       <c r="A173" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B173" s="100" t="s">
+      <c r="B173" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D173" s="98"/>
+      <c r="D173" s="88"/>
       <c r="E173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5732,13 +5732,13 @@
       <c r="A174" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B174" s="100" t="s">
+      <c r="B174" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D174" s="98"/>
+      <c r="D174" s="88"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5748,13 +5748,13 @@
       <c r="A175" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B175" s="100" t="s">
+      <c r="B175" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D175" s="98"/>
+      <c r="D175" s="88"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5764,13 +5764,13 @@
       <c r="A176" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B176" s="100">
+      <c r="B176" s="45">
         <v>8</v>
       </c>
       <c r="C176" s="7">
         <v>8</v>
       </c>
-      <c r="D176" s="98"/>
+      <c r="D176" s="88"/>
       <c r="E176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5780,13 +5780,13 @@
       <c r="A177" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B177" s="100">
+      <c r="B177" s="45">
         <v>5</v>
       </c>
       <c r="C177" s="7">
         <v>5</v>
       </c>
-      <c r="D177" s="98"/>
+      <c r="D177" s="88"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5796,13 +5796,13 @@
       <c r="A178" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B178" s="100" t="s">
+      <c r="B178" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D178" s="98"/>
+      <c r="D178" s="88"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5812,13 +5812,13 @@
       <c r="A179" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B179" s="101" t="s">
+      <c r="B179" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C179" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="99"/>
+      <c r="D179" s="89"/>
       <c r="E179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5828,13 +5828,13 @@
       <c r="A180" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B180" s="108" t="s">
+      <c r="B180" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C180" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D180" s="61" t="s">
+      <c r="D180" s="66" t="s">
         <v>307</v>
       </c>
       <c r="E180" s="6" t="str">
@@ -5846,13 +5846,13 @@
       <c r="A181" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B181" s="100">
+      <c r="B181" s="45">
         <v>2</v>
       </c>
       <c r="C181" s="7">
         <v>2</v>
       </c>
-      <c r="D181" s="62"/>
+      <c r="D181" s="67"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5862,13 +5862,13 @@
       <c r="A182" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B182" s="100" t="s">
+      <c r="B182" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D182" s="62"/>
+      <c r="D182" s="67"/>
       <c r="E182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5878,13 +5878,13 @@
       <c r="A183" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="100" t="s">
+      <c r="B183" s="45" t="s">
         <v>304</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D183" s="62"/>
+      <c r="D183" s="67"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5894,13 +5894,13 @@
       <c r="A184" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B184" s="100" t="s">
+      <c r="B184" s="45" t="s">
         <v>213</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D184" s="62"/>
+      <c r="D184" s="67"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5910,13 +5910,13 @@
       <c r="A185" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B185" s="100" t="s">
+      <c r="B185" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D185" s="62"/>
+      <c r="D185" s="67"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5926,13 +5926,13 @@
       <c r="A186" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B186" s="100" t="s">
+      <c r="B186" s="45" t="s">
         <v>199</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D186" s="62"/>
+      <c r="D186" s="67"/>
       <c r="E186" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5942,13 +5942,13 @@
       <c r="A187" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B187" s="100" t="s">
+      <c r="B187" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D187" s="62"/>
+      <c r="D187" s="67"/>
       <c r="E187" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5958,13 +5958,13 @@
       <c r="A188" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B188" s="100" t="s">
+      <c r="B188" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="62"/>
+      <c r="D188" s="67"/>
       <c r="E188" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5974,13 +5974,13 @@
       <c r="A189" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B189" s="100" t="s">
+      <c r="B189" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D189" s="62"/>
+      <c r="D189" s="67"/>
       <c r="E189" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -5990,13 +5990,13 @@
       <c r="A190" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B190" s="100">
+      <c r="B190" s="45">
         <v>4</v>
       </c>
       <c r="C190" s="7">
         <v>4</v>
       </c>
-      <c r="D190" s="62"/>
+      <c r="D190" s="67"/>
       <c r="E190" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -6006,13 +6006,13 @@
       <c r="A191" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B191" s="100" t="s">
+      <c r="B191" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D191" s="62"/>
+      <c r="D191" s="67"/>
       <c r="E191" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -6022,13 +6022,13 @@
       <c r="A192" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B192" s="100" t="s">
+      <c r="B192" s="45" t="s">
         <v>298</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D192" s="62"/>
+      <c r="D192" s="67"/>
       <c r="E192" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -6038,13 +6038,13 @@
       <c r="A193" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B193" s="100" t="s">
+      <c r="B193" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D193" s="62"/>
+      <c r="D193" s="67"/>
       <c r="E193" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -6054,13 +6054,13 @@
       <c r="A194" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B194" s="100" t="s">
+      <c r="B194" s="45" t="s">
         <v>305</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D194" s="62"/>
+      <c r="D194" s="67"/>
       <c r="E194" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -6070,13 +6070,13 @@
       <c r="A195" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B195" s="100" t="s">
+      <c r="B195" s="45" t="s">
         <v>213</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D195" s="62"/>
+      <c r="D195" s="67"/>
       <c r="E195" s="6" t="str">
         <f t="shared" ref="E195:E258" si="3">IF(AND(B195=C195,B195&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -6086,13 +6086,13 @@
       <c r="A196" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B196" s="100" t="s">
+      <c r="B196" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D196" s="62"/>
+      <c r="D196" s="67"/>
       <c r="E196" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6102,13 +6102,13 @@
       <c r="A197" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B197" s="100" t="s">
+      <c r="B197" s="45" t="s">
         <v>210</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D197" s="62"/>
+      <c r="D197" s="67"/>
       <c r="E197" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6118,13 +6118,13 @@
       <c r="A198" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B198" s="100">
+      <c r="B198" s="45">
         <v>1</v>
       </c>
       <c r="C198" s="7">
         <v>1</v>
       </c>
-      <c r="D198" s="62"/>
+      <c r="D198" s="67"/>
       <c r="E198" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6134,13 +6134,13 @@
       <c r="A199" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B199" s="100" t="s">
+      <c r="B199" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D199" s="62"/>
+      <c r="D199" s="67"/>
       <c r="E199" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6150,13 +6150,13 @@
       <c r="A200" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B200" s="100" t="s">
+      <c r="B200" s="45" t="s">
         <v>214</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D200" s="62"/>
+      <c r="D200" s="67"/>
       <c r="E200" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6166,13 +6166,13 @@
       <c r="A201" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B201" s="101">
+      <c r="B201" s="46">
         <v>0</v>
       </c>
       <c r="C201" s="35">
         <v>0</v>
       </c>
-      <c r="D201" s="63"/>
+      <c r="D201" s="68"/>
       <c r="E201" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6182,13 +6182,13 @@
       <c r="A202" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B202" s="108" t="s">
+      <c r="B202" s="53" t="s">
         <v>32</v>
       </c>
       <c r="C202" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D202" s="67" t="s">
+      <c r="D202" s="69" t="s">
         <v>362</v>
       </c>
       <c r="E202" s="6" t="str">
@@ -6200,13 +6200,13 @@
       <c r="A203" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B203" s="100" t="s">
+      <c r="B203" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D203" s="68"/>
+      <c r="D203" s="70"/>
       <c r="E203" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6216,13 +6216,13 @@
       <c r="A204" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B204" s="100">
+      <c r="B204" s="45">
         <v>2</v>
       </c>
       <c r="C204" s="7">
         <v>2</v>
       </c>
-      <c r="D204" s="68"/>
+      <c r="D204" s="70"/>
       <c r="E204" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6232,13 +6232,13 @@
       <c r="A205" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B205" s="100" t="s">
+      <c r="B205" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D205" s="68"/>
+      <c r="D205" s="70"/>
       <c r="E205" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6248,13 +6248,13 @@
       <c r="A206" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B206" s="100" t="s">
+      <c r="B206" s="45" t="s">
         <v>304</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D206" s="68"/>
+      <c r="D206" s="70"/>
       <c r="E206" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6264,13 +6264,13 @@
       <c r="A207" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B207" s="100" t="s">
+      <c r="B207" s="45" t="s">
         <v>232</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D207" s="68"/>
+      <c r="D207" s="70"/>
       <c r="E207" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6280,13 +6280,13 @@
       <c r="A208" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B208" s="100" t="s">
+      <c r="B208" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D208" s="68"/>
+      <c r="D208" s="70"/>
       <c r="E208" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6296,13 +6296,13 @@
       <c r="A209" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B209" s="100" t="s">
+      <c r="B209" s="45" t="s">
         <v>222</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D209" s="68"/>
+      <c r="D209" s="70"/>
       <c r="E209" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6312,13 +6312,13 @@
       <c r="A210" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B210" s="100" t="s">
+      <c r="B210" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D210" s="68"/>
+      <c r="D210" s="70"/>
       <c r="E210" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6328,13 +6328,13 @@
       <c r="A211" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B211" s="100">
+      <c r="B211" s="45">
         <v>4</v>
       </c>
       <c r="C211" s="7">
         <v>4</v>
       </c>
-      <c r="D211" s="68"/>
+      <c r="D211" s="70"/>
       <c r="E211" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6344,13 +6344,13 @@
       <c r="A212" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B212" s="100" t="s">
+      <c r="B212" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D212" s="68"/>
+      <c r="D212" s="70"/>
       <c r="E212" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6360,13 +6360,13 @@
       <c r="A213" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B213" s="100" t="s">
+      <c r="B213" s="45" t="s">
         <v>305</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D213" s="68"/>
+      <c r="D213" s="70"/>
       <c r="E213" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6376,13 +6376,13 @@
       <c r="A214" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B214" s="100" t="s">
+      <c r="B214" s="45" t="s">
         <v>232</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D214" s="68"/>
+      <c r="D214" s="70"/>
       <c r="E214" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6392,13 +6392,13 @@
       <c r="A215" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B215" s="100" t="s">
+      <c r="B215" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D215" s="68"/>
+      <c r="D215" s="70"/>
       <c r="E215" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6408,13 +6408,13 @@
       <c r="A216" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B216" s="100" t="s">
+      <c r="B216" s="45" t="s">
         <v>229</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D216" s="68"/>
+      <c r="D216" s="70"/>
       <c r="E216" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6424,13 +6424,13 @@
       <c r="A217" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B217" s="100">
+      <c r="B217" s="45">
         <v>1</v>
       </c>
       <c r="C217" s="7">
         <v>1</v>
       </c>
-      <c r="D217" s="68"/>
+      <c r="D217" s="70"/>
       <c r="E217" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6440,13 +6440,13 @@
       <c r="A218" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B218" s="100" t="s">
+      <c r="B218" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D218" s="68"/>
+      <c r="D218" s="70"/>
       <c r="E218" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6456,13 +6456,13 @@
       <c r="A219" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B219" s="100" t="s">
+      <c r="B219" s="45" t="s">
         <v>233</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D219" s="68"/>
+      <c r="D219" s="70"/>
       <c r="E219" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6472,13 +6472,13 @@
       <c r="A220" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B220" s="100">
+      <c r="B220" s="45">
         <v>0</v>
       </c>
       <c r="C220" s="7">
         <v>0</v>
       </c>
-      <c r="D220" s="68"/>
+      <c r="D220" s="70"/>
       <c r="E220" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6488,13 +6488,13 @@
       <c r="A221" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B221" s="101" t="s">
+      <c r="B221" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C221" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D221" s="69"/>
+      <c r="D221" s="71"/>
       <c r="E221" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6505,13 +6505,13 @@
         <f>_xlfn.CONCAT("CELDA ",ROW()-1)</f>
         <v>CELDA 221</v>
       </c>
-      <c r="B222" s="108" t="s">
+      <c r="B222" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C222" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D222" s="109" t="s">
+      <c r="D222" s="72" t="s">
         <v>363</v>
       </c>
       <c r="E222" s="6" t="str">
@@ -6524,13 +6524,13 @@
         <f t="shared" ref="A223:A286" si="4">_xlfn.CONCAT("CELDA ",ROW()-1)</f>
         <v>CELDA 222</v>
       </c>
-      <c r="B223" s="102">
+      <c r="B223" s="47">
         <v>2</v>
       </c>
       <c r="C223" s="7">
         <v>2</v>
       </c>
-      <c r="D223" s="110"/>
+      <c r="D223" s="73"/>
       <c r="E223" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6541,13 +6541,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 223</v>
       </c>
-      <c r="B224" s="102" t="s">
+      <c r="B224" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="110"/>
+      <c r="D224" s="73"/>
       <c r="E224" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6558,13 +6558,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 224</v>
       </c>
-      <c r="B225" s="102" t="s">
+      <c r="B225" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C225" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="D225" s="110"/>
+      <c r="D225" s="73"/>
       <c r="E225" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6575,13 +6575,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 225</v>
       </c>
-      <c r="B226" s="102" t="s">
+      <c r="B226" s="47" t="s">
         <v>251</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D226" s="110"/>
+      <c r="D226" s="73"/>
       <c r="E226" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6592,13 +6592,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 226</v>
       </c>
-      <c r="B227" s="102" t="s">
+      <c r="B227" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D227" s="110"/>
+      <c r="D227" s="73"/>
       <c r="E227" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6609,13 +6609,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 227</v>
       </c>
-      <c r="B228" s="102" t="s">
+      <c r="B228" s="47" t="s">
         <v>241</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D228" s="110"/>
+      <c r="D228" s="73"/>
       <c r="E228" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6626,13 +6626,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 228</v>
       </c>
-      <c r="B229" s="102" t="s">
+      <c r="B229" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D229" s="110"/>
+      <c r="D229" s="73"/>
       <c r="E229" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6643,13 +6643,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 229</v>
       </c>
-      <c r="B230" s="102">
+      <c r="B230" s="47">
         <v>4</v>
       </c>
       <c r="C230" s="7">
         <v>4</v>
       </c>
-      <c r="D230" s="110"/>
+      <c r="D230" s="73"/>
       <c r="E230" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6660,13 +6660,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 230</v>
       </c>
-      <c r="B231" s="102" t="s">
+      <c r="B231" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D231" s="110"/>
+      <c r="D231" s="73"/>
       <c r="E231" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6677,13 +6677,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 231</v>
       </c>
-      <c r="B232" s="102" t="s">
+      <c r="B232" s="47" t="s">
         <v>305</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D232" s="110"/>
+      <c r="D232" s="73"/>
       <c r="E232" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6694,13 +6694,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 232</v>
       </c>
-      <c r="B233" s="102" t="s">
+      <c r="B233" s="47" t="s">
         <v>251</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D233" s="110"/>
+      <c r="D233" s="73"/>
       <c r="E233" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6711,13 +6711,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 233</v>
       </c>
-      <c r="B234" s="102" t="s">
+      <c r="B234" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D234" s="110"/>
+      <c r="D234" s="73"/>
       <c r="E234" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6728,13 +6728,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 234</v>
       </c>
-      <c r="B235" s="102" t="s">
+      <c r="B235" s="47" t="s">
         <v>248</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D235" s="110"/>
+      <c r="D235" s="73"/>
       <c r="E235" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6745,13 +6745,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 235</v>
       </c>
-      <c r="B236" s="102">
+      <c r="B236" s="47">
         <v>1</v>
       </c>
       <c r="C236" s="7">
         <v>1</v>
       </c>
-      <c r="D236" s="110"/>
+      <c r="D236" s="73"/>
       <c r="E236" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6762,13 +6762,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 236</v>
       </c>
-      <c r="B237" s="102" t="s">
+      <c r="B237" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D237" s="110"/>
+      <c r="D237" s="73"/>
       <c r="E237" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6779,13 +6779,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 237</v>
       </c>
-      <c r="B238" s="100" t="s">
+      <c r="B238" s="45" t="s">
         <v>252</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D238" s="110"/>
+      <c r="D238" s="73"/>
       <c r="E238" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6796,13 +6796,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 238</v>
       </c>
-      <c r="B239" s="100">
+      <c r="B239" s="45">
         <v>0</v>
       </c>
       <c r="C239" s="7">
         <v>0</v>
       </c>
-      <c r="D239" s="110"/>
+      <c r="D239" s="73"/>
       <c r="E239" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6813,13 +6813,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 239</v>
       </c>
-      <c r="B240" s="100">
+      <c r="B240" s="45">
         <v>1</v>
       </c>
       <c r="C240" s="7">
         <v>1</v>
       </c>
-      <c r="D240" s="110"/>
+      <c r="D240" s="73"/>
       <c r="E240" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6833,13 +6833,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 240</v>
       </c>
-      <c r="B241" s="100" t="s">
+      <c r="B241" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D241" s="110"/>
+      <c r="D241" s="73"/>
       <c r="E241" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6850,13 +6850,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 241</v>
       </c>
-      <c r="B242" s="102" t="s">
+      <c r="B242" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D242" s="110"/>
+      <c r="D242" s="73"/>
       <c r="E242" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6867,13 +6867,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 242</v>
       </c>
-      <c r="B243" s="102" t="s">
+      <c r="B243" s="47" t="s">
         <v>265</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D243" s="110"/>
+      <c r="D243" s="73"/>
       <c r="E243" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6884,13 +6884,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 243</v>
       </c>
-      <c r="B244" s="102" t="s">
+      <c r="B244" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D244" s="110"/>
+      <c r="D244" s="73"/>
       <c r="E244" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6901,13 +6901,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 244</v>
       </c>
-      <c r="B245" s="102" t="s">
+      <c r="B245" s="47" t="s">
         <v>258</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D245" s="110"/>
+      <c r="D245" s="73"/>
       <c r="E245" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6918,13 +6918,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 245</v>
       </c>
-      <c r="B246" s="102" t="s">
+      <c r="B246" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D246" s="110"/>
+      <c r="D246" s="73"/>
       <c r="E246" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6935,13 +6935,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 246</v>
       </c>
-      <c r="B247" s="102" t="s">
+      <c r="B247" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D247" s="110"/>
+      <c r="D247" s="73"/>
       <c r="E247" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6952,13 +6952,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 247</v>
       </c>
-      <c r="B248" s="102">
+      <c r="B248" s="47">
         <v>2</v>
       </c>
       <c r="C248" s="7">
         <v>2</v>
       </c>
-      <c r="D248" s="110"/>
+      <c r="D248" s="73"/>
       <c r="E248" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6969,13 +6969,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 248</v>
       </c>
-      <c r="B249" s="102" t="s">
+      <c r="B249" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D249" s="110"/>
+      <c r="D249" s="73"/>
       <c r="E249" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -6986,13 +6986,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 249</v>
       </c>
-      <c r="B250" s="102" t="s">
+      <c r="B250" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D250" s="110"/>
+      <c r="D250" s="73"/>
       <c r="E250" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -7003,13 +7003,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 250</v>
       </c>
-      <c r="B251" s="102" t="s">
+      <c r="B251" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D251" s="110"/>
+      <c r="D251" s="73"/>
       <c r="E251" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -7020,13 +7020,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 251</v>
       </c>
-      <c r="B252" s="103" t="s">
+      <c r="B252" s="48" t="s">
         <v>265</v>
       </c>
       <c r="C252" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="D252" s="111"/>
+      <c r="D252" s="74"/>
       <c r="E252" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -7037,13 +7037,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 252</v>
       </c>
-      <c r="B253" s="106" t="s">
+      <c r="B253" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C253" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D253" s="46" t="s">
+      <c r="D253" s="75" t="s">
         <v>364</v>
       </c>
       <c r="E253" s="6" t="str">
@@ -7056,13 +7056,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 253</v>
       </c>
-      <c r="B254" s="102">
+      <c r="B254" s="47">
         <v>2</v>
       </c>
       <c r="C254" s="7">
         <v>2</v>
       </c>
-      <c r="D254" s="47"/>
+      <c r="D254" s="76"/>
       <c r="E254" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -7073,13 +7073,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 254</v>
       </c>
-      <c r="B255" s="102" t="s">
+      <c r="B255" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D255" s="47"/>
+      <c r="D255" s="76"/>
       <c r="E255" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -7090,13 +7090,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 255</v>
       </c>
-      <c r="B256" s="102" t="s">
+      <c r="B256" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D256" s="47"/>
+      <c r="D256" s="76"/>
       <c r="E256" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -7107,13 +7107,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 256</v>
       </c>
-      <c r="B257" s="102" t="s">
+      <c r="B257" s="47" t="s">
         <v>318</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D257" s="47"/>
+      <c r="D257" s="76"/>
       <c r="E257" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -7124,13 +7124,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 257</v>
       </c>
-      <c r="B258" s="102" t="s">
+      <c r="B258" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D258" s="47"/>
+      <c r="D258" s="76"/>
       <c r="E258" s="6" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
@@ -7141,13 +7141,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 258</v>
       </c>
-      <c r="B259" s="102" t="s">
+      <c r="B259" s="47" t="s">
         <v>272</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D259" s="47"/>
+      <c r="D259" s="76"/>
       <c r="E259" s="6" t="str">
         <f t="shared" ref="E259:E322" si="5">IF(AND(B259=C259,B259&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -7158,13 +7158,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 259</v>
       </c>
-      <c r="B260" s="102" t="s">
+      <c r="B260" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D260" s="47"/>
+      <c r="D260" s="76"/>
       <c r="E260" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7175,13 +7175,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 260</v>
       </c>
-      <c r="B261" s="102">
+      <c r="B261" s="47">
         <v>4</v>
       </c>
       <c r="C261" s="7">
         <v>4</v>
       </c>
-      <c r="D261" s="47"/>
+      <c r="D261" s="76"/>
       <c r="E261" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7192,13 +7192,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 261</v>
       </c>
-      <c r="B262" s="102" t="s">
+      <c r="B262" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D262" s="47"/>
+      <c r="D262" s="76"/>
       <c r="E262" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7209,13 +7209,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 262</v>
       </c>
-      <c r="B263" s="102" t="s">
+      <c r="B263" s="47" t="s">
         <v>305</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D263" s="47"/>
+      <c r="D263" s="76"/>
       <c r="E263" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7226,13 +7226,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 263</v>
       </c>
-      <c r="B264" s="102" t="s">
+      <c r="B264" s="47" t="s">
         <v>318</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D264" s="47"/>
+      <c r="D264" s="76"/>
       <c r="E264" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7243,13 +7243,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 264</v>
       </c>
-      <c r="B265" s="102" t="s">
+      <c r="B265" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D265" s="47"/>
+      <c r="D265" s="76"/>
       <c r="E265" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7260,13 +7260,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 265</v>
       </c>
-      <c r="B266" s="102" t="s">
+      <c r="B266" s="47" t="s">
         <v>279</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D266" s="47"/>
+      <c r="D266" s="76"/>
       <c r="E266" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7277,13 +7277,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 266</v>
       </c>
-      <c r="B267" s="102">
+      <c r="B267" s="47">
         <v>1</v>
       </c>
       <c r="C267" s="7">
         <v>1</v>
       </c>
-      <c r="D267" s="47"/>
+      <c r="D267" s="76"/>
       <c r="E267" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7294,13 +7294,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 267</v>
       </c>
-      <c r="B268" s="102" t="s">
+      <c r="B268" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D268" s="47"/>
+      <c r="D268" s="76"/>
       <c r="E268" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7311,13 +7311,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 268</v>
       </c>
-      <c r="B269" s="102" t="s">
+      <c r="B269" s="47" t="s">
         <v>319</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D269" s="47"/>
+      <c r="D269" s="76"/>
       <c r="E269" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7328,13 +7328,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 269</v>
       </c>
-      <c r="B270" s="102">
+      <c r="B270" s="47">
         <v>0</v>
       </c>
       <c r="C270" s="7">
         <v>0</v>
       </c>
-      <c r="D270" s="47"/>
+      <c r="D270" s="76"/>
       <c r="E270" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7345,13 +7345,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 270</v>
       </c>
-      <c r="B271" s="102">
+      <c r="B271" s="47">
         <v>0</v>
       </c>
       <c r="C271" s="7">
         <v>0</v>
       </c>
-      <c r="D271" s="47"/>
+      <c r="D271" s="76"/>
       <c r="E271" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7365,13 +7365,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 271</v>
       </c>
-      <c r="B272" s="102" t="s">
+      <c r="B272" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D272" s="47"/>
+      <c r="D272" s="76"/>
       <c r="E272" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7382,13 +7382,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 272</v>
       </c>
-      <c r="B273" s="102" t="s">
+      <c r="B273" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D273" s="47"/>
+      <c r="D273" s="76"/>
       <c r="E273" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7399,13 +7399,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 273</v>
       </c>
-      <c r="B274" s="102" t="s">
+      <c r="B274" s="47" t="s">
         <v>331</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D274" s="47"/>
+      <c r="D274" s="76"/>
       <c r="E274" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7416,13 +7416,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 274</v>
       </c>
-      <c r="B275" s="102" t="s">
+      <c r="B275" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D275" s="47"/>
+      <c r="D275" s="76"/>
       <c r="E275" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7433,13 +7433,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 275</v>
       </c>
-      <c r="B276" s="102" t="s">
+      <c r="B276" s="47" t="s">
         <v>330</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D276" s="47"/>
+      <c r="D276" s="76"/>
       <c r="E276" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7450,13 +7450,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 276</v>
       </c>
-      <c r="B277" s="102" t="s">
+      <c r="B277" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D277" s="47"/>
+      <c r="D277" s="76"/>
       <c r="E277" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7467,13 +7467,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 277</v>
       </c>
-      <c r="B278" s="102" t="s">
+      <c r="B278" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D278" s="47"/>
+      <c r="D278" s="76"/>
       <c r="E278" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7484,13 +7484,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 278</v>
       </c>
-      <c r="B279" s="102">
+      <c r="B279" s="47">
         <v>2</v>
       </c>
       <c r="C279" s="7">
         <v>2</v>
       </c>
-      <c r="D279" s="47"/>
+      <c r="D279" s="76"/>
       <c r="E279" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7501,13 +7501,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 279</v>
       </c>
-      <c r="B280" s="102" t="s">
+      <c r="B280" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D280" s="47"/>
+      <c r="D280" s="76"/>
       <c r="E280" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7518,13 +7518,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 280</v>
       </c>
-      <c r="B281" s="102" t="s">
+      <c r="B281" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D281" s="47"/>
+      <c r="D281" s="76"/>
       <c r="E281" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7535,13 +7535,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 281</v>
       </c>
-      <c r="B282" s="102" t="s">
+      <c r="B282" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D282" s="47"/>
+      <c r="D282" s="76"/>
       <c r="E282" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7552,13 +7552,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 282</v>
       </c>
-      <c r="B283" s="103" t="s">
+      <c r="B283" s="48" t="s">
         <v>331</v>
       </c>
       <c r="C283" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="D283" s="112"/>
+      <c r="D283" s="77"/>
       <c r="E283" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7569,13 +7569,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 283</v>
       </c>
-      <c r="B284" s="106" t="s">
+      <c r="B284" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C284" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D284" s="113" t="s">
+      <c r="D284" s="78" t="s">
         <v>365</v>
       </c>
       <c r="E284" s="6" t="str">
@@ -7588,13 +7588,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 284</v>
       </c>
-      <c r="B285" s="102">
+      <c r="B285" s="47">
         <v>2</v>
       </c>
       <c r="C285" s="7">
         <v>2</v>
       </c>
-      <c r="D285" s="114"/>
+      <c r="D285" s="79"/>
       <c r="E285" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7605,13 +7605,13 @@
         <f t="shared" si="4"/>
         <v>CELDA 285</v>
       </c>
-      <c r="B286" s="102" t="s">
+      <c r="B286" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D286" s="114"/>
+      <c r="D286" s="79"/>
       <c r="E286" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7622,13 +7622,13 @@
         <f t="shared" ref="A287:A350" si="6">_xlfn.CONCAT("CELDA ",ROW()-1)</f>
         <v>CELDA 286</v>
       </c>
-      <c r="B287" s="102" t="s">
+      <c r="B287" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D287" s="114"/>
+      <c r="D287" s="79"/>
       <c r="E287" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7639,13 +7639,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 287</v>
       </c>
-      <c r="B288" s="102" t="s">
+      <c r="B288" s="47" t="s">
         <v>324</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D288" s="114"/>
+      <c r="D288" s="79"/>
       <c r="E288" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7656,13 +7656,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 288</v>
       </c>
-      <c r="B289" s="102" t="s">
+      <c r="B289" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D289" s="114"/>
+      <c r="D289" s="79"/>
       <c r="E289" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7673,13 +7673,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 289</v>
       </c>
-      <c r="B290" s="102" t="s">
+      <c r="B290" s="47" t="s">
         <v>322</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D290" s="114"/>
+      <c r="D290" s="79"/>
       <c r="E290" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7690,13 +7690,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 290</v>
       </c>
-      <c r="B291" s="102" t="s">
+      <c r="B291" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D291" s="114"/>
+      <c r="D291" s="79"/>
       <c r="E291" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7707,13 +7707,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 291</v>
       </c>
-      <c r="B292" s="102">
+      <c r="B292" s="47">
         <v>4</v>
       </c>
       <c r="C292" s="7">
         <v>4</v>
       </c>
-      <c r="D292" s="114"/>
+      <c r="D292" s="79"/>
       <c r="E292" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7724,13 +7724,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 292</v>
       </c>
-      <c r="B293" s="102" t="s">
+      <c r="B293" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D293" s="114"/>
+      <c r="D293" s="79"/>
       <c r="E293" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7741,13 +7741,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 293</v>
       </c>
-      <c r="B294" s="102" t="s">
+      <c r="B294" s="47" t="s">
         <v>305</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D294" s="114"/>
+      <c r="D294" s="79"/>
       <c r="E294" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7758,13 +7758,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 294</v>
       </c>
-      <c r="B295" s="102" t="s">
+      <c r="B295" s="47" t="s">
         <v>324</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D295" s="114"/>
+      <c r="D295" s="79"/>
       <c r="E295" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7775,13 +7775,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 295</v>
       </c>
-      <c r="B296" s="102" t="s">
+      <c r="B296" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D296" s="114"/>
+      <c r="D296" s="79"/>
       <c r="E296" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7792,13 +7792,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 296</v>
       </c>
-      <c r="B297" s="102" t="s">
+      <c r="B297" s="47" t="s">
         <v>332</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D297" s="114"/>
+      <c r="D297" s="79"/>
       <c r="E297" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7809,13 +7809,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 297</v>
       </c>
-      <c r="B298" s="102">
+      <c r="B298" s="47">
         <v>1</v>
       </c>
       <c r="C298" s="7">
         <v>1</v>
       </c>
-      <c r="D298" s="114"/>
+      <c r="D298" s="79"/>
       <c r="E298" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7826,13 +7826,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 298</v>
       </c>
-      <c r="B299" s="102" t="s">
+      <c r="B299" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D299" s="114"/>
+      <c r="D299" s="79"/>
       <c r="E299" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7843,13 +7843,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 299</v>
       </c>
-      <c r="B300" s="102" t="s">
+      <c r="B300" s="47" t="s">
         <v>329</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D300" s="114"/>
+      <c r="D300" s="79"/>
       <c r="E300" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7860,13 +7860,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 300</v>
       </c>
-      <c r="B301" s="102">
+      <c r="B301" s="47">
         <v>0</v>
       </c>
       <c r="C301" s="7">
         <v>0</v>
       </c>
-      <c r="D301" s="114"/>
+      <c r="D301" s="79"/>
       <c r="E301" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7877,13 +7877,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 301</v>
       </c>
-      <c r="B302" s="102">
+      <c r="B302" s="47">
         <v>1</v>
       </c>
       <c r="C302" s="7">
         <v>1</v>
       </c>
-      <c r="D302" s="114"/>
+      <c r="D302" s="79"/>
       <c r="E302" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7894,13 +7894,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 302</v>
       </c>
-      <c r="B303" s="102" t="s">
+      <c r="B303" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D303" s="114"/>
+      <c r="D303" s="79"/>
       <c r="E303" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7911,13 +7911,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 303</v>
       </c>
-      <c r="B304" s="102" t="s">
+      <c r="B304" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D304" s="114"/>
+      <c r="D304" s="79"/>
       <c r="E304" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7928,13 +7928,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 304</v>
       </c>
-      <c r="B305" s="102" t="s">
+      <c r="B305" s="47" t="s">
         <v>325</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D305" s="114"/>
+      <c r="D305" s="79"/>
       <c r="E305" s="6" t="str">
         <f t="shared" si="5"/>
         <v>ERROR</v>
@@ -7945,13 +7945,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 305</v>
       </c>
-      <c r="B306" s="102" t="s">
+      <c r="B306" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D306" s="114"/>
+      <c r="D306" s="79"/>
       <c r="E306" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7962,13 +7962,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 306</v>
       </c>
-      <c r="B307" s="102" t="s">
+      <c r="B307" s="47" t="s">
         <v>323</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D307" s="114"/>
+      <c r="D307" s="79"/>
       <c r="E307" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7979,13 +7979,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 307</v>
       </c>
-      <c r="B308" s="102" t="s">
+      <c r="B308" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D308" s="114"/>
+      <c r="D308" s="79"/>
       <c r="E308" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -7996,13 +7996,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 308</v>
       </c>
-      <c r="B309" s="102" t="s">
+      <c r="B309" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D309" s="114"/>
+      <c r="D309" s="79"/>
       <c r="E309" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8013,13 +8013,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 309</v>
       </c>
-      <c r="B310" s="102">
+      <c r="B310" s="47">
         <v>2</v>
       </c>
       <c r="C310" s="7">
         <v>2</v>
       </c>
-      <c r="D310" s="114"/>
+      <c r="D310" s="79"/>
       <c r="E310" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8030,13 +8030,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 310</v>
       </c>
-      <c r="B311" s="102" t="s">
+      <c r="B311" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D311" s="114"/>
+      <c r="D311" s="79"/>
       <c r="E311" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8047,13 +8047,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 311</v>
       </c>
-      <c r="B312" s="102" t="s">
+      <c r="B312" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D312" s="114"/>
+      <c r="D312" s="79"/>
       <c r="E312" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8064,13 +8064,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 312</v>
       </c>
-      <c r="B313" s="102" t="s">
+      <c r="B313" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D313" s="114"/>
+      <c r="D313" s="79"/>
       <c r="E313" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8081,13 +8081,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 313</v>
       </c>
-      <c r="B314" s="102" t="s">
+      <c r="B314" s="47" t="s">
         <v>333</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D314" s="114"/>
+      <c r="D314" s="79"/>
       <c r="E314" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8098,13 +8098,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 314</v>
       </c>
-      <c r="B315" s="102" t="s">
+      <c r="B315" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D315" s="114"/>
+      <c r="D315" s="79"/>
       <c r="E315" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8115,13 +8115,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 315</v>
       </c>
-      <c r="B316" s="102">
+      <c r="B316" s="47">
         <v>2</v>
       </c>
       <c r="C316" s="7">
         <v>2</v>
       </c>
-      <c r="D316" s="114"/>
+      <c r="D316" s="79"/>
       <c r="E316" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8132,13 +8132,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 316</v>
       </c>
-      <c r="B317" s="103" t="s">
+      <c r="B317" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C317" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D317" s="115"/>
+      <c r="D317" s="80"/>
       <c r="E317" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8149,13 +8149,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 317</v>
       </c>
-      <c r="B318" s="106" t="s">
+      <c r="B318" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C318" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D318" s="118" t="s">
+      <c r="D318" s="54" t="s">
         <v>366</v>
       </c>
       <c r="E318" s="6" t="str">
@@ -8168,13 +8168,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 318</v>
       </c>
-      <c r="B319" s="102">
+      <c r="B319" s="47">
         <v>2</v>
       </c>
       <c r="C319" s="7">
         <v>2</v>
       </c>
-      <c r="D319" s="119"/>
+      <c r="D319" s="55"/>
       <c r="E319" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8185,13 +8185,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 319</v>
       </c>
-      <c r="B320" s="102" t="s">
+      <c r="B320" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D320" s="119"/>
+      <c r="D320" s="55"/>
       <c r="E320" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8202,13 +8202,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 320</v>
       </c>
-      <c r="B321" s="102" t="s">
+      <c r="B321" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D321" s="119"/>
+      <c r="D321" s="55"/>
       <c r="E321" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8219,13 +8219,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 321</v>
       </c>
-      <c r="B322" s="102" t="s">
+      <c r="B322" s="47" t="s">
         <v>339</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D322" s="119"/>
+      <c r="D322" s="55"/>
       <c r="E322" s="6" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
@@ -8236,13 +8236,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 322</v>
       </c>
-      <c r="B323" s="102" t="s">
+      <c r="B323" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D323" s="119"/>
+      <c r="D323" s="55"/>
       <c r="E323" s="6" t="str">
         <f t="shared" ref="E323:E386" si="7">IF(AND(B323=C323,B323&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -8253,13 +8253,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 323</v>
       </c>
-      <c r="B324" s="102" t="s">
+      <c r="B324" s="47" t="s">
         <v>334</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D324" s="119"/>
+      <c r="D324" s="55"/>
       <c r="E324" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8270,13 +8270,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 324</v>
       </c>
-      <c r="B325" s="102" t="s">
+      <c r="B325" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D325" s="119"/>
+      <c r="D325" s="55"/>
       <c r="E325" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8287,13 +8287,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 325</v>
       </c>
-      <c r="B326" s="102">
+      <c r="B326" s="47">
         <v>2</v>
       </c>
       <c r="C326" s="7">
         <v>2</v>
       </c>
-      <c r="D326" s="119"/>
+      <c r="D326" s="55"/>
       <c r="E326" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8304,13 +8304,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 326</v>
       </c>
-      <c r="B327" s="102" t="s">
+      <c r="B327" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D327" s="119"/>
+      <c r="D327" s="55"/>
       <c r="E327" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8321,13 +8321,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 327</v>
       </c>
-      <c r="B328" s="102" t="s">
+      <c r="B328" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D328" s="119"/>
+      <c r="D328" s="55"/>
       <c r="E328" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8338,13 +8338,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 328</v>
       </c>
-      <c r="B329" s="102" t="s">
+      <c r="B329" s="47" t="s">
         <v>337</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D329" s="119"/>
+      <c r="D329" s="55"/>
       <c r="E329" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8355,13 +8355,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 329</v>
       </c>
-      <c r="B330" s="102" t="s">
+      <c r="B330" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D330" s="119"/>
+      <c r="D330" s="55"/>
       <c r="E330" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8372,13 +8372,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 330</v>
       </c>
-      <c r="B331" s="102" t="s">
+      <c r="B331" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D331" s="119"/>
+      <c r="D331" s="55"/>
       <c r="E331" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8389,13 +8389,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 331</v>
       </c>
-      <c r="B332" s="102" t="s">
+      <c r="B332" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D332" s="119"/>
+      <c r="D332" s="55"/>
       <c r="E332" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8406,13 +8406,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 332</v>
       </c>
-      <c r="B333" s="102">
+      <c r="B333" s="47">
         <v>4</v>
       </c>
       <c r="C333" s="7">
         <v>4</v>
       </c>
-      <c r="D333" s="119"/>
+      <c r="D333" s="55"/>
       <c r="E333" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8423,13 +8423,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 333</v>
       </c>
-      <c r="B334" s="102" t="s">
+      <c r="B334" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D334" s="119"/>
+      <c r="D334" s="55"/>
       <c r="E334" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8440,13 +8440,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 334</v>
       </c>
-      <c r="B335" s="102" t="s">
+      <c r="B335" s="47" t="s">
         <v>305</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D335" s="119"/>
+      <c r="D335" s="55"/>
       <c r="E335" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8457,13 +8457,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 335</v>
       </c>
-      <c r="B336" s="102" t="s">
+      <c r="B336" s="47" t="s">
         <v>337</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D336" s="119"/>
+      <c r="D336" s="55"/>
       <c r="E336" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8474,13 +8474,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 336</v>
       </c>
-      <c r="B337" s="102" t="s">
+      <c r="B337" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D337" s="119"/>
+      <c r="D337" s="55"/>
       <c r="E337" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8491,13 +8491,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 337</v>
       </c>
-      <c r="B338" s="102" t="s">
+      <c r="B338" s="47" t="s">
         <v>336</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D338" s="119"/>
+      <c r="D338" s="55"/>
       <c r="E338" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8508,13 +8508,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 338</v>
       </c>
-      <c r="B339" s="102">
+      <c r="B339" s="47">
         <v>1</v>
       </c>
       <c r="C339" s="7">
         <v>1</v>
       </c>
-      <c r="D339" s="119"/>
+      <c r="D339" s="55"/>
       <c r="E339" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8525,13 +8525,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 339</v>
       </c>
-      <c r="B340" s="102" t="s">
+      <c r="B340" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D340" s="119"/>
+      <c r="D340" s="55"/>
       <c r="E340" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8542,13 +8542,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 340</v>
       </c>
-      <c r="B341" s="102" t="s">
+      <c r="B341" s="47" t="s">
         <v>338</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D341" s="119"/>
+      <c r="D341" s="55"/>
       <c r="E341" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8559,13 +8559,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 341</v>
       </c>
-      <c r="B342" s="102">
+      <c r="B342" s="47">
         <v>0</v>
       </c>
       <c r="C342" s="7">
         <v>0</v>
       </c>
-      <c r="D342" s="119"/>
+      <c r="D342" s="55"/>
       <c r="E342" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8576,13 +8576,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 342</v>
       </c>
-      <c r="B343" s="102" t="s">
+      <c r="B343" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D343" s="119"/>
+      <c r="D343" s="55"/>
       <c r="E343" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8593,13 +8593,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 343</v>
       </c>
-      <c r="B344" s="103" t="s">
+      <c r="B344" s="48" t="s">
         <v>339</v>
       </c>
       <c r="C344" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="D344" s="120"/>
+      <c r="D344" s="56"/>
       <c r="E344" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8610,13 +8610,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 344</v>
       </c>
-      <c r="B345" s="106" t="s">
+      <c r="B345" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C345" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D345" s="43" t="s">
+      <c r="D345" s="57" t="s">
         <v>367</v>
       </c>
       <c r="E345" s="6" t="str">
@@ -8629,13 +8629,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 345</v>
       </c>
-      <c r="B346" s="102">
+      <c r="B346" s="47">
         <v>2</v>
       </c>
       <c r="C346" s="7">
         <v>2</v>
       </c>
-      <c r="D346" s="44"/>
+      <c r="D346" s="58"/>
       <c r="E346" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8646,13 +8646,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 346</v>
       </c>
-      <c r="B347" s="102" t="s">
+      <c r="B347" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D347" s="44"/>
+      <c r="D347" s="58"/>
       <c r="E347" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8663,13 +8663,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 347</v>
       </c>
-      <c r="B348" s="102" t="s">
+      <c r="B348" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D348" s="44"/>
+      <c r="D348" s="58"/>
       <c r="E348" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8680,13 +8680,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 348</v>
       </c>
-      <c r="B349" s="102" t="s">
+      <c r="B349" s="47" t="s">
         <v>342</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D349" s="44"/>
+      <c r="D349" s="58"/>
       <c r="E349" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8697,13 +8697,13 @@
         <f t="shared" si="6"/>
         <v>CELDA 349</v>
       </c>
-      <c r="B350" s="102" t="s">
+      <c r="B350" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D350" s="44"/>
+      <c r="D350" s="58"/>
       <c r="E350" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8714,13 +8714,13 @@
         <f t="shared" ref="A351:A414" si="8">_xlfn.CONCAT("CELDA ",ROW()-1)</f>
         <v>CELDA 350</v>
       </c>
-      <c r="B351" s="102" t="s">
+      <c r="B351" s="47" t="s">
         <v>340</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D351" s="44"/>
+      <c r="D351" s="58"/>
       <c r="E351" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8731,13 +8731,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 351</v>
       </c>
-      <c r="B352" s="102" t="s">
+      <c r="B352" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D352" s="44"/>
+      <c r="D352" s="58"/>
       <c r="E352" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8748,13 +8748,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 352</v>
       </c>
-      <c r="B353" s="102">
+      <c r="B353" s="47">
         <v>4</v>
       </c>
       <c r="C353" s="7">
         <v>4</v>
       </c>
-      <c r="D353" s="44"/>
+      <c r="D353" s="58"/>
       <c r="E353" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8765,13 +8765,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 353</v>
       </c>
-      <c r="B354" s="102" t="s">
+      <c r="B354" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D354" s="44"/>
+      <c r="D354" s="58"/>
       <c r="E354" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8782,13 +8782,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 354</v>
       </c>
-      <c r="B355" s="102" t="s">
+      <c r="B355" s="47" t="s">
         <v>305</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D355" s="44"/>
+      <c r="D355" s="58"/>
       <c r="E355" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8799,13 +8799,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 355</v>
       </c>
-      <c r="B356" s="102" t="s">
+      <c r="B356" s="47" t="s">
         <v>342</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D356" s="44"/>
+      <c r="D356" s="58"/>
       <c r="E356" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8816,13 +8816,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 356</v>
       </c>
-      <c r="B357" s="102" t="s">
+      <c r="B357" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D357" s="44"/>
+      <c r="D357" s="58"/>
       <c r="E357" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8833,13 +8833,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 357</v>
       </c>
-      <c r="B358" s="102" t="s">
+      <c r="B358" s="47" t="s">
         <v>341</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D358" s="44"/>
+      <c r="D358" s="58"/>
       <c r="E358" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8850,13 +8850,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 358</v>
       </c>
-      <c r="B359" s="102">
+      <c r="B359" s="47">
         <v>1</v>
       </c>
       <c r="C359" s="7">
         <v>1</v>
       </c>
-      <c r="D359" s="44"/>
+      <c r="D359" s="58"/>
       <c r="E359" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8867,13 +8867,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 359</v>
       </c>
-      <c r="B360" s="102" t="s">
+      <c r="B360" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D360" s="44"/>
+      <c r="D360" s="58"/>
       <c r="E360" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8884,13 +8884,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 360</v>
       </c>
-      <c r="B361" s="102" t="s">
+      <c r="B361" s="47" t="s">
         <v>326</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D361" s="44"/>
+      <c r="D361" s="58"/>
       <c r="E361" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8901,13 +8901,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 361</v>
       </c>
-      <c r="B362" s="102">
+      <c r="B362" s="47">
         <v>0</v>
       </c>
       <c r="C362" s="7">
         <v>0</v>
       </c>
-      <c r="D362" s="44"/>
+      <c r="D362" s="58"/>
       <c r="E362" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8918,13 +8918,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 362</v>
       </c>
-      <c r="B363" s="102">
+      <c r="B363" s="47">
         <v>1</v>
       </c>
       <c r="C363" s="7">
         <v>1</v>
       </c>
-      <c r="D363" s="44"/>
+      <c r="D363" s="58"/>
       <c r="E363" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8935,13 +8935,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 363</v>
       </c>
-      <c r="B364" s="102" t="s">
+      <c r="B364" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D364" s="44"/>
+      <c r="D364" s="58"/>
       <c r="E364" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8952,13 +8952,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 364</v>
       </c>
-      <c r="B365" s="102" t="s">
+      <c r="B365" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D365" s="44"/>
+      <c r="D365" s="58"/>
       <c r="E365" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8969,13 +8969,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 365</v>
       </c>
-      <c r="B366" s="102" t="s">
+      <c r="B366" s="47" t="s">
         <v>344</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D366" s="44"/>
+      <c r="D366" s="58"/>
       <c r="E366" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -8986,13 +8986,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 366</v>
       </c>
-      <c r="B367" s="102" t="s">
+      <c r="B367" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D367" s="44"/>
+      <c r="D367" s="58"/>
       <c r="E367" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9003,13 +9003,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 367</v>
       </c>
-      <c r="B368" s="102" t="s">
+      <c r="B368" s="47" t="s">
         <v>343</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D368" s="44"/>
+      <c r="D368" s="58"/>
       <c r="E368" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9020,13 +9020,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 368</v>
       </c>
-      <c r="B369" s="102" t="s">
+      <c r="B369" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D369" s="44"/>
+      <c r="D369" s="58"/>
       <c r="E369" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9037,13 +9037,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 369</v>
       </c>
-      <c r="B370" s="102">
+      <c r="B370" s="47">
         <v>5</v>
       </c>
       <c r="C370" s="7">
         <v>5</v>
       </c>
-      <c r="D370" s="44"/>
+      <c r="D370" s="58"/>
       <c r="E370" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9054,13 +9054,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 370</v>
       </c>
-      <c r="B371" s="102" t="s">
+      <c r="B371" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D371" s="44"/>
+      <c r="D371" s="58"/>
       <c r="E371" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9071,13 +9071,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 371</v>
       </c>
-      <c r="B372" s="102" t="s">
+      <c r="B372" s="47" t="s">
         <v>327</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D372" s="44"/>
+      <c r="D372" s="58"/>
       <c r="E372" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9088,13 +9088,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 372</v>
       </c>
-      <c r="B373" s="102" t="s">
+      <c r="B373" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D373" s="44"/>
+      <c r="D373" s="58"/>
       <c r="E373" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9105,13 +9105,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 373</v>
       </c>
-      <c r="B374" s="102" t="s">
+      <c r="B374" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D374" s="44"/>
+      <c r="D374" s="58"/>
       <c r="E374" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9122,13 +9122,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 374</v>
       </c>
-      <c r="B375" s="103" t="s">
+      <c r="B375" s="48" t="s">
         <v>339</v>
       </c>
       <c r="C375" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="D375" s="45"/>
+      <c r="D375" s="59"/>
       <c r="E375" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9139,13 +9139,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 375</v>
       </c>
-      <c r="B376" s="106" t="s">
+      <c r="B376" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C376" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D376" s="121" t="s">
+      <c r="D376" s="60" t="s">
         <v>368</v>
       </c>
       <c r="E376" s="6" t="str">
@@ -9158,13 +9158,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 376</v>
       </c>
-      <c r="B377" s="102">
+      <c r="B377" s="47">
         <v>2</v>
       </c>
       <c r="C377" s="7">
         <v>2</v>
       </c>
-      <c r="D377" s="122"/>
+      <c r="D377" s="61"/>
       <c r="E377" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9175,13 +9175,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 377</v>
       </c>
-      <c r="B378" s="102" t="s">
+      <c r="B378" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D378" s="122"/>
+      <c r="D378" s="61"/>
       <c r="E378" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9192,13 +9192,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 378</v>
       </c>
-      <c r="B379" s="102" t="s">
+      <c r="B379" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D379" s="122"/>
+      <c r="D379" s="61"/>
       <c r="E379" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9209,13 +9209,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 379</v>
       </c>
-      <c r="B380" s="102" t="s">
+      <c r="B380" s="47" t="s">
         <v>347</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D380" s="122"/>
+      <c r="D380" s="61"/>
       <c r="E380" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9226,13 +9226,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 380</v>
       </c>
-      <c r="B381" s="102" t="s">
+      <c r="B381" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D381" s="122"/>
+      <c r="D381" s="61"/>
       <c r="E381" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9243,13 +9243,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 381</v>
       </c>
-      <c r="B382" s="102" t="s">
+      <c r="B382" s="47" t="s">
         <v>345</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D382" s="122"/>
+      <c r="D382" s="61"/>
       <c r="E382" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9260,13 +9260,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 382</v>
       </c>
-      <c r="B383" s="102" t="s">
+      <c r="B383" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D383" s="122"/>
+      <c r="D383" s="61"/>
       <c r="E383" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9277,13 +9277,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 383</v>
       </c>
-      <c r="B384" s="102">
+      <c r="B384" s="47">
         <v>4</v>
       </c>
       <c r="C384" s="7">
         <v>4</v>
       </c>
-      <c r="D384" s="122"/>
+      <c r="D384" s="61"/>
       <c r="E384" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9294,13 +9294,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 384</v>
       </c>
-      <c r="B385" s="102" t="s">
+      <c r="B385" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D385" s="122"/>
+      <c r="D385" s="61"/>
       <c r="E385" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9311,13 +9311,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 385</v>
       </c>
-      <c r="B386" s="102" t="s">
+      <c r="B386" s="47" t="s">
         <v>305</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D386" s="122"/>
+      <c r="D386" s="61"/>
       <c r="E386" s="6" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
@@ -9328,13 +9328,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 386</v>
       </c>
-      <c r="B387" s="102" t="s">
+      <c r="B387" s="47" t="s">
         <v>347</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D387" s="122"/>
+      <c r="D387" s="61"/>
       <c r="E387" s="6" t="str">
         <f t="shared" ref="E387:E433" si="9">IF(AND(B387=C387,B387&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -9345,13 +9345,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 387</v>
       </c>
-      <c r="B388" s="102" t="s">
+      <c r="B388" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D388" s="122"/>
+      <c r="D388" s="61"/>
       <c r="E388" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9362,13 +9362,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 388</v>
       </c>
-      <c r="B389" s="102" t="s">
+      <c r="B389" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D389" s="122"/>
+      <c r="D389" s="61"/>
       <c r="E389" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9379,13 +9379,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 389</v>
       </c>
-      <c r="B390" s="102">
+      <c r="B390" s="47">
         <v>1</v>
       </c>
       <c r="C390" s="7">
         <v>1</v>
       </c>
-      <c r="D390" s="122"/>
+      <c r="D390" s="61"/>
       <c r="E390" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9396,13 +9396,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 390</v>
       </c>
-      <c r="B391" s="102" t="s">
+      <c r="B391" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D391" s="122"/>
+      <c r="D391" s="61"/>
       <c r="E391" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9413,13 +9413,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 391</v>
       </c>
-      <c r="B392" s="102" t="s">
+      <c r="B392" s="47" t="s">
         <v>348</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D392" s="122"/>
+      <c r="D392" s="61"/>
       <c r="E392" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9430,13 +9430,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 392</v>
       </c>
-      <c r="B393" s="102">
+      <c r="B393" s="47">
         <v>0</v>
       </c>
       <c r="C393" s="7">
         <v>0</v>
       </c>
-      <c r="D393" s="122"/>
+      <c r="D393" s="61"/>
       <c r="E393" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9447,13 +9447,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 393</v>
       </c>
-      <c r="B394" s="102">
+      <c r="B394" s="47">
         <v>0</v>
       </c>
       <c r="C394" s="7">
         <v>0</v>
       </c>
-      <c r="D394" s="122"/>
+      <c r="D394" s="61"/>
       <c r="E394" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9464,13 +9464,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 394</v>
       </c>
-      <c r="B395" s="102" t="s">
+      <c r="B395" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D395" s="122"/>
+      <c r="D395" s="61"/>
       <c r="E395" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9481,13 +9481,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 395</v>
       </c>
-      <c r="B396" s="102" t="s">
+      <c r="B396" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D396" s="122"/>
+      <c r="D396" s="61"/>
       <c r="E396" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9498,13 +9498,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 396</v>
       </c>
-      <c r="B397" s="102" t="s">
+      <c r="B397" s="47" t="s">
         <v>349</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D397" s="122"/>
+      <c r="D397" s="61"/>
       <c r="E397" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9515,13 +9515,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 397</v>
       </c>
-      <c r="B398" s="102" t="s">
+      <c r="B398" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D398" s="122"/>
+      <c r="D398" s="61"/>
       <c r="E398" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9532,13 +9532,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 398</v>
       </c>
-      <c r="B399" s="102" t="s">
+      <c r="B399" s="47" t="s">
         <v>328</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="D399" s="122"/>
+      <c r="D399" s="61"/>
       <c r="E399" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9549,13 +9549,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 399</v>
       </c>
-      <c r="B400" s="102" t="s">
+      <c r="B400" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D400" s="122"/>
+      <c r="D400" s="61"/>
       <c r="E400" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9566,13 +9566,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 400</v>
       </c>
-      <c r="B401" s="102">
+      <c r="B401" s="47">
         <v>5</v>
       </c>
       <c r="C401" s="7">
         <v>5</v>
       </c>
-      <c r="D401" s="122"/>
+      <c r="D401" s="61"/>
       <c r="E401" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9583,13 +9583,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 401</v>
       </c>
-      <c r="B402" s="102" t="s">
+      <c r="B402" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D402" s="122"/>
+      <c r="D402" s="61"/>
       <c r="E402" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9600,13 +9600,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 402</v>
       </c>
-      <c r="B403" s="102" t="s">
+      <c r="B403" s="47" t="s">
         <v>327</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D403" s="122"/>
+      <c r="D403" s="61"/>
       <c r="E403" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9617,13 +9617,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 403</v>
       </c>
-      <c r="B404" s="102" t="s">
+      <c r="B404" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D404" s="122"/>
+      <c r="D404" s="61"/>
       <c r="E404" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9634,13 +9634,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 404</v>
       </c>
-      <c r="B405" s="102" t="s">
+      <c r="B405" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D405" s="122"/>
+      <c r="D405" s="61"/>
       <c r="E405" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9651,13 +9651,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 405</v>
       </c>
-      <c r="B406" s="103" t="s">
+      <c r="B406" s="48" t="s">
         <v>344</v>
       </c>
       <c r="C406" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="D406" s="123"/>
+      <c r="D406" s="62"/>
       <c r="E406" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9668,13 +9668,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 406</v>
       </c>
-      <c r="B407" s="106" t="s">
+      <c r="B407" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C407" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D407" s="116" t="s">
+      <c r="D407" s="63" t="s">
         <v>369</v>
       </c>
       <c r="E407" s="6" t="str">
@@ -9687,13 +9687,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 407</v>
       </c>
-      <c r="B408" s="102">
+      <c r="B408" s="47">
         <v>2</v>
       </c>
       <c r="C408" s="7">
         <v>2</v>
       </c>
-      <c r="D408" s="117"/>
+      <c r="D408" s="64"/>
       <c r="E408" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9704,13 +9704,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 408</v>
       </c>
-      <c r="B409" s="102" t="s">
+      <c r="B409" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D409" s="117"/>
+      <c r="D409" s="64"/>
       <c r="E409" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9721,13 +9721,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 409</v>
       </c>
-      <c r="B410" s="102" t="s">
+      <c r="B410" s="47" t="s">
         <v>30</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D410" s="117"/>
+      <c r="D410" s="64"/>
       <c r="E410" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9738,13 +9738,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 410</v>
       </c>
-      <c r="B411" s="102" t="s">
+      <c r="B411" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D411" s="117"/>
+      <c r="D411" s="64"/>
       <c r="E411" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9755,13 +9755,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 411</v>
       </c>
-      <c r="B412" s="102" t="s">
+      <c r="B412" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D412" s="117"/>
+      <c r="D412" s="64"/>
       <c r="E412" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9772,13 +9772,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 412</v>
       </c>
-      <c r="B413" s="102" t="s">
+      <c r="B413" s="47" t="s">
         <v>350</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D413" s="117"/>
+      <c r="D413" s="64"/>
       <c r="E413" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9789,13 +9789,13 @@
         <f t="shared" si="8"/>
         <v>CELDA 413</v>
       </c>
-      <c r="B414" s="102" t="s">
+      <c r="B414" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D414" s="117"/>
+      <c r="D414" s="64"/>
       <c r="E414" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9806,13 +9806,13 @@
         <f t="shared" ref="A415:A478" si="10">_xlfn.CONCAT("CELDA ",ROW()-1)</f>
         <v>CELDA 414</v>
       </c>
-      <c r="B415" s="102">
+      <c r="B415" s="47">
         <v>2</v>
       </c>
       <c r="C415" s="7">
         <v>2</v>
       </c>
-      <c r="D415" s="117"/>
+      <c r="D415" s="64"/>
       <c r="E415" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9823,13 +9823,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 415</v>
       </c>
-      <c r="B416" s="102" t="s">
+      <c r="B416" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D416" s="117"/>
+      <c r="D416" s="64"/>
       <c r="E416" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9840,13 +9840,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 416</v>
       </c>
-      <c r="B417" s="102" t="s">
+      <c r="B417" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D417" s="117"/>
+      <c r="D417" s="64"/>
       <c r="E417" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9857,13 +9857,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 417</v>
       </c>
-      <c r="B418" s="102" t="s">
+      <c r="B418" s="47" t="s">
         <v>359</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D418" s="117"/>
+      <c r="D418" s="64"/>
       <c r="E418" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9874,13 +9874,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 418</v>
       </c>
-      <c r="B419" s="102" t="s">
+      <c r="B419" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D419" s="117"/>
+      <c r="D419" s="64"/>
       <c r="E419" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9891,13 +9891,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 419</v>
       </c>
-      <c r="B420" s="102" t="s">
+      <c r="B420" s="47" t="s">
         <v>351</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D420" s="117"/>
+      <c r="D420" s="64"/>
       <c r="E420" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9908,13 +9908,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 420</v>
       </c>
-      <c r="B421" s="102" t="s">
+      <c r="B421" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D421" s="117"/>
+      <c r="D421" s="64"/>
       <c r="E421" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9925,13 +9925,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 421</v>
       </c>
-      <c r="B422" s="102">
+      <c r="B422" s="47">
         <v>4</v>
       </c>
       <c r="C422" s="7">
         <v>4</v>
       </c>
-      <c r="D422" s="117"/>
+      <c r="D422" s="64"/>
       <c r="E422" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9942,13 +9942,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 422</v>
       </c>
-      <c r="B423" s="102" t="s">
+      <c r="B423" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D423" s="117"/>
+      <c r="D423" s="64"/>
       <c r="E423" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9959,13 +9959,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 423</v>
       </c>
-      <c r="B424" s="102" t="s">
+      <c r="B424" s="47" t="s">
         <v>305</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D424" s="117"/>
+      <c r="D424" s="64"/>
       <c r="E424" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9976,13 +9976,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 424</v>
       </c>
-      <c r="B425" s="102" t="s">
+      <c r="B425" s="47" t="s">
         <v>359</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D425" s="117"/>
+      <c r="D425" s="64"/>
       <c r="E425" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -9993,13 +9993,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 425</v>
       </c>
-      <c r="B426" s="102" t="s">
+      <c r="B426" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D426" s="117"/>
+      <c r="D426" s="64"/>
       <c r="E426" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -10010,13 +10010,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 426</v>
       </c>
-      <c r="B427" s="102" t="s">
+      <c r="B427" s="47" t="s">
         <v>360</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D427" s="117"/>
+      <c r="D427" s="64"/>
       <c r="E427" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -10027,13 +10027,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 427</v>
       </c>
-      <c r="B428" s="102">
+      <c r="B428" s="47">
         <v>1</v>
       </c>
       <c r="C428" s="7">
         <v>1</v>
       </c>
-      <c r="D428" s="117"/>
+      <c r="D428" s="64"/>
       <c r="E428" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -10044,13 +10044,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 428</v>
       </c>
-      <c r="B429" s="102" t="s">
+      <c r="B429" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D429" s="117"/>
+      <c r="D429" s="64"/>
       <c r="E429" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -10061,13 +10061,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 429</v>
       </c>
-      <c r="B430" s="102" t="s">
+      <c r="B430" s="47" t="s">
         <v>361</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D430" s="117"/>
+      <c r="D430" s="64"/>
       <c r="E430" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -10078,13 +10078,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 430</v>
       </c>
-      <c r="B431" s="102">
+      <c r="B431" s="47">
         <v>0</v>
       </c>
       <c r="C431" s="7">
         <v>0</v>
       </c>
-      <c r="D431" s="117"/>
+      <c r="D431" s="64"/>
       <c r="E431" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -10095,13 +10095,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 431</v>
       </c>
-      <c r="B432" s="102" t="s">
+      <c r="B432" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D432" s="117"/>
+      <c r="D432" s="64"/>
       <c r="E432" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -10112,13 +10112,13 @@
         <f t="shared" si="10"/>
         <v>CELDA 432</v>
       </c>
-      <c r="B433" s="103" t="s">
+      <c r="B433" s="48" t="s">
         <v>349</v>
       </c>
       <c r="C433" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="D433" s="124"/>
+      <c r="D433" s="65"/>
       <c r="E433" s="6" t="str">
         <f t="shared" si="9"/>
         <v>OK</v>
@@ -10882,20 +10882,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D318:D344"/>
-    <mergeCell ref="D345:D375"/>
-    <mergeCell ref="D376:D406"/>
-    <mergeCell ref="D407:D433"/>
-    <mergeCell ref="D180:D201"/>
-    <mergeCell ref="D202:D221"/>
-    <mergeCell ref="D222:D252"/>
-    <mergeCell ref="D253:D283"/>
-    <mergeCell ref="D284:D317"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="D156:D158"/>
     <mergeCell ref="D159:D161"/>
     <mergeCell ref="D162:D164"/>
     <mergeCell ref="D165:D179"/>
@@ -10909,6 +10895,20 @@
     <mergeCell ref="D93:D113"/>
     <mergeCell ref="D114:D134"/>
     <mergeCell ref="D135:D143"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="D318:D344"/>
+    <mergeCell ref="D345:D375"/>
+    <mergeCell ref="D376:D406"/>
+    <mergeCell ref="D407:D433"/>
+    <mergeCell ref="D180:D201"/>
+    <mergeCell ref="D202:D221"/>
+    <mergeCell ref="D222:D252"/>
+    <mergeCell ref="D253:D283"/>
+    <mergeCell ref="D284:D317"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E433">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -10951,25 +10951,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
     </row>
     <row r="2" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="109" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="16">
@@ -11115,7 +11115,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -11189,31 +11189,31 @@
       <c r="AV3" s="17"/>
     </row>
     <row r="4" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="88" t="s">
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="116" t="s">
         <v>287</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
     </row>
     <row r="5" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="109" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="16">
@@ -11359,7 +11359,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -11439,41 +11439,41 @@
       <c r="AV6" s="17"/>
     </row>
     <row r="7" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="79" t="s">
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="82" t="s">
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="88" t="s">
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="116" t="s">
         <v>287</v>
       </c>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="109" t="s">
         <v>288</v>
       </c>
       <c r="B8" s="16">
@@ -11619,7 +11619,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
@@ -11713,41 +11713,41 @@
       <c r="AV9" s="17"/>
     </row>
     <row r="10" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="79" t="s">
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82" t="s">
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="88" t="s">
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116" t="s">
         <v>287</v>
       </c>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
       <c r="Y10" s="19"/>
     </row>
     <row r="11" spans="1:48" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="109" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="16">
@@ -11893,7 +11893,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
@@ -11988,40 +11988,40 @@
     </row>
     <row r="14" spans="1:48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="79" t="s">
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="82" t="s">
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="V14" s="83"/>
-      <c r="W14" s="84"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="108"/>
       <c r="X14" s="30" t="s">
         <v>287</v>
       </c>
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="1:48" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="109" t="s">
         <v>309</v>
       </c>
       <c r="B15" s="16">
@@ -12098,7 +12098,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
@@ -12179,16 +12179,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:T14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:X10"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B4:H4"/>
@@ -12200,6 +12190,16 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="B10:H10"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12235,27 +12235,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="109" t="s">
         <v>292</v>
       </c>
       <c r="B2" s="16">
@@ -12307,7 +12307,7 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
@@ -12357,34 +12357,34 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="79" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="84"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="108"/>
     </row>
     <row r="5" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="109" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="16">
@@ -12452,7 +12452,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
@@ -12518,34 +12518,34 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="79" t="s">
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="82" t="s">
+      <c r="P7" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="108"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="109" t="s">
         <v>294</v>
       </c>
       <c r="B8" s="16">
@@ -12613,7 +12613,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="39" t="s">
         <v>28</v>
       </c>
@@ -12682,31 +12682,31 @@
       <c r="A11" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="79" t="s">
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
-      <c r="P11" s="82" t="s">
+      <c r="P11" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="84"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="108"/>
     </row>
     <row r="12" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
@@ -12874,15 +12874,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="109" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="16">
@@ -12912,7 +12912,7 @@
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
@@ -12959,7 +12959,7 @@
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="109" t="s">
         <v>301</v>
       </c>
       <c r="B6" s="16">
@@ -12997,7 +12997,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -13048,7 +13048,7 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="109" t="s">
         <v>303</v>
       </c>
       <c r="B12" s="16">
@@ -13086,7 +13086,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
@@ -13122,7 +13122,7 @@
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="109" t="s">
         <v>320</v>
       </c>
       <c r="B17" s="16">
@@ -13172,7 +13172,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="21" t="s">
         <v>28</v>
       </c>
@@ -13289,7 +13289,7 @@
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="90" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="6" t="str">
@@ -13314,7 +13314,7 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(AND(B3=C3,B3&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -13330,7 +13330,7 @@
       <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13346,7 +13346,7 @@
       <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="90" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -13364,7 +13364,7 @@
       <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13380,7 +13380,7 @@
       <c r="C7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13396,7 +13396,7 @@
       <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="91" t="s">
         <v>280</v>
       </c>
       <c r="E8" s="6" t="str">
@@ -13414,7 +13414,7 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13430,7 +13430,7 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13446,7 +13446,7 @@
       <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13462,7 +13462,7 @@
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13478,7 +13478,7 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="65"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13494,7 +13494,7 @@
       <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13510,7 +13510,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13526,7 +13526,7 @@
       <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13542,7 +13542,7 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13558,7 +13558,7 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="65"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13574,7 +13574,7 @@
       <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13590,7 +13590,7 @@
       <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="92" t="s">
         <v>281</v>
       </c>
       <c r="E20" s="6" t="str">
@@ -13608,7 +13608,7 @@
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13624,7 +13624,7 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13640,7 +13640,7 @@
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13656,7 +13656,7 @@
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13672,7 +13672,7 @@
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13688,7 +13688,7 @@
       <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="93"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13704,7 +13704,7 @@
       <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13720,7 +13720,7 @@
       <c r="C28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13736,7 +13736,7 @@
       <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13752,7 +13752,7 @@
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="93"/>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13768,7 +13768,7 @@
       <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="93"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13784,7 +13784,7 @@
       <c r="C32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="55"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13800,7 +13800,7 @@
       <c r="C33" s="7">
         <v>17</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13816,7 +13816,7 @@
       <c r="C34" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13832,7 +13832,7 @@
       <c r="C35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="91" t="s">
         <v>290</v>
       </c>
       <c r="E35" s="6" t="str">
@@ -13850,7 +13850,7 @@
       <c r="C36" s="7">
         <v>15</v>
       </c>
-      <c r="D36" s="66"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13866,7 +13866,7 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="66"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13882,7 +13882,7 @@
       <c r="C38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="66"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13898,7 +13898,7 @@
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="66"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13914,7 +13914,7 @@
       <c r="C40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="66"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13930,7 +13930,7 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="66"/>
+      <c r="D41" s="94"/>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13946,7 +13946,7 @@
       <c r="C42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="66"/>
+      <c r="D42" s="94"/>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13962,7 +13962,7 @@
       <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D43" s="66"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13978,7 +13978,7 @@
       <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="66"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -13994,7 +13994,7 @@
       <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="66"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14010,7 +14010,7 @@
       <c r="C46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="66"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14026,7 +14026,7 @@
       <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="66"/>
+      <c r="D47" s="94"/>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14043,7 +14043,7 @@
       <c r="C48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="66"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14060,7 +14060,7 @@
       <c r="C49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="66"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14077,7 +14077,7 @@
       <c r="C50" s="7">
         <v>16</v>
       </c>
-      <c r="D50" s="66"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14094,7 +14094,7 @@
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="66"/>
+      <c r="D51" s="94"/>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14110,7 +14110,7 @@
       <c r="C52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="66"/>
+      <c r="D52" s="94"/>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14126,7 +14126,7 @@
       <c r="C53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="66"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14142,7 +14142,7 @@
       <c r="C54" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="66"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14158,7 +14158,7 @@
       <c r="C55" s="7">
         <v>17</v>
       </c>
-      <c r="D55" s="66"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14174,7 +14174,7 @@
       <c r="C56" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="66"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14190,7 +14190,7 @@
       <c r="C57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="95" t="s">
         <v>291</v>
       </c>
       <c r="E57" s="6" t="str">
@@ -14208,7 +14208,7 @@
       <c r="C58" s="7">
         <v>15</v>
       </c>
-      <c r="D58" s="49"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14224,7 +14224,7 @@
       <c r="C59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="49"/>
+      <c r="D59" s="96"/>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14240,7 +14240,7 @@
       <c r="C60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="49"/>
+      <c r="D60" s="96"/>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14256,7 +14256,7 @@
       <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="49"/>
+      <c r="D61" s="96"/>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14272,7 +14272,7 @@
       <c r="C62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="49"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14288,7 +14288,7 @@
       <c r="C63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="49"/>
+      <c r="D63" s="96"/>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14304,7 +14304,7 @@
       <c r="C64" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="49"/>
+      <c r="D64" s="96"/>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14320,7 +14320,7 @@
       <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D65" s="49"/>
+      <c r="D65" s="96"/>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14336,7 +14336,7 @@
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="49"/>
+      <c r="D66" s="96"/>
       <c r="E66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
@@ -14352,7 +14352,7 @@
       <c r="C67" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="49"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="6" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(AND(B67=C67,B67&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -14368,7 +14368,7 @@
       <c r="C68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="49"/>
+      <c r="D68" s="96"/>
       <c r="E68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14384,7 +14384,7 @@
       <c r="C69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="49"/>
+      <c r="D69" s="96"/>
       <c r="E69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14400,7 +14400,7 @@
       <c r="C70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="49"/>
+      <c r="D70" s="96"/>
       <c r="E70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14416,7 +14416,7 @@
       <c r="C71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="49"/>
+      <c r="D71" s="96"/>
       <c r="E71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14432,7 +14432,7 @@
       <c r="C72" s="7">
         <v>16</v>
       </c>
-      <c r="D72" s="49"/>
+      <c r="D72" s="96"/>
       <c r="E72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14448,7 +14448,7 @@
       <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14464,7 +14464,7 @@
       <c r="C74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="96"/>
       <c r="E74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14480,7 +14480,7 @@
       <c r="C75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="49"/>
+      <c r="D75" s="96"/>
       <c r="E75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14496,7 +14496,7 @@
       <c r="C76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="49"/>
+      <c r="D76" s="96"/>
       <c r="E76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14512,7 +14512,7 @@
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="96"/>
       <c r="E77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14528,7 +14528,7 @@
       <c r="C78" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="49"/>
+      <c r="D78" s="96"/>
       <c r="E78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14544,7 +14544,7 @@
       <c r="C79" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="90" t="s">
+      <c r="D79" s="120" t="s">
         <v>295</v>
       </c>
       <c r="E79" s="6" t="str">
@@ -14562,7 +14562,7 @@
       <c r="C80" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="90"/>
+      <c r="D80" s="120"/>
       <c r="E80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14578,7 +14578,7 @@
       <c r="C81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="90"/>
+      <c r="D81" s="120"/>
       <c r="E81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14594,7 +14594,7 @@
       <c r="C82" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="90"/>
+      <c r="D82" s="120"/>
       <c r="E82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14610,7 +14610,7 @@
       <c r="C83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="90"/>
+      <c r="D83" s="120"/>
       <c r="E83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14626,7 +14626,7 @@
       <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="90"/>
+      <c r="D84" s="120"/>
       <c r="E84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14642,7 +14642,7 @@
       <c r="C85" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D85" s="90"/>
+      <c r="D85" s="120"/>
       <c r="E85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14658,7 +14658,7 @@
       <c r="C86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="90"/>
+      <c r="D86" s="120"/>
       <c r="E86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14674,7 +14674,7 @@
       <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D87" s="90"/>
+      <c r="D87" s="120"/>
       <c r="E87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14690,7 +14690,7 @@
       <c r="C88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="90"/>
+      <c r="D88" s="120"/>
       <c r="E88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14706,7 +14706,7 @@
       <c r="C89" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="90"/>
+      <c r="D89" s="120"/>
       <c r="E89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14722,7 +14722,7 @@
       <c r="C90" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="90"/>
+      <c r="D90" s="120"/>
       <c r="E90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14738,7 +14738,7 @@
       <c r="C91" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="92" t="s">
         <v>296</v>
       </c>
       <c r="E91" s="6" t="str">
@@ -14756,7 +14756,7 @@
       <c r="C92" s="7">
         <v>7</v>
       </c>
-      <c r="D92" s="55"/>
+      <c r="D92" s="93"/>
       <c r="E92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14772,7 +14772,7 @@
       <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="55"/>
+      <c r="D93" s="93"/>
       <c r="E93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14788,7 +14788,7 @@
       <c r="C94" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="55"/>
+      <c r="D94" s="93"/>
       <c r="E94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14804,7 +14804,7 @@
       <c r="C95" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="55"/>
+      <c r="D95" s="93"/>
       <c r="E95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14820,7 +14820,7 @@
       <c r="C96" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="55"/>
+      <c r="D96" s="93"/>
       <c r="E96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14836,7 +14836,7 @@
       <c r="C97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="55"/>
+      <c r="D97" s="93"/>
       <c r="E97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14852,7 +14852,7 @@
       <c r="C98" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="55"/>
+      <c r="D98" s="93"/>
       <c r="E98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14868,7 +14868,7 @@
       <c r="C99" s="7">
         <v>8</v>
       </c>
-      <c r="D99" s="55"/>
+      <c r="D99" s="93"/>
       <c r="E99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14884,7 +14884,7 @@
       <c r="C100" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="55"/>
+      <c r="D100" s="93"/>
       <c r="E100" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14900,7 +14900,7 @@
       <c r="C101" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="55"/>
+      <c r="D101" s="93"/>
       <c r="E101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14916,7 +14916,7 @@
       <c r="C102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="55"/>
+      <c r="D102" s="93"/>
       <c r="E102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14932,7 +14932,7 @@
       <c r="C103" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D103" s="55"/>
+      <c r="D103" s="93"/>
       <c r="E103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14948,7 +14948,7 @@
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="55"/>
+      <c r="D104" s="93"/>
       <c r="E104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14964,7 +14964,7 @@
       <c r="C105" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="55"/>
+      <c r="D105" s="93"/>
       <c r="E105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14980,7 +14980,7 @@
       <c r="C106" s="7">
         <v>5</v>
       </c>
-      <c r="D106" s="55"/>
+      <c r="D106" s="93"/>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -14996,7 +14996,7 @@
       <c r="C107" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="55"/>
+      <c r="D107" s="93"/>
       <c r="E107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15012,7 +15012,7 @@
       <c r="C108" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D108" s="55"/>
+      <c r="D108" s="93"/>
       <c r="E108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15028,7 +15028,7 @@
       <c r="C109" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="91"/>
+      <c r="D109" s="121"/>
       <c r="E109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15044,7 +15044,7 @@
       <c r="C110" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D110" s="58" t="s">
+      <c r="D110" s="103" t="s">
         <v>297</v>
       </c>
       <c r="E110" s="6" t="str">
@@ -15062,7 +15062,7 @@
       <c r="C111" s="7">
         <v>7</v>
       </c>
-      <c r="D111" s="58"/>
+      <c r="D111" s="103"/>
       <c r="E111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15078,7 +15078,7 @@
       <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="58"/>
+      <c r="D112" s="103"/>
       <c r="E112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15094,7 +15094,7 @@
       <c r="C113" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="58"/>
+      <c r="D113" s="103"/>
       <c r="E113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15110,7 +15110,7 @@
       <c r="C114" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="58"/>
+      <c r="D114" s="103"/>
       <c r="E114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15126,7 +15126,7 @@
       <c r="C115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="58"/>
+      <c r="D115" s="103"/>
       <c r="E115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15142,7 +15142,7 @@
       <c r="C116" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D116" s="58"/>
+      <c r="D116" s="103"/>
       <c r="E116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15158,7 +15158,7 @@
       <c r="C117" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="58"/>
+      <c r="D117" s="103"/>
       <c r="E117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15174,7 +15174,7 @@
       <c r="C118" s="7">
         <v>8</v>
       </c>
-      <c r="D118" s="58"/>
+      <c r="D118" s="103"/>
       <c r="E118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15190,7 +15190,7 @@
       <c r="C119" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D119" s="58"/>
+      <c r="D119" s="103"/>
       <c r="E119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15206,7 +15206,7 @@
       <c r="C120" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="58"/>
+      <c r="D120" s="103"/>
       <c r="E120" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15222,7 +15222,7 @@
       <c r="C121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D121" s="58"/>
+      <c r="D121" s="103"/>
       <c r="E121" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15238,7 +15238,7 @@
       <c r="C122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="58"/>
+      <c r="D122" s="103"/>
       <c r="E122" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15254,7 +15254,7 @@
       <c r="C123" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="58"/>
+      <c r="D123" s="103"/>
       <c r="E123" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15270,7 +15270,7 @@
       <c r="C124" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D124" s="58"/>
+      <c r="D124" s="103"/>
       <c r="E124" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15286,7 +15286,7 @@
       <c r="C125" s="7">
         <v>5</v>
       </c>
-      <c r="D125" s="58"/>
+      <c r="D125" s="103"/>
       <c r="E125" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15302,7 +15302,7 @@
       <c r="C126" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="58"/>
+      <c r="D126" s="103"/>
       <c r="E126" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15318,7 +15318,7 @@
       <c r="C127" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="58"/>
+      <c r="D127" s="103"/>
       <c r="E127" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15334,7 +15334,7 @@
       <c r="C128" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="60"/>
+      <c r="D128" s="105"/>
       <c r="E128" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15350,7 +15350,7 @@
       <c r="C129" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="70" t="s">
+      <c r="D129" s="81" t="s">
         <v>302</v>
       </c>
       <c r="E129" s="6" t="str">
@@ -15368,7 +15368,7 @@
       <c r="C130" s="7">
         <v>8</v>
       </c>
-      <c r="D130" s="71"/>
+      <c r="D130" s="82"/>
       <c r="E130" s="6" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
@@ -15384,7 +15384,7 @@
       <c r="C131" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="71"/>
+      <c r="D131" s="82"/>
       <c r="E131" s="6" t="str">
         <f t="shared" ref="E131:E185" si="2">IF(AND(B131=C131,B131&lt;&gt;" "),"OK","ERROR")</f>
         <v>OK</v>
@@ -15400,7 +15400,7 @@
       <c r="C132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="71"/>
+      <c r="D132" s="82"/>
       <c r="E132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15416,7 +15416,7 @@
       <c r="C133" s="7">
         <v>8</v>
       </c>
-      <c r="D133" s="71"/>
+      <c r="D133" s="82"/>
       <c r="E133" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15432,7 +15432,7 @@
       <c r="C134" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D134" s="71"/>
+      <c r="D134" s="82"/>
       <c r="E134" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15448,7 +15448,7 @@
       <c r="C135" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D135" s="71"/>
+      <c r="D135" s="82"/>
       <c r="E135" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15464,7 +15464,7 @@
       <c r="C136" s="7">
         <v>8</v>
       </c>
-      <c r="D136" s="71"/>
+      <c r="D136" s="82"/>
       <c r="E136" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15480,7 +15480,7 @@
       <c r="C137" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="72"/>
+      <c r="D137" s="83"/>
       <c r="E137" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15496,7 +15496,7 @@
       <c r="C138" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D138" s="73" t="s">
+      <c r="D138" s="122" t="s">
         <v>307</v>
       </c>
       <c r="E138" s="6" t="str">
@@ -15514,7 +15514,7 @@
       <c r="C139" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="74"/>
+      <c r="D139" s="123"/>
       <c r="E139" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15530,7 +15530,7 @@
       <c r="C140" s="7">
         <v>2</v>
       </c>
-      <c r="D140" s="74"/>
+      <c r="D140" s="123"/>
       <c r="E140" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15546,7 +15546,7 @@
       <c r="C141" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="74"/>
+      <c r="D141" s="123"/>
       <c r="E141" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15562,7 +15562,7 @@
       <c r="C142" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="74"/>
+      <c r="D142" s="123"/>
       <c r="E142" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15578,7 +15578,7 @@
       <c r="C143" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D143" s="74"/>
+      <c r="D143" s="123"/>
       <c r="E143" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15594,7 +15594,7 @@
       <c r="C144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="74"/>
+      <c r="D144" s="123"/>
       <c r="E144" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15610,7 +15610,7 @@
       <c r="C145" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="74"/>
+      <c r="D145" s="123"/>
       <c r="E145" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15626,7 +15626,7 @@
       <c r="C146" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D146" s="74"/>
+      <c r="D146" s="123"/>
       <c r="E146" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15642,7 +15642,7 @@
       <c r="C147" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D147" s="74"/>
+      <c r="D147" s="123"/>
       <c r="E147" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15658,7 +15658,7 @@
       <c r="C148" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D148" s="74"/>
+      <c r="D148" s="123"/>
       <c r="E148" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15674,7 +15674,7 @@
       <c r="C149" s="7">
         <v>4</v>
       </c>
-      <c r="D149" s="74"/>
+      <c r="D149" s="123"/>
       <c r="E149" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15690,7 +15690,7 @@
       <c r="C150" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="74"/>
+      <c r="D150" s="123"/>
       <c r="E150" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15706,7 +15706,7 @@
       <c r="C151" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D151" s="74"/>
+      <c r="D151" s="123"/>
       <c r="E151" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15722,7 +15722,7 @@
       <c r="C152" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="74"/>
+      <c r="D152" s="123"/>
       <c r="E152" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15738,7 +15738,7 @@
       <c r="C153" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D153" s="74"/>
+      <c r="D153" s="123"/>
       <c r="E153" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15754,7 +15754,7 @@
       <c r="C154" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D154" s="74"/>
+      <c r="D154" s="123"/>
       <c r="E154" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15770,7 +15770,7 @@
       <c r="C155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D155" s="74"/>
+      <c r="D155" s="123"/>
       <c r="E155" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15786,7 +15786,7 @@
       <c r="C156" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D156" s="74"/>
+      <c r="D156" s="123"/>
       <c r="E156" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15802,7 +15802,7 @@
       <c r="C157" s="7">
         <v>1</v>
       </c>
-      <c r="D157" s="74"/>
+      <c r="D157" s="123"/>
       <c r="E157" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15818,7 +15818,7 @@
       <c r="C158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D158" s="74"/>
+      <c r="D158" s="123"/>
       <c r="E158" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15834,7 +15834,7 @@
       <c r="C159" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D159" s="74"/>
+      <c r="D159" s="123"/>
       <c r="E159" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15850,7 +15850,7 @@
       <c r="C160" s="35">
         <v>0</v>
       </c>
-      <c r="D160" s="75"/>
+      <c r="D160" s="124"/>
       <c r="E160" s="6" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -15866,7 +15866,7 @@
       <c r="C161" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D161" s="89" t="s">
+      <c r="D161" s="119" t="s">
         <v>310</v>
       </c>
       <c r="E161" s="6" t="str">
@@ -15884,7 +15884,7 @@
       <c r="C162" s="7">
         <v>2</v>
       </c>
-      <c r="D162" s="89"/>
+      <c r="D162" s="119"/>
       <c r="E162" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -15900,7 +15900,7 @@
       <c r="C163" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="89"/>
+      <c r="D163" s="119"/>
       <c r="E163" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -15916,7 +15916,7 @@
       <c r="C164" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="89"/>
+      <c r="D164" s="119"/>
       <c r="E164" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -15932,7 +15932,7 @@
       <c r="C165" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="89"/>
+      <c r="D165" s="119"/>
       <c r="E165" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -15948,7 +15948,7 @@
       <c r="C166" s="7">
         <v>2</v>
       </c>
-      <c r="D166" s="89"/>
+      <c r="D166" s="119"/>
       <c r="E166" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -15964,7 +15964,7 @@
       <c r="C167" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="89"/>
+      <c r="D167" s="119"/>
       <c r="E167" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -15980,7 +15980,7 @@
       <c r="C168" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="89"/>
+      <c r="D168" s="119"/>
       <c r="E168" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -15996,7 +15996,7 @@
       <c r="C169" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D169" s="89"/>
+      <c r="D169" s="119"/>
       <c r="E169" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16012,7 +16012,7 @@
       <c r="C170" s="7">
         <v>10</v>
       </c>
-      <c r="D170" s="89"/>
+      <c r="D170" s="119"/>
       <c r="E170" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16028,7 +16028,7 @@
       <c r="C171" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D171" s="89"/>
+      <c r="D171" s="119"/>
       <c r="E171" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16044,7 +16044,7 @@
       <c r="C172" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D172" s="89"/>
+      <c r="D172" s="119"/>
       <c r="E172" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16060,7 +16060,7 @@
       <c r="C173" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D173" s="89"/>
+      <c r="D173" s="119"/>
       <c r="E173" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16076,7 +16076,7 @@
       <c r="C174" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D174" s="89"/>
+      <c r="D174" s="119"/>
       <c r="E174" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16092,7 +16092,7 @@
       <c r="C175" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D175" s="89"/>
+      <c r="D175" s="119"/>
       <c r="E175" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16108,7 +16108,7 @@
       <c r="C176" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="89"/>
+      <c r="D176" s="119"/>
       <c r="E176" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16124,7 +16124,7 @@
       <c r="C177" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D177" s="89"/>
+      <c r="D177" s="119"/>
       <c r="E177" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16140,7 +16140,7 @@
       <c r="C178" s="7">
         <v>163</v>
       </c>
-      <c r="D178" s="89"/>
+      <c r="D178" s="119"/>
       <c r="E178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16153,7 +16153,7 @@
       <c r="B179" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="89"/>
+      <c r="D179" s="119"/>
       <c r="E179" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16166,7 +16166,7 @@
       <c r="B180" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D180" s="89"/>
+      <c r="D180" s="119"/>
       <c r="E180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16179,7 +16179,7 @@
       <c r="B181" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D181" s="89"/>
+      <c r="D181" s="119"/>
       <c r="E181" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16192,7 +16192,7 @@
       <c r="B182" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="89"/>
+      <c r="D182" s="119"/>
       <c r="E182" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16205,7 +16205,7 @@
       <c r="B183" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D183" s="89"/>
+      <c r="D183" s="119"/>
       <c r="E183" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16218,7 +16218,7 @@
       <c r="B184" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="89"/>
+      <c r="D184" s="119"/>
       <c r="E184" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
@@ -16231,7 +16231,7 @@
       <c r="B185" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D185" s="89"/>
+      <c r="D185" s="119"/>
       <c r="E185" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ERROR</v>
